--- a/data/В пути АСТ.xlsx
+++ b/data/В пути АСТ.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
   <si>
     <t>Дата</t>
   </si>
@@ -47,6 +47,348 @@
   </si>
   <si>
     <t>Кон ост</t>
+  </si>
+  <si>
+    <t>09.02.2024 0:00:00</t>
+  </si>
+  <si>
+    <t>Астана в Пути</t>
+  </si>
+  <si>
+    <t>100606</t>
+  </si>
+  <si>
+    <t>Салфетка из микрофибры 300х300 мм, 220 гр/м2, желт., 400 шт/кор (ООО ОНМ)</t>
+  </si>
+  <si>
+    <t>Нет</t>
+  </si>
+  <si>
+    <t>100629</t>
+  </si>
+  <si>
+    <t>Полотенца бумажные для диспенсеров 230х210 мм 1-сл. Z-сложен., бел., 200 лист/упак "Терес"</t>
+  </si>
+  <si>
+    <t>250043</t>
+  </si>
+  <si>
+    <t>Подложка для пиццы треуг. 235х235х15, бел., карт., 1500 шт/кор (ООО Типография Альбатрос)</t>
+  </si>
+  <si>
+    <t>303920</t>
+  </si>
+  <si>
+    <t>Салфетки 330х330 мм 3-сл. "Gratias", бел., бум., 250 шт/упак</t>
+  </si>
+  <si>
+    <t>108601</t>
+  </si>
+  <si>
+    <t>Салфетка из вискозы 300х340 мм, 80 гр/м2, цвет в ассорт., 3 шт/упак "Чисто-Солнышко"</t>
+  </si>
+  <si>
+    <t>421180</t>
+  </si>
+  <si>
+    <t>Губка поролоновая для посуды 100х70х30 мм, цвет в ассорт., 5 шт/упак "Гуд"Макси</t>
+  </si>
+  <si>
+    <t>101048</t>
+  </si>
+  <si>
+    <t>Палочки для шашлыка 300 мм, d2,5 мм, бамбук, 100 шт/упак "GREEN MYSTERY"</t>
+  </si>
+  <si>
+    <t>101847</t>
+  </si>
+  <si>
+    <t>Бахилы 1,2 г, син., ПЭ, 100 шт/упак (ООО Полифор)</t>
+  </si>
+  <si>
+    <t>103089</t>
+  </si>
+  <si>
+    <t>Средство для очистки кухонного оборудования щелочное "Pro-Brite" Amol, концентрат, триггер, 500 мл</t>
+  </si>
+  <si>
+    <t>101366</t>
+  </si>
+  <si>
+    <t>Средство для дезинфекции и отбеливания "Platinum Sharks" Gold Белизна 25%, флакон, 1000 мл</t>
+  </si>
+  <si>
+    <t>100298</t>
+  </si>
+  <si>
+    <t>Мешок для мусора 160 л, 80х100 см Компакт, черн., ПВД, 10 шт/рул (ООО КБ Полимер)</t>
+  </si>
+  <si>
+    <t>100120</t>
+  </si>
+  <si>
+    <t>Стакан одноразовый 100 мл, прозр., ПП, 100 шт/упак (ООО Флайпак-С)</t>
+  </si>
+  <si>
+    <t>141080</t>
+  </si>
+  <si>
+    <t>Ложка одноразовая 165 мм, бел., ПС, 100 шт/упак "МИСТЕРИЯ"</t>
+  </si>
+  <si>
+    <t>143080</t>
+  </si>
+  <si>
+    <t>Ложка одноразовая 125 мм, бел., ПС, 100 шт/упак "МИСТЕРИЯ"</t>
+  </si>
+  <si>
+    <t>103535</t>
+  </si>
+  <si>
+    <t>Размешиватель 120 мм, бел., ПС, 500 шт/упак (ООО РТС)</t>
+  </si>
+  <si>
+    <t>122100</t>
+  </si>
+  <si>
+    <t>Тарелка одноразовая 2-секц. d210 мм, бел., ПС, 100 шт/упак "МИСТЕРИЯ"</t>
+  </si>
+  <si>
+    <t>123250</t>
+  </si>
+  <si>
+    <t>Тарелка одноразовая мелкая d167 мм, бел., ПС, 100 шт/упак "МИСТЕРИЯ"</t>
+  </si>
+  <si>
+    <t>104311</t>
+  </si>
+  <si>
+    <t>Контейнер 250 мл 1-секц. d115хh43,6 мм, без крышки, черн., ПП, 50 шт/упак "ПолиЭр"</t>
+  </si>
+  <si>
+    <t>104323</t>
+  </si>
+  <si>
+    <t>Контейнер 375 мл 1-секц. 124,5х124,5х50,7 мм, без крышки, черн., ПЭТ, 50 шт/упак "Upax-Unity"</t>
+  </si>
+  <si>
+    <t>104326</t>
+  </si>
+  <si>
+    <t>Контейнер 350 мл 1-секц. d115хh58,6 мм, без крышки, черн., ПП, 50 шт/упак "ПолиЭр"</t>
+  </si>
+  <si>
+    <t>102338</t>
+  </si>
+  <si>
+    <t>Контейнер 500 мл 1-секц., овал 159х130х55 мм, неразъем.крышка, прозр., ОПС, 330 шт/кор "Протэк"</t>
+  </si>
+  <si>
+    <t>102342</t>
+  </si>
+  <si>
+    <t>Контейнер 500 мл 1-секц. 124,5х124,5х59,8 мм, без крышки, черн., ПЭТ, 50 шт/упак "Upax-Unity"</t>
+  </si>
+  <si>
+    <t>107208</t>
+  </si>
+  <si>
+    <t>Контейнер 800[500+2х150] мл 3-секц., овал 257х202х37 мм, без крышки, черн., ПП, 30 шт/упак "ПолиЭр"</t>
+  </si>
+  <si>
+    <t>102910</t>
+  </si>
+  <si>
+    <t>Крышка к контейнеру купол. 3-секц. овал 257х202х35 мм, прозр., ПП, 30 шт/упак "ПолиЭр"</t>
+  </si>
+  <si>
+    <t>159474</t>
+  </si>
+  <si>
+    <t>Крышка к контейнеру 124,5х124,5х13,1 мм, прозр., ПЭТ, 25 шт/упак "Upax-Unity"</t>
+  </si>
+  <si>
+    <t>159500</t>
+  </si>
+  <si>
+    <t>Крышка к контейнеру d115хh8 мм, прозр., ПП, 50 шт/упак "ПолиЭр"</t>
+  </si>
+  <si>
+    <t>253029</t>
+  </si>
+  <si>
+    <t>Крышка к контейнеру для суши 188х133х32 мм, прозр., ПЭТ, 420 шт/кор "ПолиЭр"</t>
+  </si>
+  <si>
+    <t>253028</t>
+  </si>
+  <si>
+    <t>Контейнер для суши 1-секц. 188х133х30 мм, без крышки, черн., ПЭТ, 420 шт/кор "ПолиЭр"</t>
+  </si>
+  <si>
+    <t>104834</t>
+  </si>
+  <si>
+    <t>Крышка к контейнеру 155х110х13,5 мм, прозр., ПЭТ, 800 шт/кор "OSQ" OpSalad 400/450</t>
+  </si>
+  <si>
+    <t>261613</t>
+  </si>
+  <si>
+    <t>Упаковка для кондит. изделий 650 мл, 1-секц. 224х118х46[190х92х40] мм, неразъем.крышка, прозр., ПЭТ,</t>
+  </si>
+  <si>
+    <t>110621</t>
+  </si>
+  <si>
+    <t>Упаковка [коробка] для сэндвичей 130х130х60 мм, с окном, неразъем.крышка, крафт, карт., 50 шт/упак "</t>
+  </si>
+  <si>
+    <t>106096</t>
+  </si>
+  <si>
+    <t>Обертка для бургеров и хот-догов 320х305 мм, диз. "Рог изобилия", разноцв., бум., 2000 шт/кор (ООО Ф</t>
+  </si>
+  <si>
+    <t>151175</t>
+  </si>
+  <si>
+    <t>Креманка на ножке 200 мл d90хh65 мм, без крышки, прозр., ПС, 16 шт/упак "Aerosnab"</t>
+  </si>
+  <si>
+    <t>223592</t>
+  </si>
+  <si>
+    <t>Пакет фасовочный 250х400 мм 8 мкм, на втул., прозр., ПНД, 500 шт/рул (ООО РадугаУпак)</t>
+  </si>
+  <si>
+    <t>111452</t>
+  </si>
+  <si>
+    <t>Коробка для картофеля фри 105х50х110 мм, M, крафт-бел., карт., 50 шт/упак "OSQ" Eco Fry</t>
+  </si>
+  <si>
+    <t>112278</t>
+  </si>
+  <si>
+    <t>Сахар порционный 5 г, стик, 1000 шт/кор (ООО ВЗЛП)</t>
+  </si>
+  <si>
+    <t>112306</t>
+  </si>
+  <si>
+    <t>Пакет вакуум. 200х300 мм 70 мкм, прозр., ПЭТ/ПЭ, 200 шт/упак (ООО ТК Тасма)</t>
+  </si>
+  <si>
+    <t>112308</t>
+  </si>
+  <si>
+    <t>Пакет вакуум. 160х250 мм 70 мкм, прозр., ПЭТ/ПЭ, 200 шт/упак (ООО ТК Тасма)</t>
+  </si>
+  <si>
+    <t>112691</t>
+  </si>
+  <si>
+    <t>Размешиватель 170 мм, инд. упак., бамбук, 250 шт/упак "GREEN MYSTERY"</t>
+  </si>
+  <si>
+    <t>112713</t>
+  </si>
+  <si>
+    <t>Размешиватель 180 мм, древ. волокно, 1000 шт/упак (ООО Компания Лемио)</t>
+  </si>
+  <si>
+    <t>112790</t>
+  </si>
+  <si>
+    <t>Соусник 80 мл, d70хh36 мм, неразъем. крышка, прозр., ПП, 80 шт/упак (ООО ВЗЛП)</t>
+  </si>
+  <si>
+    <t>112805</t>
+  </si>
+  <si>
+    <t>Крышка к контейнеру d135хh8 мм, прозр., ПЭТ, 200 шт/кор (ИП Плотникова Я.А.)</t>
+  </si>
+  <si>
+    <t>113306</t>
+  </si>
+  <si>
+    <t>Пакет "Майка" [250+120]х450 мм 10 мкм, бел., ПНД, 100 шт/упак (ООО Нижполимерупак)</t>
+  </si>
+  <si>
+    <t>113387</t>
+  </si>
+  <si>
+    <t>Размешиватель 140 мм, инд. упак., древ. волокно, 250 шт/упак (H.T.B.-E.T.Co.)</t>
+  </si>
+  <si>
+    <t>113509</t>
+  </si>
+  <si>
+    <t>Крышка для стакана d80 мм с пробивным слотом и заглушкой, прозр., ПП, 50 шт/упак (ООО ВЗЛП)</t>
+  </si>
+  <si>
+    <t>113511</t>
+  </si>
+  <si>
+    <t>Ложка одноразовая Кристалл 180 мм, черн., ПС, 50 шт/упак (ООО ВЗЛП)</t>
+  </si>
+  <si>
+    <t>114003</t>
+  </si>
+  <si>
+    <t>Контейнер 400 мл, 145х96х45 мм, без окна, без крышки, крафт-черн., карт., 50 шт/упак "OSQ" OpSalad B</t>
+  </si>
+  <si>
+    <t>114524</t>
+  </si>
+  <si>
+    <t>Крышка для стакана d80 мм с пробивным слотом и заглушкой, бел., ПП, 50 шт/упак (ООО ВЗЛП)</t>
+  </si>
+  <si>
+    <t>114700</t>
+  </si>
+  <si>
+    <t>Трубочки для коктейлей 240 мм, d8 мм, черн., пласт. прямые, 150 шт/упак (ООО ПК Диапазон)</t>
+  </si>
+  <si>
+    <t>114751</t>
+  </si>
+  <si>
+    <t>Жидкость незамерзающая для стекол "Hi-tech Wash", бутылка ПЭТ, 4500 мл</t>
+  </si>
+  <si>
+    <t>114849</t>
+  </si>
+  <si>
+    <t>114910</t>
+  </si>
+  <si>
+    <t>Вилка одноразовая Кристалл 180 мм, черн., ПС, 50 шт/упак (ООО ВЗЛП)</t>
+  </si>
+  <si>
+    <t>114977</t>
+  </si>
+  <si>
+    <t>Трубочки для коктейлей 210 мм, d7 мм, черн., пласт. прямые в инд. упаковке, 200 шт/упак (ООО ПК Диап</t>
+  </si>
+  <si>
+    <t>115003</t>
+  </si>
+  <si>
+    <t>Трубочки для коктейлей 240 мм, d8 мм, черн., пласт. прямые в инд. упаковке, 150 шт/упак (ООО ПК Диап</t>
+  </si>
+  <si>
+    <t>115335</t>
+  </si>
+  <si>
+    <t>Контейнер 550 мл, d135хh57 мм, без окна, без крышки, крафт-бел., карт., 50 шт/упак (ООО Паперскоп Ру</t>
+  </si>
+  <si>
+    <t>115471</t>
+  </si>
+  <si>
+    <t>Средство для щеточных машин "Platinum Sharks" Clean Shark, низкопенное, канистра, 5000 мл</t>
   </si>
 </sst>
 </file>
@@ -97,7 +439,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -120,17 +462,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="7D8AB9"/>
+      </left>
+      <right style="thin">
+        <color rgb="7D8AB9"/>
+      </right>
+      <top style="thin">
+        <color rgb="7D8AB9"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="7D8AB9"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0"/>
     <xf numFmtId="0" fontId="0" applyAlignment="true">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="2" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" borderId="2" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="2" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="right" vertical="top" wrapText="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" borderId="2" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="right" vertical="top" wrapText="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" borderId="2" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="right" vertical="top" wrapText="0"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" borderId="2" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -151,20 +526,20 @@
     <outlinePr summaryBelow="false" summaryRight="false"/>
     <pageSetUpPr autoPageBreaks="false" fitToPage="true"/>
   </sheetPr>
-  <dimension ref="H1"/>
+  <dimension ref="H57"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0" rightToLeft="false"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" customHeight="true" defaultRowHeight="11.429"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" style="1" customWidth="true"/>
-    <col min="2" max="2" width="9.5" style="1" customWidth="true"/>
+    <col min="1" max="1" width="23.33203125" style="1" customWidth="true"/>
+    <col min="2" max="2" width="17.5" style="1" customWidth="true"/>
     <col min="3" max="3" width="11.66796875" style="1" customWidth="true"/>
-    <col min="4" max="4" width="18.33203125" style="1" customWidth="true"/>
-    <col min="5" max="5" width="8.5" style="1" customWidth="true"/>
+    <col min="4" max="4" width="74.66796875" style="1" customWidth="true"/>
+    <col min="5" max="5" width="11.66796875" style="1" customWidth="true"/>
     <col min="6" max="6" width="17.83203125" style="1" customWidth="true"/>
     <col min="7" max="7" width="10.83203125" style="1" customWidth="true"/>
-    <col min="8" max="8" width="6.66796875" style="1" customWidth="true"/>
+    <col min="8" max="8" width="10.5" style="1" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="38" customHeight="true">
@@ -191,6 +566,1342 @@
       </c>
       <c r="H1" s="2" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="2" ht="11" customHeight="true">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="4" t="n">
+        <v>108.88</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="5" t="e"/>
+      <c r="H2" s="6" t="n">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" ht="22" customHeight="true">
+      <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>309.89</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="5" t="e"/>
+      <c r="H3" s="6" t="n">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="4" ht="22" customHeight="true">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>11.71</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="5" t="e"/>
+      <c r="H4" s="7" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="5" ht="11" customHeight="true">
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="8" t="n">
+        <v>1748.97</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="5" t="e"/>
+      <c r="H5" s="6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" ht="22" customHeight="true">
+      <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>128.33</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="5" t="e"/>
+      <c r="H6" s="6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" ht="11" customHeight="true">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>196.46</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="5" t="e"/>
+      <c r="H7" s="6" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" ht="11" customHeight="true">
+      <c r="A8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>63.59</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="5" t="e"/>
+      <c r="H8" s="7" t="n">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="9" ht="11" customHeight="true">
+      <c r="A9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="4" t="n">
+        <v>229.27</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="5" t="e"/>
+      <c r="H9" s="6" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" ht="22" customHeight="true">
+      <c r="A10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>898.12</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="5" t="e"/>
+      <c r="H10" s="6" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" ht="22" customHeight="true">
+      <c r="A11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="4" t="n">
+        <v>240</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="5" t="e"/>
+      <c r="H11" s="6" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" ht="22" customHeight="true">
+      <c r="A12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="4" t="n">
+        <v>293.69</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="5" t="e"/>
+      <c r="H12" s="6" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="13" ht="11" customHeight="true">
+      <c r="A13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="4" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="5" t="e"/>
+      <c r="H13" s="7" t="n">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="14" ht="11" customHeight="true">
+      <c r="A14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="4" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="5" t="e"/>
+      <c r="H14" s="7" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="15" ht="11" customHeight="true">
+      <c r="A15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="4" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="5" t="e"/>
+      <c r="H15" s="7" t="n">
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="16" ht="11" customHeight="true">
+      <c r="A16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="4" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="5" t="e"/>
+      <c r="H16" s="7" t="n">
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="17" ht="11" customHeight="true">
+      <c r="A17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="4" t="n">
+        <v>9.77</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="5" t="e"/>
+      <c r="H17" s="7" t="n">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="18" ht="11" customHeight="true">
+      <c r="A18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="4" t="n">
+        <v>6.98</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="5" t="e"/>
+      <c r="H18" s="7" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="19" ht="11" customHeight="true">
+      <c r="A19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="4" t="n">
+        <v>13.78</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="5" t="e"/>
+      <c r="H19" s="7" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="20" ht="22" customHeight="true">
+      <c r="A20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="4" t="n">
+        <v>7.15</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="5" t="e"/>
+      <c r="H20" s="7" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="21" ht="11" customHeight="true">
+      <c r="A21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="4" t="n">
+        <v>15.95</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="5" t="e"/>
+      <c r="H21" s="7" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="22" ht="22" customHeight="true">
+      <c r="A22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="4" t="n">
+        <v>21.15</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="5" t="e"/>
+      <c r="H22" s="7" t="n">
+        <v>6600</v>
+      </c>
+    </row>
+    <row r="23" ht="22" customHeight="true">
+      <c r="A23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" s="4" t="n">
+        <v>8.53</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="5" t="e"/>
+      <c r="H23" s="7" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="24" ht="22" customHeight="true">
+      <c r="A24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" s="4" t="n">
+        <v>39.94</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="5" t="e"/>
+      <c r="H24" s="7" t="n">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="25" ht="22" customHeight="true">
+      <c r="A25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" s="4" t="n">
+        <v>39.8</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="5" t="e"/>
+      <c r="H25" s="7" t="n">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="26" ht="11" customHeight="true">
+      <c r="A26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" s="4" t="n">
+        <v>7.86</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="5" t="e"/>
+      <c r="H26" s="7" t="n">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="27" ht="11" customHeight="true">
+      <c r="A27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E27" s="4" t="n">
+        <v>7.05</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="5" t="e"/>
+      <c r="H27" s="7" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="28" ht="11" customHeight="true">
+      <c r="A28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="4" t="n">
+        <v>20.14</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="5" t="e"/>
+      <c r="H28" s="6" t="n">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="29" ht="22" customHeight="true">
+      <c r="A29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E29" s="4" t="n">
+        <v>17.29</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="5" t="e"/>
+      <c r="H29" s="6" t="n">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="30" ht="22" customHeight="true">
+      <c r="A30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E30" s="4" t="n">
+        <v>15.28</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="5" t="e"/>
+      <c r="H30" s="6" t="n">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="31" ht="22" customHeight="true">
+      <c r="A31" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E31" s="4" t="n">
+        <v>21.07</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="5" t="e"/>
+      <c r="H31" s="7" t="n">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="32" ht="22" customHeight="true">
+      <c r="A32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E32" s="4" t="n">
+        <v>27.55</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" s="5" t="e"/>
+      <c r="H32" s="6" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="33" ht="22" customHeight="true">
+      <c r="A33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E33" s="4" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" s="5" t="e"/>
+      <c r="H33" s="7" t="n">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="34" ht="22" customHeight="true">
+      <c r="A34" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E34" s="4" t="n">
+        <v>31.22</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="5" t="e"/>
+      <c r="H34" s="6" t="n">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="35" ht="22" customHeight="true">
+      <c r="A35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E35" s="4" t="n">
+        <v>706.56</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" s="5" t="e"/>
+      <c r="H35" s="6" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" ht="22" customHeight="true">
+      <c r="A36" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E36" s="4" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" s="5" t="e"/>
+      <c r="H36" s="7" t="n">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="37" ht="11" customHeight="true">
+      <c r="A37" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E37" s="4" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" s="5" t="e"/>
+      <c r="H37" s="7" t="n">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="38" ht="11" customHeight="true">
+      <c r="A38" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E38" s="8" t="n">
+        <v>2419.73</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" s="5" t="e"/>
+      <c r="H38" s="6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" ht="11" customHeight="true">
+      <c r="A39" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E39" s="8" t="n">
+        <v>1607.33</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" s="5" t="e"/>
+      <c r="H39" s="6" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" ht="11" customHeight="true">
+      <c r="A40" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E40" s="4" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" s="5" t="e"/>
+      <c r="H40" s="7" t="n">
+        <v>46000</v>
+      </c>
+    </row>
+    <row r="41" ht="11" customHeight="true">
+      <c r="A41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E41" s="4" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" s="5" t="e"/>
+      <c r="H41" s="7" t="n">
+        <v>29000</v>
+      </c>
+    </row>
+    <row r="42" ht="11" customHeight="true">
+      <c r="A42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E42" s="4" t="n">
+        <v>8.92</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" s="5" t="e"/>
+      <c r="H42" s="6" t="n">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="43" ht="11" customHeight="true">
+      <c r="A43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E43" s="3" t="e"/>
+      <c r="F43" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" s="5" t="e"/>
+      <c r="H43" s="7" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="44" ht="22" customHeight="true">
+      <c r="A44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E44" s="4" t="n">
+        <v>283.34</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44" s="5" t="e"/>
+      <c r="H44" s="6" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" ht="11" customHeight="true">
+      <c r="A45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E45" s="3" t="e"/>
+      <c r="F45" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45" s="5" t="e"/>
+      <c r="H45" s="7" t="n">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="46" ht="22" customHeight="true">
+      <c r="A46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E46" s="4" t="n">
+        <v>7.61</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" s="5" t="e"/>
+      <c r="H46" s="7" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="47" ht="11" customHeight="true">
+      <c r="A47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E47" s="4" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" s="5" t="e"/>
+      <c r="H47" s="7" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="48" ht="22" customHeight="true">
+      <c r="A48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E48" s="4" t="n">
+        <v>18.69</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G48" s="5" t="e"/>
+      <c r="H48" s="6" t="n">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="49" ht="22" customHeight="true">
+      <c r="A49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E49" s="4" t="n">
+        <v>7.64</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49" s="5" t="e"/>
+      <c r="H49" s="7" t="n">
+        <v>3950</v>
+      </c>
+    </row>
+    <row r="50" ht="22" customHeight="true">
+      <c r="A50" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E50" s="4" t="n">
+        <v>239.32</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" s="5" t="e"/>
+      <c r="H50" s="6" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="51" ht="11" customHeight="true">
+      <c r="A51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E51" s="4" t="n">
+        <v>541.88</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G51" s="5" t="e"/>
+      <c r="H51" s="6" t="n">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="52" ht="22" customHeight="true">
+      <c r="A52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E52" s="4" t="n">
+        <v>27.79</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G52" s="5" t="e"/>
+      <c r="H52" s="6" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="53" ht="11" customHeight="true">
+      <c r="A53" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E53" s="4" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G53" s="5" t="e"/>
+      <c r="H53" s="7" t="n">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="54" ht="22" customHeight="true">
+      <c r="A54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E54" s="4" t="n">
+        <v>417.95</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54" s="5" t="e"/>
+      <c r="H54" s="6" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="55" ht="22" customHeight="true">
+      <c r="A55" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E55" s="3" t="e"/>
+      <c r="F55" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G55" s="5" t="e"/>
+      <c r="H55" s="6" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56" ht="22" customHeight="true">
+      <c r="A56" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E56" s="3" t="e"/>
+      <c r="F56" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G56" s="5" t="e"/>
+      <c r="H56" s="7" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="57" ht="22" customHeight="true">
+      <c r="A57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>1900</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G57" s="5" t="e"/>
+      <c r="H57" s="6" t="n">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/data/В пути АСТ.xlsx
+++ b/data/В пути АСТ.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
   <si>
     <t>Дата</t>
   </si>
@@ -49,7 +49,7 @@
     <t>Кон ост</t>
   </si>
   <si>
-    <t>09.02.2024 0:00:00</t>
+    <t>12.02.2024 0:00:00</t>
   </si>
   <si>
     <t>Астана в Пути</t>
@@ -304,6 +304,12 @@
     <t>Соусник 80 мл, d70хh36 мм, неразъем. крышка, прозр., ПП, 80 шт/упак (ООО ВЗЛП)</t>
   </si>
   <si>
+    <t>112795</t>
+  </si>
+  <si>
+    <t>Крышка для стакана d90 мм с пробивным слотом и заглушкой, черн., ПП, 50 шт/упак (ООО ВЗЛП)</t>
+  </si>
+  <si>
     <t>112805</t>
   </si>
   <si>
@@ -320,6 +326,21 @@
   </si>
   <si>
     <t>Размешиватель 140 мм, инд. упак., древ. волокно, 250 шт/упак (H.T.B.-E.T.Co.)</t>
+  </si>
+  <si>
+    <t>113506</t>
+  </si>
+  <si>
+    <t>Крышка для стакана d90 мм с пробивным слотом и заглушкой, бел., ПП, 50 шт/упак (ООО ВЗЛП)</t>
+  </si>
+  <si>
+    <t>113507</t>
+  </si>
+  <si>
+    <t>Крышка для стакана d90 мм с пробивным слотом и заглушкой, желт., ПП, 50 шт/упак (ООО ВЗЛП)</t>
+  </si>
+  <si>
+    <t>113508</t>
   </si>
   <si>
     <t>113509</t>
@@ -526,7 +547,7 @@
     <outlinePr summaryBelow="false" summaryRight="false"/>
     <pageSetUpPr autoPageBreaks="false" fitToPage="true"/>
   </sheetPr>
-  <dimension ref="H57"/>
+  <dimension ref="H61"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0" rightToLeft="false"/>
   </sheetViews>
@@ -1552,7 +1573,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="43" ht="11" customHeight="true">
+    <row r="43" ht="22" customHeight="true">
       <c r="A43" s="3" t="s">
         <v>8</v>
       </c>
@@ -1565,16 +1586,18 @@
       <c r="D43" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="E43" s="3" t="e"/>
+      <c r="E43" s="4" t="n">
+        <v>8.57</v>
+      </c>
       <c r="F43" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G43" s="5" t="e"/>
       <c r="H43" s="7" t="n">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="44" ht="22" customHeight="true">
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="44" ht="11" customHeight="true">
       <c r="A44" s="3" t="s">
         <v>8</v>
       </c>
@@ -1587,18 +1610,16 @@
       <c r="D44" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="E44" s="4" t="n">
-        <v>283.34</v>
-      </c>
+      <c r="E44" s="3" t="e"/>
       <c r="F44" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G44" s="5" t="e"/>
-      <c r="H44" s="6" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="45" ht="11" customHeight="true">
+      <c r="H44" s="7" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="45" ht="22" customHeight="true">
       <c r="A45" s="3" t="s">
         <v>8</v>
       </c>
@@ -1611,16 +1632,18 @@
       <c r="D45" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E45" s="3" t="e"/>
+      <c r="E45" s="4" t="n">
+        <v>283.34</v>
+      </c>
       <c r="F45" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G45" s="5" t="e"/>
-      <c r="H45" s="7" t="n">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="46" ht="22" customHeight="true">
+      <c r="H45" s="6" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" ht="11" customHeight="true">
       <c r="A46" s="3" t="s">
         <v>8</v>
       </c>
@@ -1633,18 +1656,16 @@
       <c r="D46" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="E46" s="4" t="n">
-        <v>7.61</v>
-      </c>
+      <c r="E46" s="3" t="e"/>
       <c r="F46" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G46" s="5" t="e"/>
       <c r="H46" s="7" t="n">
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="47" ht="11" customHeight="true">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="47" ht="22" customHeight="true">
       <c r="A47" s="3" t="s">
         <v>8</v>
       </c>
@@ -1658,14 +1679,14 @@
         <v>102</v>
       </c>
       <c r="E47" s="4" t="n">
-        <v>4.9</v>
+        <v>8.56</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G47" s="5" t="e"/>
       <c r="H47" s="7" t="n">
-        <v>10000</v>
+        <v>161000</v>
       </c>
     </row>
     <row r="48" ht="22" customHeight="true">
@@ -1682,17 +1703,17 @@
         <v>104</v>
       </c>
       <c r="E48" s="4" t="n">
-        <v>18.69</v>
+        <v>8.56</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G48" s="5" t="e"/>
-      <c r="H48" s="6" t="n">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="49" ht="22" customHeight="true">
+      <c r="H48" s="7" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="49" ht="11" customHeight="true">
       <c r="A49" s="3" t="s">
         <v>8</v>
       </c>
@@ -1703,17 +1724,17 @@
         <v>105</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="E49" s="4" t="n">
-        <v>7.64</v>
+        <v>2.89</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G49" s="5" t="e"/>
       <c r="H49" s="7" t="n">
-        <v>3950</v>
+        <v>70000</v>
       </c>
     </row>
     <row r="50" ht="22" customHeight="true">
@@ -1724,20 +1745,20 @@
         <v>9</v>
       </c>
       <c r="C50" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D50" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D50" s="3" t="s">
-        <v>108</v>
-      </c>
       <c r="E50" s="4" t="n">
-        <v>239.32</v>
+        <v>7.61</v>
       </c>
       <c r="F50" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G50" s="5" t="e"/>
-      <c r="H50" s="6" t="n">
-        <v>400</v>
+      <c r="H50" s="7" t="n">
+        <v>16000</v>
       </c>
     </row>
     <row r="51" ht="11" customHeight="true">
@@ -1748,20 +1769,20 @@
         <v>9</v>
       </c>
       <c r="C51" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D51" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D51" s="3" t="s">
-        <v>110</v>
-      </c>
       <c r="E51" s="4" t="n">
-        <v>541.88</v>
+        <v>4.9</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G51" s="5" t="e"/>
-      <c r="H51" s="6" t="n">
-        <v>750</v>
+      <c r="H51" s="7" t="n">
+        <v>10000</v>
       </c>
     </row>
     <row r="52" ht="22" customHeight="true">
@@ -1772,23 +1793,23 @@
         <v>9</v>
       </c>
       <c r="C52" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D52" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>72</v>
-      </c>
       <c r="E52" s="4" t="n">
-        <v>27.79</v>
+        <v>18.69</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G52" s="5" t="e"/>
       <c r="H52" s="6" t="n">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="53" ht="11" customHeight="true">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="53" ht="22" customHeight="true">
       <c r="A53" s="3" t="s">
         <v>8</v>
       </c>
@@ -1802,14 +1823,14 @@
         <v>113</v>
       </c>
       <c r="E53" s="4" t="n">
-        <v>4.89</v>
+        <v>7.64</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G53" s="5" t="e"/>
       <c r="H53" s="7" t="n">
-        <v>12000</v>
+        <v>3950</v>
       </c>
     </row>
     <row r="54" ht="22" customHeight="true">
@@ -1826,17 +1847,17 @@
         <v>115</v>
       </c>
       <c r="E54" s="4" t="n">
-        <v>417.95</v>
+        <v>239.32</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G54" s="5" t="e"/>
       <c r="H54" s="6" t="n">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="55" ht="22" customHeight="true">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="55" ht="11" customHeight="true">
       <c r="A55" s="3" t="s">
         <v>8</v>
       </c>
@@ -1849,13 +1870,15 @@
       <c r="D55" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="E55" s="3" t="e"/>
+      <c r="E55" s="4" t="n">
+        <v>541.88</v>
+      </c>
       <c r="F55" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G55" s="5" t="e"/>
       <c r="H55" s="6" t="n">
-        <v>32</v>
+        <v>750</v>
       </c>
     </row>
     <row r="56" ht="22" customHeight="true">
@@ -1869,38 +1892,132 @@
         <v>118</v>
       </c>
       <c r="D56" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E56" s="4" t="n">
+        <v>27.79</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G56" s="5" t="e"/>
+      <c r="H56" s="6" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="57" ht="11" customHeight="true">
+      <c r="A57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="E56" s="3" t="e"/>
-      <c r="F56" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G56" s="5" t="e"/>
-      <c r="H56" s="7" t="n">
+      <c r="D57" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E57" s="4" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G57" s="5" t="e"/>
+      <c r="H57" s="7" t="n">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="58" ht="22" customHeight="true">
+      <c r="A58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E58" s="4" t="n">
+        <v>417.95</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G58" s="5" t="e"/>
+      <c r="H58" s="6" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="59" ht="22" customHeight="true">
+      <c r="A59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E59" s="3" t="e"/>
+      <c r="F59" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G59" s="5" t="e"/>
+      <c r="H59" s="6" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="60" ht="22" customHeight="true">
+      <c r="A60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E60" s="3" t="e"/>
+      <c r="F60" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G60" s="5" t="e"/>
+      <c r="H60" s="7" t="n">
         <v>2000</v>
       </c>
     </row>
-    <row r="57" ht="22" customHeight="true">
-      <c r="A57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E57" s="8" t="n">
+    <row r="61" ht="22" customHeight="true">
+      <c r="A61" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E61" s="8" t="n">
         <v>1900</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G57" s="5" t="e"/>
-      <c r="H57" s="6" t="n">
+      <c r="F61" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G61" s="5" t="e"/>
+      <c r="H61" s="6" t="n">
         <v>50</v>
       </c>
     </row>

--- a/data/В пути АСТ.xlsx
+++ b/data/В пути АСТ.xlsx
@@ -49,7 +49,7 @@
     <t>Кон ост</t>
   </si>
   <si>
-    <t>12.02.2024 0:00:00</t>
+    <t>14.02.2024 0:00:00</t>
   </si>
   <si>
     <t>Астана в Пути</t>

--- a/data/В пути АСТ.xlsx
+++ b/data/В пути АСТ.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
   <si>
     <t>Дата</t>
   </si>
@@ -49,7 +49,7 @@
     <t>Кон ост</t>
   </si>
   <si>
-    <t>14.02.2024 0:00:00</t>
+    <t>16.02.2024 0:00:00</t>
   </si>
   <si>
     <t>Астана в Пути</t>
@@ -304,12 +304,6 @@
     <t>Соусник 80 мл, d70хh36 мм, неразъем. крышка, прозр., ПП, 80 шт/упак (ООО ВЗЛП)</t>
   </si>
   <si>
-    <t>112795</t>
-  </si>
-  <si>
-    <t>Крышка для стакана d90 мм с пробивным слотом и заглушкой, черн., ПП, 50 шт/упак (ООО ВЗЛП)</t>
-  </si>
-  <si>
     <t>112805</t>
   </si>
   <si>
@@ -326,21 +320,6 @@
   </si>
   <si>
     <t>Размешиватель 140 мм, инд. упак., древ. волокно, 250 шт/упак (H.T.B.-E.T.Co.)</t>
-  </si>
-  <si>
-    <t>113506</t>
-  </si>
-  <si>
-    <t>Крышка для стакана d90 мм с пробивным слотом и заглушкой, бел., ПП, 50 шт/упак (ООО ВЗЛП)</t>
-  </si>
-  <si>
-    <t>113507</t>
-  </si>
-  <si>
-    <t>Крышка для стакана d90 мм с пробивным слотом и заглушкой, желт., ПП, 50 шт/упак (ООО ВЗЛП)</t>
-  </si>
-  <si>
-    <t>113508</t>
   </si>
   <si>
     <t>113509</t>
@@ -547,7 +526,7 @@
     <outlinePr summaryBelow="false" summaryRight="false"/>
     <pageSetUpPr autoPageBreaks="false" fitToPage="true"/>
   </sheetPr>
-  <dimension ref="H61"/>
+  <dimension ref="H57"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0" rightToLeft="false"/>
   </sheetViews>
@@ -826,7 +805,7 @@
       </c>
       <c r="G11" s="5" t="e"/>
       <c r="H11" s="6" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" ht="22" customHeight="true">
@@ -1522,7 +1501,7 @@
       </c>
       <c r="G40" s="5" t="e"/>
       <c r="H40" s="7" t="n">
-        <v>46000</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="41" ht="11" customHeight="true">
@@ -1573,7 +1552,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="43" ht="22" customHeight="true">
+    <row r="43" ht="11" customHeight="true">
       <c r="A43" s="3" t="s">
         <v>8</v>
       </c>
@@ -1586,18 +1565,16 @@
       <c r="D43" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="E43" s="4" t="n">
-        <v>8.57</v>
-      </c>
+      <c r="E43" s="3" t="e"/>
       <c r="F43" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G43" s="5" t="e"/>
       <c r="H43" s="7" t="n">
-        <v>140000</v>
-      </c>
-    </row>
-    <row r="44" ht="11" customHeight="true">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="44" ht="22" customHeight="true">
       <c r="A44" s="3" t="s">
         <v>8</v>
       </c>
@@ -1610,16 +1587,18 @@
       <c r="D44" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="E44" s="3" t="e"/>
+      <c r="E44" s="4" t="n">
+        <v>283.34</v>
+      </c>
       <c r="F44" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G44" s="5" t="e"/>
-      <c r="H44" s="7" t="n">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="45" ht="22" customHeight="true">
+      <c r="H44" s="6" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" ht="11" customHeight="true">
       <c r="A45" s="3" t="s">
         <v>8</v>
       </c>
@@ -1632,18 +1611,16 @@
       <c r="D45" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E45" s="4" t="n">
-        <v>283.34</v>
-      </c>
+      <c r="E45" s="3" t="e"/>
       <c r="F45" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G45" s="5" t="e"/>
-      <c r="H45" s="6" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="46" ht="11" customHeight="true">
+      <c r="H45" s="7" t="n">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="46" ht="22" customHeight="true">
       <c r="A46" s="3" t="s">
         <v>8</v>
       </c>
@@ -1656,16 +1633,18 @@
       <c r="D46" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="E46" s="3" t="e"/>
+      <c r="E46" s="4" t="n">
+        <v>7.61</v>
+      </c>
       <c r="F46" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G46" s="5" t="e"/>
       <c r="H46" s="7" t="n">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="47" ht="22" customHeight="true">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="47" ht="11" customHeight="true">
       <c r="A47" s="3" t="s">
         <v>8</v>
       </c>
@@ -1679,14 +1658,14 @@
         <v>102</v>
       </c>
       <c r="E47" s="4" t="n">
-        <v>8.56</v>
+        <v>4.9</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G47" s="5" t="e"/>
       <c r="H47" s="7" t="n">
-        <v>161000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="48" ht="22" customHeight="true">
@@ -1703,17 +1682,17 @@
         <v>104</v>
       </c>
       <c r="E48" s="4" t="n">
-        <v>8.56</v>
+        <v>18.69</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G48" s="5" t="e"/>
-      <c r="H48" s="7" t="n">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="49" ht="11" customHeight="true">
+      <c r="H48" s="6" t="n">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="49" ht="22" customHeight="true">
       <c r="A49" s="3" t="s">
         <v>8</v>
       </c>
@@ -1724,17 +1703,17 @@
         <v>105</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="E49" s="4" t="n">
-        <v>2.89</v>
+        <v>7.64</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G49" s="5" t="e"/>
       <c r="H49" s="7" t="n">
-        <v>70000</v>
+        <v>3950</v>
       </c>
     </row>
     <row r="50" ht="22" customHeight="true">
@@ -1745,20 +1724,20 @@
         <v>9</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E50" s="4" t="n">
-        <v>7.61</v>
+        <v>239.32</v>
       </c>
       <c r="F50" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G50" s="5" t="e"/>
-      <c r="H50" s="7" t="n">
-        <v>16000</v>
+      <c r="H50" s="6" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="51" ht="11" customHeight="true">
@@ -1769,20 +1748,20 @@
         <v>9</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E51" s="4" t="n">
-        <v>4.9</v>
+        <v>541.88</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G51" s="5" t="e"/>
-      <c r="H51" s="7" t="n">
-        <v>10000</v>
+      <c r="H51" s="6" t="n">
+        <v>750</v>
       </c>
     </row>
     <row r="52" ht="22" customHeight="true">
@@ -1793,23 +1772,23 @@
         <v>9</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="E52" s="4" t="n">
-        <v>18.69</v>
+        <v>27.79</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G52" s="5" t="e"/>
       <c r="H52" s="6" t="n">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="53" ht="22" customHeight="true">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="53" ht="11" customHeight="true">
       <c r="A53" s="3" t="s">
         <v>8</v>
       </c>
@@ -1823,14 +1802,14 @@
         <v>113</v>
       </c>
       <c r="E53" s="4" t="n">
-        <v>7.64</v>
+        <v>4.89</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G53" s="5" t="e"/>
       <c r="H53" s="7" t="n">
-        <v>3950</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="54" ht="22" customHeight="true">
@@ -1847,17 +1826,17 @@
         <v>115</v>
       </c>
       <c r="E54" s="4" t="n">
-        <v>239.32</v>
+        <v>417.95</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G54" s="5" t="e"/>
       <c r="H54" s="6" t="n">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="55" ht="11" customHeight="true">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="55" ht="22" customHeight="true">
       <c r="A55" s="3" t="s">
         <v>8</v>
       </c>
@@ -1870,15 +1849,13 @@
       <c r="D55" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="E55" s="4" t="n">
-        <v>541.88</v>
-      </c>
+      <c r="E55" s="3" t="e"/>
       <c r="F55" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G55" s="5" t="e"/>
       <c r="H55" s="6" t="n">
-        <v>750</v>
+        <v>32</v>
       </c>
     </row>
     <row r="56" ht="22" customHeight="true">
@@ -1892,20 +1869,18 @@
         <v>118</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E56" s="4" t="n">
-        <v>27.79</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="E56" s="3" t="e"/>
       <c r="F56" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G56" s="5" t="e"/>
-      <c r="H56" s="6" t="n">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="57" ht="11" customHeight="true">
+      <c r="H56" s="7" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="57" ht="22" customHeight="true">
       <c r="A57" s="3" t="s">
         <v>8</v>
       </c>
@@ -1913,111 +1888,19 @@
         <v>9</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="E57" s="4" t="n">
-        <v>4.89</v>
+        <v>121</v>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>1900</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G57" s="5" t="e"/>
-      <c r="H57" s="7" t="n">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="58" ht="22" customHeight="true">
-      <c r="A58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E58" s="4" t="n">
-        <v>417.95</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G58" s="5" t="e"/>
-      <c r="H58" s="6" t="n">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="59" ht="22" customHeight="true">
-      <c r="A59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="E59" s="3" t="e"/>
-      <c r="F59" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G59" s="5" t="e"/>
-      <c r="H59" s="6" t="n">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="60" ht="22" customHeight="true">
-      <c r="A60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="E60" s="3" t="e"/>
-      <c r="F60" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G60" s="5" t="e"/>
-      <c r="H60" s="7" t="n">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="61" ht="22" customHeight="true">
-      <c r="A61" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E61" s="8" t="n">
-        <v>1900</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G61" s="5" t="e"/>
-      <c r="H61" s="6" t="n">
+      <c r="H57" s="6" t="n">
         <v>50</v>
       </c>
     </row>

--- a/data/В пути АСТ.xlsx
+++ b/data/В пути АСТ.xlsx
@@ -49,7 +49,7 @@
     <t>Кон ост</t>
   </si>
   <si>
-    <t>16.02.2024 0:00:00</t>
+    <t>19.02.2024 0:00:00</t>
   </si>
   <si>
     <t>Астана в Пути</t>

--- a/data/В пути АСТ.xlsx
+++ b/data/В пути АСТ.xlsx
@@ -49,7 +49,7 @@
     <t>Кон ост</t>
   </si>
   <si>
-    <t>19.02.2024 0:00:00</t>
+    <t>21.02.2024 0:00:00</t>
   </si>
   <si>
     <t>Астана в Пути</t>
@@ -1611,7 +1611,9 @@
       <c r="D45" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E45" s="3" t="e"/>
+      <c r="E45" s="4" t="n">
+        <v>2.74</v>
+      </c>
       <c r="F45" s="3" t="s">
         <v>12</v>
       </c>

--- a/data/В пути АСТ.xlsx
+++ b/data/В пути АСТ.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="141">
   <si>
     <t>Дата</t>
   </si>
@@ -47,6 +47,405 @@
   </si>
   <si>
     <t>Кон ост</t>
+  </si>
+  <si>
+    <t>06.03.2024 0:00:00</t>
+  </si>
+  <si>
+    <t>Астана в Пути</t>
+  </si>
+  <si>
+    <t>187160</t>
+  </si>
+  <si>
+    <t>Набор одноразовой посуды "Премиум чайный" [6 стак. 200 мл, ПП+6 тар. d167 мм, ПС+6 ч. лож.+6 вил.+6 </t>
+  </si>
+  <si>
+    <t>Нет</t>
+  </si>
+  <si>
+    <t>100605</t>
+  </si>
+  <si>
+    <t>Салфетка из микрофибры 300х300 мм, 220 гр/м2, зел., 400 шт/кор (ООО ОНМ)</t>
+  </si>
+  <si>
+    <t>100606</t>
+  </si>
+  <si>
+    <t>Салфетка из микрофибры 300х300 мм, 220 гр/м2, желт., 400 шт/кор (ООО ОНМ)</t>
+  </si>
+  <si>
+    <t>100629</t>
+  </si>
+  <si>
+    <t>Полотенца бумажные для диспенсеров 230х210 мм 1-сл. Z-сложен., бел., 200 лист/упак "Терес"</t>
+  </si>
+  <si>
+    <t>103896</t>
+  </si>
+  <si>
+    <t>Салфетки 250х250 мм 1-сл., бел., бум., 100 шт/упак (ИП Головкин С.В.)</t>
+  </si>
+  <si>
+    <t>101043</t>
+  </si>
+  <si>
+    <t>Палочки для шашлыка 200 мм, d2,5 мм, бамбук, 100 шт/упак "GREEN MYSTERY"</t>
+  </si>
+  <si>
+    <t>847281</t>
+  </si>
+  <si>
+    <t>Средство для мытья пароконвектоматов "Pro-Brite" Strong, концентрат, канистра, 5000 мл</t>
+  </si>
+  <si>
+    <t>101369</t>
+  </si>
+  <si>
+    <t>Средство для мытья посуды "Silver Regular" Лимон, бутылка ПЭТ, 5000 мл</t>
+  </si>
+  <si>
+    <t>101694</t>
+  </si>
+  <si>
+    <t>Мыло кусковое хозяйственное "Калужский блеск" 72%, 200 г</t>
+  </si>
+  <si>
+    <t>107360</t>
+  </si>
+  <si>
+    <t>Крышка для стакана d90 мм с центральным отверстием, прозр., ПС, 100 шт/упак (ООО Агроэкодом)</t>
+  </si>
+  <si>
+    <t>141080</t>
+  </si>
+  <si>
+    <t>Ложка одноразовая 165 мм, бел., ПС, 100 шт/упак "МИСТЕРИЯ"</t>
+  </si>
+  <si>
+    <t>291081</t>
+  </si>
+  <si>
+    <t>Бутылка ПЭТ 300 мл, прозр., горло d38 мм, крышка в компл., 150 шт/кор (ООО Мастерпэт)</t>
+  </si>
+  <si>
+    <t>121490</t>
+  </si>
+  <si>
+    <t>Тарелка одноразовая глубокая 475 мл, d153 мм, бел., ПП, 50 шт/упак "МИСТЕРИЯ"</t>
+  </si>
+  <si>
+    <t>253029</t>
+  </si>
+  <si>
+    <t>Крышка к контейнеру для суши 188х133х32 мм, прозр., ПЭТ, 420 шт/кор "ПолиЭр"</t>
+  </si>
+  <si>
+    <t>253028</t>
+  </si>
+  <si>
+    <t>Контейнер для суши 1-секц. 188х133х30 мм, без крышки, черн., ПЭТ, 420 шт/кор "ПолиЭр"</t>
+  </si>
+  <si>
+    <t>501111</t>
+  </si>
+  <si>
+    <t>Комплект столовых приборов №1 [вил. Кристалл 180 мм, черн., ПС], 300 шт/кор (ООО ВЗЛП)</t>
+  </si>
+  <si>
+    <t>501323</t>
+  </si>
+  <si>
+    <t>Комплект столовых приборов №3 [лож.ст.+ вил.: 165 мм, бел., ПС+ салф.], 300 шт/кор</t>
+  </si>
+  <si>
+    <t>501423</t>
+  </si>
+  <si>
+    <t>Комплект столовых приборов №4 [лож.ст.+ вил.+ нож: 165 мм, бел., ПС+ салф.], 300 шт/кор</t>
+  </si>
+  <si>
+    <t>501523</t>
+  </si>
+  <si>
+    <t>Комплект столовых приборов №5 [лож.ст.+ вил.+ нож: 165 мм, бел., ПС+ салф.+ з/ч.], 300 шт/кор</t>
+  </si>
+  <si>
+    <t>106098</t>
+  </si>
+  <si>
+    <t>Упаковка для бургера типа "Уголок" 150х145 мм, бел., бум., 2500 шт/кор (ООО ФлексаПринт)</t>
+  </si>
+  <si>
+    <t>106521</t>
+  </si>
+  <si>
+    <t>Размешиватель 180 мм, инд. упак., древ. волокно, 250 шт/упак (ООО Компания Лемио)</t>
+  </si>
+  <si>
+    <t>107393</t>
+  </si>
+  <si>
+    <t>Ложка одноразовая 125 мм, бел., ПС, 12 шт/упак "МИСТЕРИЯ"</t>
+  </si>
+  <si>
+    <t>183040</t>
+  </si>
+  <si>
+    <t>Тарелка одноразовая мелкая d205 мм, бел., ПС, 12 шт/упак "МИСТЕРИЯ"</t>
+  </si>
+  <si>
+    <t>185155</t>
+  </si>
+  <si>
+    <t>Вилка одноразовая 165 мм, бел., ПС, 12 шт/упак "МИСТЕРИЯ"</t>
+  </si>
+  <si>
+    <t>108026</t>
+  </si>
+  <si>
+    <t>Ложка одноразовая 165 мм, бел., ПС, 12 шт/упак "МИСТЕРИЯ"</t>
+  </si>
+  <si>
+    <t>224424</t>
+  </si>
+  <si>
+    <t>Пакет Zip-Lock 120х170 мм, прозр., ПВД, 100 шт/упак (T.Z.W.P.)</t>
+  </si>
+  <si>
+    <t>111613</t>
+  </si>
+  <si>
+    <t>Пакет [280+150]х320 мм с круч. ручками, крафт, бум., 250 шт/кор (ООО Демарт)</t>
+  </si>
+  <si>
+    <t>112168</t>
+  </si>
+  <si>
+    <t>Бутылка ПЭТ 300 мл, прозр., горло d38 мм, крышка в компл., 300 шт/кор (ИП PET Service)</t>
+  </si>
+  <si>
+    <t>112338</t>
+  </si>
+  <si>
+    <t>Лоток [короб] для фастфуда 190х85х42 мм, крафт-бел., карт., 400 шт/кор "OSQ" Tray 800 nol</t>
+  </si>
+  <si>
+    <t>112340</t>
+  </si>
+  <si>
+    <t>Крышка к контейнеру 175х130х13,5 мм, прозр., ПЭТ 50 шт/упак "OSQ" OpSalad 500</t>
+  </si>
+  <si>
+    <t>112341</t>
+  </si>
+  <si>
+    <t>Контейнер 500 мл, 164х115х45 мм, без окна, без крышки, крафт-бел., карт., 50 шт/упак "OSQ" OpSalad</t>
+  </si>
+  <si>
+    <t>112725</t>
+  </si>
+  <si>
+    <t>Размешиватель 140 мм, инд. упак., древ. волокно, 250 шт/упак (ООО Компания Лемио)</t>
+  </si>
+  <si>
+    <t>112806</t>
+  </si>
+  <si>
+    <t>Обертка для бургеров и хот-догов 305х305 мм, бел., бум., 1000 шт/кор (ООО Тек-Пак)</t>
+  </si>
+  <si>
+    <t>112884</t>
+  </si>
+  <si>
+    <t>Средство для мытья стекол и зеркал "Platinum Sharks" Silver Glass, триггер, 750 мл</t>
+  </si>
+  <si>
+    <t>112968</t>
+  </si>
+  <si>
+    <t>Крышка к контейнеру 108х82х3 мм, прозр., ПП, 100 шт/упак (ТОО Аке Пласт)</t>
+  </si>
+  <si>
+    <t>113016</t>
+  </si>
+  <si>
+    <t>Пакет на вынос [180+120]х290 мм M без ручек, крафт, бум., 1000 шт/кор (ООО Тек-Пак)</t>
+  </si>
+  <si>
+    <t>113068</t>
+  </si>
+  <si>
+    <t>Перчатки нитровиниловые, р-р S, неопудрен., голуб., 50 пар/упак "МИСТЕРИЯ"</t>
+  </si>
+  <si>
+    <t>113306</t>
+  </si>
+  <si>
+    <t>Пакет "Майка" [250+120]х450 мм 10 мкм, бел., ПНД, 100 шт/упак (ООО Нижполимерупак)</t>
+  </si>
+  <si>
+    <t>113367</t>
+  </si>
+  <si>
+    <t>Стакан бумажный 250 мл 1 сл., d80 мм, бел., карт., 50 шт/упак (ООО Паперскоп Рус)</t>
+  </si>
+  <si>
+    <t>113370</t>
+  </si>
+  <si>
+    <t>Стакан бумажный 300 мл 1 сл., d90 мм, черн., карт., 50 шт/упак (ООО Паперскоп Рус)</t>
+  </si>
+  <si>
+    <t>113371</t>
+  </si>
+  <si>
+    <t>Стакан бумажный 400 мл 1 сл., d90 мм, черн., карт., 50 шт/упак (ООО Паперскоп Рус)</t>
+  </si>
+  <si>
+    <t>113375</t>
+  </si>
+  <si>
+    <t>Стакан бумажный 400 мл 1 сл., d90 мм, диз. "Big City Life", карт., 50 шт/упак (ООО Паперскоп Рус)</t>
+  </si>
+  <si>
+    <t>113505</t>
+  </si>
+  <si>
+    <t>Крышка для стакана d80 мм с пробивным слотом и заглушкой, черн., ПП, 50 шт/упак (ООО ВЗЛП)</t>
+  </si>
+  <si>
+    <t>113606</t>
+  </si>
+  <si>
+    <t>Размешиватель 140 мм, инд. упак., бамбук, 250 шт/упак "GREEN MYSTERY"</t>
+  </si>
+  <si>
+    <t>113926</t>
+  </si>
+  <si>
+    <t>Пакет [240+140]х280 мм с плоск. ручками, крафт, бум., 300 шт/кор (ООО Тек-Пак)</t>
+  </si>
+  <si>
+    <t>113958</t>
+  </si>
+  <si>
+    <t>Пакет пищевой [90+40]х205 мм без руч., без окна, бел., бум., 1600 шт/кор (ООО Тек-Пак)</t>
+  </si>
+  <si>
+    <t>114176</t>
+  </si>
+  <si>
+    <t>Контейнер 200 мл 1-секц. 108х82х35 мм, серия 108, без крышки, прозр., ПП, 100 шт/упак (ТОО Аке Пласт</t>
+  </si>
+  <si>
+    <t>114453</t>
+  </si>
+  <si>
+    <t>Универсальное моющее средство "Pro-Brite" Astrix 3 Пенное, концентрат, канистра, 5000 мл</t>
+  </si>
+  <si>
+    <t>114977</t>
+  </si>
+  <si>
+    <t>Трубочки для коктейлей 210 мм, d7 мм, черн., пласт. прямые в инд. упаковке, 200 шт/упак (ООО ПК Диап</t>
+  </si>
+  <si>
+    <t>115045</t>
+  </si>
+  <si>
+    <t>Трубочки для коктейлей 250 мм, d12 мм, прозр., пласт. прямые в инд. упаковке, 100 шт/упак (ООО ПК Ди</t>
+  </si>
+  <si>
+    <t>115090</t>
+  </si>
+  <si>
+    <t>Трубочки для коктейлей 250 мм, d12 мм, прозр., пласт. прямые с косой отсечкой, 70 шт/упак (ООО ПК Ди</t>
+  </si>
+  <si>
+    <t>115371</t>
+  </si>
+  <si>
+    <t>Стакан бумажный 400 мл 1 сл., d90 мм, лого "Global Coffee", карт., 50 шт/упак</t>
+  </si>
+  <si>
+    <t>115374</t>
+  </si>
+  <si>
+    <t>Стакан бумажный 500 мл 1 сл., d90 мм, лого "Global Coffee", карт., 50 шт/упак</t>
+  </si>
+  <si>
+    <t>115207</t>
+  </si>
+  <si>
+    <t>Трубочки для коктейлей 250 мм, d12 мм, прозр., пласт. прямые с косой отсечкой в инд. упаковке, 100 ш</t>
+  </si>
+  <si>
+    <t>115601</t>
+  </si>
+  <si>
+    <t>Крышка для стакана d90 мм с пробивным слотом и заглушкой, оранж., ПП, 50 шт/упак (ООО ВЗЛП)</t>
+  </si>
+  <si>
+    <t>115602</t>
+  </si>
+  <si>
+    <t>Крышка для стакана d90 мм с пробивным слотом и заглушкой, зел., ПП, 50 шт/упак (ООО ВЗЛП)</t>
+  </si>
+  <si>
+    <t>115607</t>
+  </si>
+  <si>
+    <t>Крышка для стакана d90 мм с питейником тип З, прозр., ПП, 50 шт/упак (ООО ВЗЛП)</t>
+  </si>
+  <si>
+    <t>115703</t>
+  </si>
+  <si>
+    <t>Крышка для формы алюм. 308х208 мм, карт.фольг., 100 шт/упак (ООО Ламкарт)</t>
+  </si>
+  <si>
+    <t>115707</t>
+  </si>
+  <si>
+    <t>Форма алюминиевая 1-секц. 2235 мл 313х213х44 мм, без крышки, алюм., 50 шт/упак (ООО ПК СтудиоПак)</t>
+  </si>
+  <si>
+    <t>115717</t>
+  </si>
+  <si>
+    <t>Трубочки для коктейлей 210 мм, d5 мм, разноцв., пласт. с гофроизгибом, 250 шт/упак (ООО ПК Диапазон)</t>
+  </si>
+  <si>
+    <t>115755</t>
+  </si>
+  <si>
+    <t>Упаковка для бургера типа "Уголок" 165х170 мм, диз. "Global coffee Космос", бел., бум., 2000 шт/кор </t>
+  </si>
+  <si>
+    <t>115758</t>
+  </si>
+  <si>
+    <t>Упаковка для бургера типа "Уголок" 165х170 мм, диз. "Global coffee Действуй", бел., бум., 2000 шт/ко</t>
+  </si>
+  <si>
+    <t>115784</t>
+  </si>
+  <si>
+    <t>Пакет вакуум. 200х300 мм 70 мкм, прозр., ПЭТ/ПЭ, 200 шт/упак (ООО Экспомаркет Техн.)</t>
+  </si>
+  <si>
+    <t>109145</t>
+  </si>
+  <si>
+    <t>Фольга алюминиевая 44см х 100м, 14 мкм Особо прочная (ООО Металлпейпер-М)</t>
+  </si>
+  <si>
+    <t>109414</t>
+  </si>
+  <si>
+    <t>Мыло жидкое антибактериальное "Silver" Regular, бутылка ПЭТ, 5000 мл</t>
   </si>
 </sst>
 </file>
@@ -97,7 +496,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -120,17 +519,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="7D8AB9"/>
+      </left>
+      <right style="thin">
+        <color rgb="7D8AB9"/>
+      </right>
+      <top style="thin">
+        <color rgb="7D8AB9"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="7D8AB9"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0"/>
     <xf numFmtId="0" fontId="0" applyAlignment="true">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="2" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" borderId="2" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="2" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="right" vertical="top" wrapText="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" borderId="2" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="right" vertical="top" wrapText="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" borderId="2" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="right" vertical="top" wrapText="0"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" borderId="2" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -151,20 +583,20 @@
     <outlinePr summaryBelow="false" summaryRight="false"/>
     <pageSetUpPr autoPageBreaks="false" fitToPage="true"/>
   </sheetPr>
-  <dimension ref="H1"/>
+  <dimension ref="H66"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0" rightToLeft="false"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" customHeight="true" defaultRowHeight="11.429"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" style="1" customWidth="true"/>
-    <col min="2" max="2" width="9.5" style="1" customWidth="true"/>
+    <col min="1" max="1" width="23.33203125" style="1" customWidth="true"/>
+    <col min="2" max="2" width="17.5" style="1" customWidth="true"/>
     <col min="3" max="3" width="11.66796875" style="1" customWidth="true"/>
-    <col min="4" max="4" width="18.33203125" style="1" customWidth="true"/>
-    <col min="5" max="5" width="8.5" style="1" customWidth="true"/>
+    <col min="4" max="4" width="74.66796875" style="1" customWidth="true"/>
+    <col min="5" max="5" width="11.66796875" style="1" customWidth="true"/>
     <col min="6" max="6" width="17.83203125" style="1" customWidth="true"/>
     <col min="7" max="7" width="10.83203125" style="1" customWidth="true"/>
-    <col min="8" max="8" width="6.66796875" style="1" customWidth="true"/>
+    <col min="8" max="8" width="9.33203125" style="1" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="38" customHeight="true">
@@ -191,6 +623,1544 @@
       </c>
       <c r="H1" s="2" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="2" ht="22" customHeight="true">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="4" t="n">
+        <v>151.4</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="5" t="e"/>
+      <c r="H2" s="6" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" ht="11" customHeight="true">
+      <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>108.88</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="5" t="e"/>
+      <c r="H3" s="6" t="n">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="4" ht="11" customHeight="true">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>108.88</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="5" t="e"/>
+      <c r="H4" s="6" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="5" ht="22" customHeight="true">
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>309.89</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="5" t="e"/>
+      <c r="H5" s="6" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" ht="11" customHeight="true">
+      <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>92.85</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="5" t="e"/>
+      <c r="H6" s="7" t="n">
+        <v>3780</v>
+      </c>
+    </row>
+    <row r="7" ht="11" customHeight="true">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>80.7</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="5" t="e"/>
+      <c r="H7" s="7" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="8" ht="22" customHeight="true">
+      <c r="A8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="8" t="n">
+        <v>5003.67</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="5" t="e"/>
+      <c r="H8" s="6" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" ht="11" customHeight="true">
+      <c r="A9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="4" t="n">
+        <v>850</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="5" t="e"/>
+      <c r="H9" s="6" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" ht="11" customHeight="true">
+      <c r="A10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>90.12</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="5" t="e"/>
+      <c r="H10" s="6" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="11" ht="22" customHeight="true">
+      <c r="A11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="4" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="5" t="e"/>
+      <c r="H11" s="7" t="n">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="12" ht="11" customHeight="true">
+      <c r="A12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="4" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="5" t="e"/>
+      <c r="H12" s="7" t="n">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="13" ht="22" customHeight="true">
+      <c r="A13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="4" t="n">
+        <v>39.63</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="5" t="e"/>
+      <c r="H13" s="6" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="14" ht="11" customHeight="true">
+      <c r="A14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="4" t="n">
+        <v>9.27</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="5" t="e"/>
+      <c r="H14" s="7" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="15" ht="11" customHeight="true">
+      <c r="A15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="4" t="n">
+        <v>20.14</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="5" t="e"/>
+      <c r="H15" s="6" t="n">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="16" ht="22" customHeight="true">
+      <c r="A16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="4" t="n">
+        <v>17.29</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="5" t="e"/>
+      <c r="H16" s="6" t="n">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="17" ht="22" customHeight="true">
+      <c r="A17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="4" t="n">
+        <v>9.83</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="5" t="e"/>
+      <c r="H17" s="6" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" ht="22" customHeight="true">
+      <c r="A18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="4" t="n">
+        <v>13.41</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="5" t="e"/>
+      <c r="H18" s="7" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="19" ht="22" customHeight="true">
+      <c r="A19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="4" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="5" t="e"/>
+      <c r="H19" s="7" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="20" ht="22" customHeight="true">
+      <c r="A20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="4" t="n">
+        <v>16.95</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="5" t="e"/>
+      <c r="H20" s="7" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="21" ht="22" customHeight="true">
+      <c r="A21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="4" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="5" t="e"/>
+      <c r="H21" s="7" t="n">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="22" ht="22" customHeight="true">
+      <c r="A22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="4" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="5" t="e"/>
+      <c r="H22" s="7" t="n">
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="23" ht="11" customHeight="true">
+      <c r="A23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" s="4" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="5" t="e"/>
+      <c r="H23" s="7" t="n">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="24" ht="11" customHeight="true">
+      <c r="A24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" s="4" t="n">
+        <v>9.24</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="5" t="e"/>
+      <c r="H24" s="6" t="n">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="25" ht="11" customHeight="true">
+      <c r="A25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" s="4" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="5" t="e"/>
+      <c r="H25" s="7" t="n">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="26" ht="11" customHeight="true">
+      <c r="A26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" s="4" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="5" t="e"/>
+      <c r="H26" s="7" t="n">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="27" ht="11" customHeight="true">
+      <c r="A27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E27" s="4" t="n">
+        <v>204.91</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="5" t="e"/>
+      <c r="H27" s="6" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" ht="11" customHeight="true">
+      <c r="A28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="4" t="n">
+        <v>33.17</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="5" t="e"/>
+      <c r="H28" s="7" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="29" ht="22" customHeight="true">
+      <c r="A29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E29" s="4" t="n">
+        <v>48</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="5" t="e"/>
+      <c r="H29" s="6" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="30" ht="22" customHeight="true">
+      <c r="A30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E30" s="4" t="n">
+        <v>19.85</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="5" t="e"/>
+      <c r="H30" s="7" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="31" ht="11" customHeight="true">
+      <c r="A31" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E31" s="4" t="n">
+        <v>21.58</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="5" t="e"/>
+      <c r="H31" s="7" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="32" ht="22" customHeight="true">
+      <c r="A32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E32" s="4" t="n">
+        <v>19.96</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" s="5" t="e"/>
+      <c r="H32" s="7" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="33" ht="22" customHeight="true">
+      <c r="A33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E33" s="4" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" s="5" t="e"/>
+      <c r="H33" s="7" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="34" ht="11" customHeight="true">
+      <c r="A34" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E34" s="4" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="5" t="e"/>
+      <c r="H34" s="7" t="n">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="35" ht="11" customHeight="true">
+      <c r="A35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E35" s="4" t="n">
+        <v>430</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" s="5" t="e"/>
+      <c r="H35" s="6" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" ht="11" customHeight="true">
+      <c r="A36" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E36" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" s="5" t="e"/>
+      <c r="H36" s="7" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="37" ht="22" customHeight="true">
+      <c r="A37" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E37" s="4" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" s="5" t="e"/>
+      <c r="H37" s="7" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="38" ht="11" customHeight="true">
+      <c r="A38" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E38" s="4" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" s="5" t="e"/>
+      <c r="H38" s="7" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="39" ht="22" customHeight="true">
+      <c r="A39" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E39" s="4" t="n">
+        <v>283.34</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" s="5" t="e"/>
+      <c r="H39" s="6" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" ht="11" customHeight="true">
+      <c r="A40" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E40" s="4" t="n">
+        <v>10.23</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" s="5" t="e"/>
+      <c r="H40" s="7" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="41" ht="11" customHeight="true">
+      <c r="A41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E41" s="4" t="n">
+        <v>14.92</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" s="5" t="e"/>
+      <c r="H41" s="7" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="42" ht="11" customHeight="true">
+      <c r="A42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E42" s="4" t="n">
+        <v>20.14</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" s="5" t="e"/>
+      <c r="H42" s="7" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="43" ht="22" customHeight="true">
+      <c r="A43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E43" s="4" t="n">
+        <v>18.29</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" s="5" t="e"/>
+      <c r="H43" s="7" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="44" ht="22" customHeight="true">
+      <c r="A44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E44" s="4" t="n">
+        <v>7.62</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44" s="5" t="e"/>
+      <c r="H44" s="7" t="n">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="45" ht="11" customHeight="true">
+      <c r="A45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E45" s="4" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45" s="5" t="e"/>
+      <c r="H45" s="7" t="n">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="46" ht="11" customHeight="true">
+      <c r="A46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E46" s="4" t="n">
+        <v>24.64</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" s="5" t="e"/>
+      <c r="H46" s="6" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="47" ht="22" customHeight="true">
+      <c r="A47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E47" s="4" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" s="5" t="e"/>
+      <c r="H47" s="7" t="n">
+        <v>6400</v>
+      </c>
+    </row>
+    <row r="48" ht="22" customHeight="true">
+      <c r="A48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E48" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G48" s="5" t="e"/>
+      <c r="H48" s="7" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="49" ht="22" customHeight="true">
+      <c r="A49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>3638.28</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49" s="5" t="e"/>
+      <c r="H49" s="6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" ht="22" customHeight="true">
+      <c r="A50" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E50" s="4" t="n">
+        <v>417.95</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" s="5" t="e"/>
+      <c r="H50" s="6" t="n">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="51" ht="22" customHeight="true">
+      <c r="A51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E51" s="3" t="e"/>
+      <c r="F51" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G51" s="5" t="e"/>
+      <c r="H51" s="6" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="52" ht="22" customHeight="true">
+      <c r="A52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E52" s="3" t="e"/>
+      <c r="F52" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G52" s="5" t="e"/>
+      <c r="H52" s="6" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="53" ht="11" customHeight="true">
+      <c r="A53" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E53" s="3" t="e"/>
+      <c r="F53" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G53" s="5" t="e"/>
+      <c r="H53" s="7" t="n">
+        <v>34000</v>
+      </c>
+    </row>
+    <row r="54" ht="11" customHeight="true">
+      <c r="A54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E54" s="3" t="e"/>
+      <c r="F54" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54" s="5" t="e"/>
+      <c r="H54" s="7" t="n">
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="55" ht="22" customHeight="true">
+      <c r="A55" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E55" s="3" t="e"/>
+      <c r="F55" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G55" s="5" t="e"/>
+      <c r="H55" s="6" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="56" ht="22" customHeight="true">
+      <c r="A56" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E56" s="4" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G56" s="5" t="e"/>
+      <c r="H56" s="7" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="57" ht="22" customHeight="true">
+      <c r="A57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E57" s="4" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G57" s="5" t="e"/>
+      <c r="H57" s="7" t="n">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="58" ht="11" customHeight="true">
+      <c r="A58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E58" s="4" t="n">
+        <v>6.77</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G58" s="5" t="e"/>
+      <c r="H58" s="7" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="59" ht="11" customHeight="true">
+      <c r="A59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E59" s="3" t="e"/>
+      <c r="F59" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G59" s="5" t="e"/>
+      <c r="H59" s="6" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="60" ht="22" customHeight="true">
+      <c r="A60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E60" s="3" t="e"/>
+      <c r="F60" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G60" s="5" t="e"/>
+      <c r="H60" s="7" t="n">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="61" ht="22" customHeight="true">
+      <c r="A61" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E61" s="3" t="e"/>
+      <c r="F61" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G61" s="5" t="e"/>
+      <c r="H61" s="6" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="62" ht="22" customHeight="true">
+      <c r="A62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E62" s="3" t="e"/>
+      <c r="F62" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G62" s="5" t="e"/>
+      <c r="H62" s="7" t="n">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="63" ht="22" customHeight="true">
+      <c r="A63" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E63" s="3" t="e"/>
+      <c r="F63" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G63" s="5" t="e"/>
+      <c r="H63" s="7" t="n">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="64" ht="22" customHeight="true">
+      <c r="A64" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E64" s="3" t="e"/>
+      <c r="F64" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G64" s="5" t="e"/>
+      <c r="H64" s="6" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="65" ht="11" customHeight="true">
+      <c r="A65" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E65" s="8" t="n">
+        <v>4174.05</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G65" s="5" t="e"/>
+      <c r="H65" s="6" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" ht="11" customHeight="true">
+      <c r="A66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E66" s="4" t="n">
+        <v>810</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G66" s="5" t="e"/>
+      <c r="H66" s="6" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/data/В пути АСТ.xlsx
+++ b/data/В пути АСТ.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
   <si>
     <t>Дата</t>
   </si>
@@ -49,7 +49,7 @@
     <t>Кон ост</t>
   </si>
   <si>
-    <t>06.03.2024 0:00:00</t>
+    <t>08.03.2024 0:00:00</t>
   </si>
   <si>
     <t>Астана в Пути</t>
@@ -118,6 +118,12 @@
     <t>Крышка для стакана d90 мм с центральным отверстием, прозр., ПС, 100 шт/упак (ООО Агроэкодом)</t>
   </si>
   <si>
+    <t>103506</t>
+  </si>
+  <si>
+    <t>Нож одноразовый 178,5 мм, черн., ПП, 50 шт/упак (ООО ВЗЛП)</t>
+  </si>
+  <si>
     <t>141080</t>
   </si>
   <si>
@@ -332,6 +338,12 @@
   </si>
   <si>
     <t>Пакет пищевой [90+40]х205 мм без руч., без окна, бел., бум., 1600 шт/кор (ООО Тек-Пак)</t>
+  </si>
+  <si>
+    <t>114091</t>
+  </si>
+  <si>
+    <t>Сахар порционный 5 г, лого "Global Coffee", стик, 1000 шт/кор (ООО ВЗЛП)</t>
   </si>
   <si>
     <t>114176</t>
@@ -583,7 +595,7 @@
     <outlinePr summaryBelow="false" summaryRight="false"/>
     <pageSetUpPr autoPageBreaks="false" fitToPage="true"/>
   </sheetPr>
-  <dimension ref="H66"/>
+  <dimension ref="H68"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0" rightToLeft="false"/>
   </sheetViews>
@@ -879,17 +891,17 @@
         <v>32</v>
       </c>
       <c r="E12" s="4" t="n">
-        <v>4.15</v>
+        <v>7.19</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G12" s="5" t="e"/>
       <c r="H12" s="7" t="n">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="13" ht="22" customHeight="true">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" ht="11" customHeight="true">
       <c r="A13" s="3" t="s">
         <v>8</v>
       </c>
@@ -903,17 +915,17 @@
         <v>34</v>
       </c>
       <c r="E13" s="4" t="n">
-        <v>39.63</v>
+        <v>4.15</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="5" t="e"/>
-      <c r="H13" s="6" t="n">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="14" ht="11" customHeight="true">
+      <c r="H13" s="7" t="n">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="14" ht="22" customHeight="true">
       <c r="A14" s="3" t="s">
         <v>8</v>
       </c>
@@ -927,14 +939,14 @@
         <v>36</v>
       </c>
       <c r="E14" s="4" t="n">
-        <v>9.27</v>
+        <v>39.63</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="5" t="e"/>
-      <c r="H14" s="7" t="n">
-        <v>10000</v>
+      <c r="H14" s="6" t="n">
+        <v>600</v>
       </c>
     </row>
     <row r="15" ht="11" customHeight="true">
@@ -951,17 +963,17 @@
         <v>38</v>
       </c>
       <c r="E15" s="4" t="n">
-        <v>20.14</v>
+        <v>9.27</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G15" s="5" t="e"/>
-      <c r="H15" s="6" t="n">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="16" ht="22" customHeight="true">
+      <c r="H15" s="7" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="16" ht="11" customHeight="true">
       <c r="A16" s="3" t="s">
         <v>8</v>
       </c>
@@ -975,7 +987,7 @@
         <v>40</v>
       </c>
       <c r="E16" s="4" t="n">
-        <v>17.29</v>
+        <v>20.14</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>12</v>
@@ -999,14 +1011,14 @@
         <v>42</v>
       </c>
       <c r="E17" s="4" t="n">
-        <v>9.83</v>
+        <v>17.29</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G17" s="5" t="e"/>
       <c r="H17" s="6" t="n">
-        <v>300</v>
+        <v>840</v>
       </c>
     </row>
     <row r="18" ht="22" customHeight="true">
@@ -1023,14 +1035,14 @@
         <v>44</v>
       </c>
       <c r="E18" s="4" t="n">
-        <v>13.41</v>
+        <v>9.83</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G18" s="5" t="e"/>
-      <c r="H18" s="7" t="n">
-        <v>3000</v>
+      <c r="H18" s="6" t="n">
+        <v>300</v>
       </c>
     </row>
     <row r="19" ht="22" customHeight="true">
@@ -1047,14 +1059,14 @@
         <v>46</v>
       </c>
       <c r="E19" s="4" t="n">
-        <v>16.48</v>
+        <v>13.41</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G19" s="5" t="e"/>
       <c r="H19" s="7" t="n">
-        <v>1500</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="20" ht="22" customHeight="true">
@@ -1071,14 +1083,14 @@
         <v>48</v>
       </c>
       <c r="E20" s="4" t="n">
-        <v>16.95</v>
+        <v>16.48</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G20" s="5" t="e"/>
       <c r="H20" s="7" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="21" ht="22" customHeight="true">
@@ -1095,14 +1107,14 @@
         <v>50</v>
       </c>
       <c r="E21" s="4" t="n">
-        <v>4.09</v>
+        <v>16.95</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G21" s="5" t="e"/>
       <c r="H21" s="7" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="22" ht="22" customHeight="true">
@@ -1119,17 +1131,17 @@
         <v>52</v>
       </c>
       <c r="E22" s="4" t="n">
-        <v>3.26</v>
+        <v>4.09</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G22" s="5" t="e"/>
       <c r="H22" s="7" t="n">
-        <v>26000</v>
-      </c>
-    </row>
-    <row r="23" ht="11" customHeight="true">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="23" ht="22" customHeight="true">
       <c r="A23" s="3" t="s">
         <v>8</v>
       </c>
@@ -1143,14 +1155,14 @@
         <v>54</v>
       </c>
       <c r="E23" s="4" t="n">
-        <v>2.18</v>
+        <v>3.26</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G23" s="5" t="e"/>
       <c r="H23" s="7" t="n">
-        <v>1800</v>
+        <v>26000</v>
       </c>
     </row>
     <row r="24" ht="11" customHeight="true">
@@ -1167,14 +1179,14 @@
         <v>56</v>
       </c>
       <c r="E24" s="4" t="n">
-        <v>9.24</v>
+        <v>2.18</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G24" s="5" t="e"/>
-      <c r="H24" s="6" t="n">
-        <v>960</v>
+      <c r="H24" s="7" t="n">
+        <v>1800</v>
       </c>
     </row>
     <row r="25" ht="11" customHeight="true">
@@ -1191,14 +1203,14 @@
         <v>58</v>
       </c>
       <c r="E25" s="4" t="n">
-        <v>3.52</v>
+        <v>9.24</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G25" s="5" t="e"/>
-      <c r="H25" s="7" t="n">
-        <v>2160</v>
+      <c r="H25" s="6" t="n">
+        <v>960</v>
       </c>
     </row>
     <row r="26" ht="11" customHeight="true">
@@ -1215,14 +1227,14 @@
         <v>60</v>
       </c>
       <c r="E26" s="4" t="n">
-        <v>4.47</v>
+        <v>3.52</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G26" s="5" t="e"/>
       <c r="H26" s="7" t="n">
-        <v>1080</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="27" ht="11" customHeight="true">
@@ -1239,14 +1251,14 @@
         <v>62</v>
       </c>
       <c r="E27" s="4" t="n">
-        <v>204.91</v>
+        <v>4.47</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G27" s="5" t="e"/>
-      <c r="H27" s="6" t="n">
-        <v>60</v>
+      <c r="H27" s="7" t="n">
+        <v>1080</v>
       </c>
     </row>
     <row r="28" ht="11" customHeight="true">
@@ -1263,17 +1275,17 @@
         <v>64</v>
       </c>
       <c r="E28" s="4" t="n">
-        <v>33.17</v>
+        <v>204.91</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G28" s="5" t="e"/>
-      <c r="H28" s="7" t="n">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="29" ht="22" customHeight="true">
+      <c r="H28" s="6" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" ht="11" customHeight="true">
       <c r="A29" s="3" t="s">
         <v>8</v>
       </c>
@@ -1287,14 +1299,14 @@
         <v>66</v>
       </c>
       <c r="E29" s="4" t="n">
-        <v>48</v>
+        <v>33.17</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G29" s="5" t="e"/>
-      <c r="H29" s="6" t="n">
-        <v>300</v>
+      <c r="H29" s="7" t="n">
+        <v>1500</v>
       </c>
     </row>
     <row r="30" ht="22" customHeight="true">
@@ -1311,17 +1323,17 @@
         <v>68</v>
       </c>
       <c r="E30" s="4" t="n">
-        <v>19.85</v>
+        <v>48</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G30" s="5" t="e"/>
-      <c r="H30" s="7" t="n">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="31" ht="11" customHeight="true">
+      <c r="H30" s="6" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="31" ht="22" customHeight="true">
       <c r="A31" s="3" t="s">
         <v>8</v>
       </c>
@@ -1335,17 +1347,17 @@
         <v>70</v>
       </c>
       <c r="E31" s="4" t="n">
-        <v>21.58</v>
+        <v>19.85</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G31" s="5" t="e"/>
       <c r="H31" s="7" t="n">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="32" ht="22" customHeight="true">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="32" ht="11" customHeight="true">
       <c r="A32" s="3" t="s">
         <v>8</v>
       </c>
@@ -1359,7 +1371,7 @@
         <v>72</v>
       </c>
       <c r="E32" s="4" t="n">
-        <v>19.96</v>
+        <v>21.58</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>12</v>
@@ -1383,17 +1395,17 @@
         <v>74</v>
       </c>
       <c r="E33" s="4" t="n">
-        <v>2.76</v>
+        <v>19.96</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G33" s="5" t="e"/>
       <c r="H33" s="7" t="n">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="34" ht="11" customHeight="true">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="34" ht="22" customHeight="true">
       <c r="A34" s="3" t="s">
         <v>8</v>
       </c>
@@ -1407,14 +1419,14 @@
         <v>76</v>
       </c>
       <c r="E34" s="4" t="n">
-        <v>4.08</v>
+        <v>2.76</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G34" s="5" t="e"/>
       <c r="H34" s="7" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="35" ht="11" customHeight="true">
@@ -1431,14 +1443,14 @@
         <v>78</v>
       </c>
       <c r="E35" s="4" t="n">
-        <v>430</v>
+        <v>4.08</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G35" s="5" t="e"/>
-      <c r="H35" s="6" t="n">
-        <v>36</v>
+      <c r="H35" s="7" t="n">
+        <v>4000</v>
       </c>
     </row>
     <row r="36" ht="11" customHeight="true">
@@ -1455,17 +1467,17 @@
         <v>80</v>
       </c>
       <c r="E36" s="4" t="n">
-        <v>4</v>
+        <v>430</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G36" s="5" t="e"/>
-      <c r="H36" s="7" t="n">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="37" ht="22" customHeight="true">
+      <c r="H36" s="6" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" ht="11" customHeight="true">
       <c r="A37" s="3" t="s">
         <v>8</v>
       </c>
@@ -1479,17 +1491,17 @@
         <v>82</v>
       </c>
       <c r="E37" s="4" t="n">
-        <v>7.79</v>
+        <v>4</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G37" s="5" t="e"/>
       <c r="H37" s="7" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="38" ht="11" customHeight="true">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="38" ht="22" customHeight="true">
       <c r="A38" s="3" t="s">
         <v>8</v>
       </c>
@@ -1503,17 +1515,17 @@
         <v>84</v>
       </c>
       <c r="E38" s="4" t="n">
-        <v>15.2</v>
+        <v>7.79</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G38" s="5" t="e"/>
       <c r="H38" s="7" t="n">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="39" ht="22" customHeight="true">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="39" ht="11" customHeight="true">
       <c r="A39" s="3" t="s">
         <v>8</v>
       </c>
@@ -1527,17 +1539,17 @@
         <v>86</v>
       </c>
       <c r="E39" s="4" t="n">
-        <v>283.34</v>
+        <v>15.2</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G39" s="5" t="e"/>
-      <c r="H39" s="6" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="40" ht="11" customHeight="true">
+      <c r="H39" s="7" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="40" ht="22" customHeight="true">
       <c r="A40" s="3" t="s">
         <v>8</v>
       </c>
@@ -1551,14 +1563,14 @@
         <v>88</v>
       </c>
       <c r="E40" s="4" t="n">
-        <v>10.23</v>
+        <v>283.34</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G40" s="5" t="e"/>
-      <c r="H40" s="7" t="n">
-        <v>3000</v>
+      <c r="H40" s="6" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="41" ht="11" customHeight="true">
@@ -1575,14 +1587,14 @@
         <v>90</v>
       </c>
       <c r="E41" s="4" t="n">
-        <v>14.92</v>
+        <v>10.23</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G41" s="5" t="e"/>
       <c r="H41" s="7" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="42" ht="11" customHeight="true">
@@ -1599,17 +1611,17 @@
         <v>92</v>
       </c>
       <c r="E42" s="4" t="n">
-        <v>20.14</v>
+        <v>14.92</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G42" s="5" t="e"/>
       <c r="H42" s="7" t="n">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="43" ht="22" customHeight="true">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="43" ht="11" customHeight="true">
       <c r="A43" s="3" t="s">
         <v>8</v>
       </c>
@@ -1623,14 +1635,14 @@
         <v>94</v>
       </c>
       <c r="E43" s="4" t="n">
-        <v>18.29</v>
+        <v>20.14</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G43" s="5" t="e"/>
       <c r="H43" s="7" t="n">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="44" ht="22" customHeight="true">
@@ -1647,17 +1659,17 @@
         <v>96</v>
       </c>
       <c r="E44" s="4" t="n">
-        <v>7.62</v>
+        <v>18.29</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G44" s="5" t="e"/>
       <c r="H44" s="7" t="n">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="45" ht="11" customHeight="true">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="45" ht="22" customHeight="true">
       <c r="A45" s="3" t="s">
         <v>8</v>
       </c>
@@ -1671,14 +1683,14 @@
         <v>98</v>
       </c>
       <c r="E45" s="4" t="n">
-        <v>1.34</v>
+        <v>7.62</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G45" s="5" t="e"/>
       <c r="H45" s="7" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="46" ht="11" customHeight="true">
@@ -1695,17 +1707,17 @@
         <v>100</v>
       </c>
       <c r="E46" s="4" t="n">
-        <v>24.64</v>
+        <v>1.34</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G46" s="5" t="e"/>
-      <c r="H46" s="6" t="n">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="47" ht="22" customHeight="true">
+      <c r="H46" s="7" t="n">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="47" ht="11" customHeight="true">
       <c r="A47" s="3" t="s">
         <v>8</v>
       </c>
@@ -1719,14 +1731,14 @@
         <v>102</v>
       </c>
       <c r="E47" s="4" t="n">
-        <v>2.56</v>
+        <v>24.64</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G47" s="5" t="e"/>
-      <c r="H47" s="7" t="n">
-        <v>6400</v>
+      <c r="H47" s="6" t="n">
+        <v>300</v>
       </c>
     </row>
     <row r="48" ht="22" customHeight="true">
@@ -1743,17 +1755,17 @@
         <v>104</v>
       </c>
       <c r="E48" s="4" t="n">
-        <v>6</v>
+        <v>2.56</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G48" s="5" t="e"/>
       <c r="H48" s="7" t="n">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="49" ht="22" customHeight="true">
+        <v>6400</v>
+      </c>
+    </row>
+    <row r="49" ht="11" customHeight="true">
       <c r="A49" s="3" t="s">
         <v>8</v>
       </c>
@@ -1766,15 +1778,15 @@
       <c r="D49" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="E49" s="8" t="n">
-        <v>3638.28</v>
+      <c r="E49" s="4" t="n">
+        <v>3.51</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G49" s="5" t="e"/>
-      <c r="H49" s="6" t="n">
-        <v>8</v>
+      <c r="H49" s="7" t="n">
+        <v>40000</v>
       </c>
     </row>
     <row r="50" ht="22" customHeight="true">
@@ -1791,14 +1803,14 @@
         <v>108</v>
       </c>
       <c r="E50" s="4" t="n">
-        <v>417.95</v>
+        <v>6</v>
       </c>
       <c r="F50" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G50" s="5" t="e"/>
-      <c r="H50" s="6" t="n">
-        <v>635</v>
+      <c r="H50" s="7" t="n">
+        <v>5000</v>
       </c>
     </row>
     <row r="51" ht="22" customHeight="true">
@@ -1814,13 +1826,15 @@
       <c r="D51" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E51" s="3" t="e"/>
+      <c r="E51" s="8" t="n">
+        <v>3638.28</v>
+      </c>
       <c r="F51" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G51" s="5" t="e"/>
       <c r="H51" s="6" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" ht="22" customHeight="true">
@@ -1836,16 +1850,18 @@
       <c r="D52" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="E52" s="3" t="e"/>
+      <c r="E52" s="4" t="n">
+        <v>417.95</v>
+      </c>
       <c r="F52" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G52" s="5" t="e"/>
       <c r="H52" s="6" t="n">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="53" ht="11" customHeight="true">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="53" ht="22" customHeight="true">
       <c r="A53" s="3" t="s">
         <v>8</v>
       </c>
@@ -1863,11 +1879,11 @@
         <v>12</v>
       </c>
       <c r="G53" s="5" t="e"/>
-      <c r="H53" s="7" t="n">
-        <v>34000</v>
-      </c>
-    </row>
-    <row r="54" ht="11" customHeight="true">
+      <c r="H53" s="6" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54" ht="22" customHeight="true">
       <c r="A54" s="3" t="s">
         <v>8</v>
       </c>
@@ -1885,11 +1901,11 @@
         <v>12</v>
       </c>
       <c r="G54" s="5" t="e"/>
-      <c r="H54" s="7" t="n">
-        <v>26000</v>
-      </c>
-    </row>
-    <row r="55" ht="22" customHeight="true">
+      <c r="H54" s="6" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="55" ht="11" customHeight="true">
       <c r="A55" s="3" t="s">
         <v>8</v>
       </c>
@@ -1907,11 +1923,11 @@
         <v>12</v>
       </c>
       <c r="G55" s="5" t="e"/>
-      <c r="H55" s="6" t="n">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="56" ht="22" customHeight="true">
+      <c r="H55" s="7" t="n">
+        <v>34000</v>
+      </c>
+    </row>
+    <row r="56" ht="11" customHeight="true">
       <c r="A56" s="3" t="s">
         <v>8</v>
       </c>
@@ -1924,15 +1940,13 @@
       <c r="D56" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E56" s="4" t="n">
-        <v>8.6</v>
-      </c>
+      <c r="E56" s="3" t="e"/>
       <c r="F56" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G56" s="5" t="e"/>
       <c r="H56" s="7" t="n">
-        <v>2000</v>
+        <v>26000</v>
       </c>
     </row>
     <row r="57" ht="22" customHeight="true">
@@ -1948,18 +1962,16 @@
       <c r="D57" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="E57" s="4" t="n">
-        <v>8.6</v>
-      </c>
+      <c r="E57" s="3" t="e"/>
       <c r="F57" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G57" s="5" t="e"/>
-      <c r="H57" s="7" t="n">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="58" ht="11" customHeight="true">
+      <c r="H57" s="6" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="58" ht="22" customHeight="true">
       <c r="A58" s="3" t="s">
         <v>8</v>
       </c>
@@ -1973,7 +1985,7 @@
         <v>124</v>
       </c>
       <c r="E58" s="4" t="n">
-        <v>6.77</v>
+        <v>8.6</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>12</v>
@@ -1983,7 +1995,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="59" ht="11" customHeight="true">
+    <row r="59" ht="22" customHeight="true">
       <c r="A59" s="3" t="s">
         <v>8</v>
       </c>
@@ -1996,16 +2008,18 @@
       <c r="D59" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="E59" s="3" t="e"/>
+      <c r="E59" s="4" t="n">
+        <v>8.6</v>
+      </c>
       <c r="F59" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G59" s="5" t="e"/>
-      <c r="H59" s="6" t="n">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="60" ht="22" customHeight="true">
+      <c r="H59" s="7" t="n">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="60" ht="11" customHeight="true">
       <c r="A60" s="3" t="s">
         <v>8</v>
       </c>
@@ -2018,16 +2032,18 @@
       <c r="D60" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="E60" s="3" t="e"/>
+      <c r="E60" s="4" t="n">
+        <v>6.77</v>
+      </c>
       <c r="F60" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G60" s="5" t="e"/>
       <c r="H60" s="7" t="n">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="61" ht="22" customHeight="true">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="61" ht="11" customHeight="true">
       <c r="A61" s="3" t="s">
         <v>8</v>
       </c>
@@ -2046,7 +2062,7 @@
       </c>
       <c r="G61" s="5" t="e"/>
       <c r="H61" s="6" t="n">
-        <v>120</v>
+        <v>600</v>
       </c>
     </row>
     <row r="62" ht="22" customHeight="true">
@@ -2068,7 +2084,7 @@
       </c>
       <c r="G62" s="5" t="e"/>
       <c r="H62" s="7" t="n">
-        <v>18000</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="63" ht="22" customHeight="true">
@@ -2089,8 +2105,8 @@
         <v>12</v>
       </c>
       <c r="G63" s="5" t="e"/>
-      <c r="H63" s="7" t="n">
-        <v>18000</v>
+      <c r="H63" s="6" t="n">
+        <v>120</v>
       </c>
     </row>
     <row r="64" ht="22" customHeight="true">
@@ -2111,11 +2127,11 @@
         <v>12</v>
       </c>
       <c r="G64" s="5" t="e"/>
-      <c r="H64" s="6" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="65" ht="11" customHeight="true">
+      <c r="H64" s="7" t="n">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="65" ht="22" customHeight="true">
       <c r="A65" s="3" t="s">
         <v>8</v>
       </c>
@@ -2128,18 +2144,16 @@
       <c r="D65" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="E65" s="8" t="n">
-        <v>4174.05</v>
-      </c>
+      <c r="E65" s="3" t="e"/>
       <c r="F65" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G65" s="5" t="e"/>
-      <c r="H65" s="6" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="66" ht="11" customHeight="true">
+      <c r="H65" s="7" t="n">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="66" ht="22" customHeight="true">
       <c r="A66" s="3" t="s">
         <v>8</v>
       </c>
@@ -2152,14 +2166,60 @@
       <c r="D66" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="E66" s="4" t="n">
-        <v>810</v>
-      </c>
+      <c r="E66" s="3" t="e"/>
       <c r="F66" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G66" s="5" t="e"/>
       <c r="H66" s="6" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67" ht="11" customHeight="true">
+      <c r="A67" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>4174.05</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G67" s="5" t="e"/>
+      <c r="H67" s="6" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" ht="11" customHeight="true">
+      <c r="A68" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E68" s="4" t="n">
+        <v>810</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G68" s="5" t="e"/>
+      <c r="H68" s="6" t="n">
         <v>12</v>
       </c>
     </row>

--- a/data/В пути АСТ.xlsx
+++ b/data/В пути АСТ.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="166">
   <si>
     <t>Дата</t>
   </si>
@@ -49,7 +49,7 @@
     <t>Кон ост</t>
   </si>
   <si>
-    <t>08.03.2024 0:00:00</t>
+    <t>13.03.2024 0:00:00</t>
   </si>
   <si>
     <t>Астана в Пути</t>
@@ -61,7 +61,7 @@
     <t>Набор одноразовой посуды "Премиум чайный" [6 стак. 200 мл, ПП+6 тар. d167 мм, ПС+6 ч. лож.+6 вил.+6 </t>
   </si>
   <si>
-    <t>Нет</t>
+    <t>Да</t>
   </si>
   <si>
     <t>100605</t>
@@ -256,6 +256,24 @@
     <t>Размешиватель 140 мм, инд. упак., древ. волокно, 250 шт/упак (ООО Компания Лемио)</t>
   </si>
   <si>
+    <t>112788</t>
+  </si>
+  <si>
+    <t>Соусник 30 мл, d51хh32 мм, неразъем. крышка, прозр., ПП, 80 шт/упак (ООО ВЗЛП)</t>
+  </si>
+  <si>
+    <t>112789</t>
+  </si>
+  <si>
+    <t>Соусник 50 мл, d63хh32 мм, неразъем. крышка, прозр., ПП, 80 шт/упак (ООО ВЗЛП)</t>
+  </si>
+  <si>
+    <t>112790</t>
+  </si>
+  <si>
+    <t>Соусник 80 мл, d70хh36 мм, неразъем. крышка, прозр., ПП, 80 шт/упак (ООО ВЗЛП)</t>
+  </si>
+  <si>
     <t>112806</t>
   </si>
   <si>
@@ -322,6 +340,12 @@
     <t>Крышка для стакана d80 мм с пробивным слотом и заглушкой, черн., ПП, 50 шт/упак (ООО ВЗЛП)</t>
   </si>
   <si>
+    <t>113508</t>
+  </si>
+  <si>
+    <t>Сахар порционный 5 г, стик, 1000 шт/кор (ООО ВЗЛП)</t>
+  </si>
+  <si>
     <t>113606</t>
   </si>
   <si>
@@ -358,6 +382,18 @@
     <t>Универсальное моющее средство "Pro-Brite" Astrix 3 Пенное, концентрат, канистра, 5000 мл</t>
   </si>
   <si>
+    <t>114524</t>
+  </si>
+  <si>
+    <t>Крышка для стакана d80 мм с пробивным слотом и заглушкой, бел., ПП, 50 шт/упак (ООО ВЗЛП)</t>
+  </si>
+  <si>
+    <t>114920</t>
+  </si>
+  <si>
+    <t>Соусник 30 мл, d51хh32 мм, неразъем. крышка, прозр., ПП, 80 шт/упак "Aerosnab"</t>
+  </si>
+  <si>
     <t>114977</t>
   </si>
   <si>
@@ -446,6 +482,33 @@
   </si>
   <si>
     <t>Пакет вакуум. 200х300 мм 70 мкм, прозр., ПЭТ/ПЭ, 200 шт/упак (ООО Экспомаркет Техн.)</t>
+  </si>
+  <si>
+    <t>115911</t>
+  </si>
+  <si>
+    <t>Крышка для стакана d90 мм с пробивным слотом и заглушкой, крафт, ПП, 50 шт/упак (ООО ВЗЛП)</t>
+  </si>
+  <si>
+    <t>115914</t>
+  </si>
+  <si>
+    <t>Крышка для стакана d80 мм с пробивным слотом и заглушкой, крафт., ПП, 50 шт/упак (ООО ВЗЛП)</t>
+  </si>
+  <si>
+    <t>115915</t>
+  </si>
+  <si>
+    <t>115916</t>
+  </si>
+  <si>
+    <t>Соусник 80 мл, d70хh36 мм, неразъем. крышка, прозр., ПП, 80 шт/упак "Aerosnab"</t>
+  </si>
+  <si>
+    <t>115917</t>
+  </si>
+  <si>
+    <t>Соусник 50 мл, d62,2хh29,6 мм, неразъем. крышка, прозр., ПП, 80 шт/упак (ООО ВЗЛП)</t>
   </si>
   <si>
     <t>109145</t>
@@ -595,7 +658,7 @@
     <outlinePr summaryBelow="false" summaryRight="false"/>
     <pageSetUpPr autoPageBreaks="false" fitToPage="true"/>
   </sheetPr>
-  <dimension ref="H68"/>
+  <dimension ref="H79"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0" rightToLeft="false"/>
   </sheetViews>
@@ -944,10 +1007,10 @@
       <c r="F14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="5" t="e"/>
-      <c r="H14" s="6" t="n">
+      <c r="G14" s="6" t="n">
         <v>600</v>
       </c>
+      <c r="H14" s="5" t="e"/>
     </row>
     <row r="15" ht="11" customHeight="true">
       <c r="A15" s="3" t="s">
@@ -1328,10 +1391,10 @@
       <c r="F30" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G30" s="5" t="e"/>
-      <c r="H30" s="6" t="n">
+      <c r="G30" s="6" t="n">
         <v>300</v>
       </c>
+      <c r="H30" s="5" t="e"/>
     </row>
     <row r="31" ht="22" customHeight="true">
       <c r="A31" s="3" t="s">
@@ -1352,10 +1415,10 @@
       <c r="F31" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G31" s="5" t="e"/>
-      <c r="H31" s="7" t="n">
+      <c r="G31" s="7" t="n">
         <v>2000</v>
       </c>
+      <c r="H31" s="5" t="e"/>
     </row>
     <row r="32" ht="11" customHeight="true">
       <c r="A32" s="3" t="s">
@@ -1376,10 +1439,10 @@
       <c r="F32" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G32" s="5" t="e"/>
-      <c r="H32" s="7" t="n">
+      <c r="G32" s="7" t="n">
         <v>3000</v>
       </c>
+      <c r="H32" s="5" t="e"/>
     </row>
     <row r="33" ht="22" customHeight="true">
       <c r="A33" s="3" t="s">
@@ -1400,10 +1463,10 @@
       <c r="F33" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G33" s="5" t="e"/>
-      <c r="H33" s="7" t="n">
+      <c r="G33" s="7" t="n">
         <v>3000</v>
       </c>
+      <c r="H33" s="5" t="e"/>
     </row>
     <row r="34" ht="22" customHeight="true">
       <c r="A34" s="3" t="s">
@@ -1443,14 +1506,14 @@
         <v>78</v>
       </c>
       <c r="E35" s="4" t="n">
-        <v>4.08</v>
+        <v>6.13</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G35" s="5" t="e"/>
       <c r="H35" s="7" t="n">
-        <v>4000</v>
+        <v>3840</v>
       </c>
     </row>
     <row r="36" ht="11" customHeight="true">
@@ -1467,14 +1530,14 @@
         <v>80</v>
       </c>
       <c r="E36" s="4" t="n">
-        <v>430</v>
+        <v>7.39</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G36" s="5" t="e"/>
-      <c r="H36" s="6" t="n">
-        <v>36</v>
+      <c r="H36" s="7" t="n">
+        <v>2400</v>
       </c>
     </row>
     <row r="37" ht="11" customHeight="true">
@@ -1491,17 +1554,17 @@
         <v>82</v>
       </c>
       <c r="E37" s="4" t="n">
-        <v>4</v>
+        <v>8.92</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G37" s="5" t="e"/>
-      <c r="H37" s="7" t="n">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="38" ht="22" customHeight="true">
+      <c r="H37" s="6" t="n">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="38" ht="11" customHeight="true">
       <c r="A38" s="3" t="s">
         <v>8</v>
       </c>
@@ -1515,14 +1578,14 @@
         <v>84</v>
       </c>
       <c r="E38" s="4" t="n">
-        <v>7.79</v>
+        <v>4.08</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G38" s="5" t="e"/>
       <c r="H38" s="7" t="n">
-        <v>1000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="39" ht="11" customHeight="true">
@@ -1539,17 +1602,17 @@
         <v>86</v>
       </c>
       <c r="E39" s="4" t="n">
-        <v>15.2</v>
+        <v>430</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G39" s="5" t="e"/>
-      <c r="H39" s="7" t="n">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="40" ht="22" customHeight="true">
+      <c r="H39" s="6" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" ht="11" customHeight="true">
       <c r="A40" s="3" t="s">
         <v>8</v>
       </c>
@@ -1563,17 +1626,17 @@
         <v>88</v>
       </c>
       <c r="E40" s="4" t="n">
-        <v>283.34</v>
+        <v>4</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G40" s="5" t="e"/>
-      <c r="H40" s="6" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="41" ht="11" customHeight="true">
+      <c r="H40" s="7" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="41" ht="22" customHeight="true">
       <c r="A41" s="3" t="s">
         <v>8</v>
       </c>
@@ -1587,14 +1650,14 @@
         <v>90</v>
       </c>
       <c r="E41" s="4" t="n">
-        <v>10.23</v>
+        <v>7.79</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G41" s="5" t="e"/>
       <c r="H41" s="7" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="42" ht="11" customHeight="true">
@@ -1611,17 +1674,17 @@
         <v>92</v>
       </c>
       <c r="E42" s="4" t="n">
-        <v>14.92</v>
+        <v>15.2</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G42" s="5" t="e"/>
       <c r="H42" s="7" t="n">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="43" ht="11" customHeight="true">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="43" ht="22" customHeight="true">
       <c r="A43" s="3" t="s">
         <v>8</v>
       </c>
@@ -1635,17 +1698,17 @@
         <v>94</v>
       </c>
       <c r="E43" s="4" t="n">
-        <v>20.14</v>
+        <v>283.34</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G43" s="5" t="e"/>
-      <c r="H43" s="7" t="n">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="44" ht="22" customHeight="true">
+      <c r="H43" s="6" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" ht="11" customHeight="true">
       <c r="A44" s="3" t="s">
         <v>8</v>
       </c>
@@ -1659,17 +1722,17 @@
         <v>96</v>
       </c>
       <c r="E44" s="4" t="n">
-        <v>18.29</v>
+        <v>10.23</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G44" s="5" t="e"/>
       <c r="H44" s="7" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="45" ht="22" customHeight="true">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="45" ht="11" customHeight="true">
       <c r="A45" s="3" t="s">
         <v>8</v>
       </c>
@@ -1683,14 +1746,14 @@
         <v>98</v>
       </c>
       <c r="E45" s="4" t="n">
-        <v>7.62</v>
+        <v>14.92</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G45" s="5" t="e"/>
       <c r="H45" s="7" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="46" ht="11" customHeight="true">
@@ -1707,17 +1770,17 @@
         <v>100</v>
       </c>
       <c r="E46" s="4" t="n">
-        <v>1.34</v>
+        <v>20.14</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G46" s="5" t="e"/>
       <c r="H46" s="7" t="n">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="47" ht="11" customHeight="true">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="47" ht="22" customHeight="true">
       <c r="A47" s="3" t="s">
         <v>8</v>
       </c>
@@ -1731,14 +1794,14 @@
         <v>102</v>
       </c>
       <c r="E47" s="4" t="n">
-        <v>24.64</v>
+        <v>18.29</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G47" s="5" t="e"/>
-      <c r="H47" s="6" t="n">
-        <v>300</v>
+      <c r="H47" s="7" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="48" ht="22" customHeight="true">
@@ -1755,14 +1818,14 @@
         <v>104</v>
       </c>
       <c r="E48" s="4" t="n">
-        <v>2.56</v>
+        <v>7.62</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G48" s="5" t="e"/>
       <c r="H48" s="7" t="n">
-        <v>6400</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="49" ht="11" customHeight="true">
@@ -1779,17 +1842,17 @@
         <v>106</v>
       </c>
       <c r="E49" s="4" t="n">
-        <v>3.51</v>
+        <v>3.1</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G49" s="5" t="e"/>
       <c r="H49" s="7" t="n">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="50" ht="22" customHeight="true">
+        <v>67000</v>
+      </c>
+    </row>
+    <row r="50" ht="11" customHeight="true">
       <c r="A50" s="3" t="s">
         <v>8</v>
       </c>
@@ -1803,17 +1866,17 @@
         <v>108</v>
       </c>
       <c r="E50" s="4" t="n">
-        <v>6</v>
+        <v>1.34</v>
       </c>
       <c r="F50" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G50" s="5" t="e"/>
       <c r="H50" s="7" t="n">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="51" ht="22" customHeight="true">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="51" ht="11" customHeight="true">
       <c r="A51" s="3" t="s">
         <v>8</v>
       </c>
@@ -1826,15 +1889,15 @@
       <c r="D51" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E51" s="8" t="n">
-        <v>3638.28</v>
+      <c r="E51" s="4" t="n">
+        <v>24.64</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G51" s="5" t="e"/>
       <c r="H51" s="6" t="n">
-        <v>8</v>
+        <v>300</v>
       </c>
     </row>
     <row r="52" ht="22" customHeight="true">
@@ -1851,17 +1914,17 @@
         <v>112</v>
       </c>
       <c r="E52" s="4" t="n">
-        <v>417.95</v>
+        <v>2.56</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G52" s="5" t="e"/>
-      <c r="H52" s="6" t="n">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="53" ht="22" customHeight="true">
+      <c r="H52" s="7" t="n">
+        <v>6400</v>
+      </c>
+    </row>
+    <row r="53" ht="11" customHeight="true">
       <c r="A53" s="3" t="s">
         <v>8</v>
       </c>
@@ -1874,13 +1937,15 @@
       <c r="D53" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="E53" s="3" t="e"/>
+      <c r="E53" s="4" t="n">
+        <v>3.51</v>
+      </c>
       <c r="F53" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G53" s="5" t="e"/>
-      <c r="H53" s="6" t="n">
-        <v>24</v>
+      <c r="H53" s="7" t="n">
+        <v>40000</v>
       </c>
     </row>
     <row r="54" ht="22" customHeight="true">
@@ -1896,16 +1961,18 @@
       <c r="D54" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="E54" s="3" t="e"/>
+      <c r="E54" s="4" t="n">
+        <v>6</v>
+      </c>
       <c r="F54" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G54" s="5" t="e"/>
-      <c r="H54" s="6" t="n">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="55" ht="11" customHeight="true">
+      <c r="H54" s="7" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="55" ht="22" customHeight="true">
       <c r="A55" s="3" t="s">
         <v>8</v>
       </c>
@@ -1918,16 +1985,18 @@
       <c r="D55" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="E55" s="3" t="e"/>
+      <c r="E55" s="8" t="n">
+        <v>3638.28</v>
+      </c>
       <c r="F55" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G55" s="5" t="e"/>
-      <c r="H55" s="7" t="n">
-        <v>34000</v>
-      </c>
-    </row>
-    <row r="56" ht="11" customHeight="true">
+      <c r="H55" s="6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" ht="22" customHeight="true">
       <c r="A56" s="3" t="s">
         <v>8</v>
       </c>
@@ -1940,16 +2009,18 @@
       <c r="D56" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E56" s="3" t="e"/>
+      <c r="E56" s="4" t="n">
+        <v>8.28</v>
+      </c>
       <c r="F56" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G56" s="5" t="e"/>
       <c r="H56" s="7" t="n">
-        <v>26000</v>
-      </c>
-    </row>
-    <row r="57" ht="22" customHeight="true">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="57" ht="11" customHeight="true">
       <c r="A57" s="3" t="s">
         <v>8</v>
       </c>
@@ -1962,13 +2033,15 @@
       <c r="D57" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="E57" s="3" t="e"/>
+      <c r="E57" s="4" t="n">
+        <v>6.13</v>
+      </c>
       <c r="F57" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G57" s="5" t="e"/>
-      <c r="H57" s="6" t="n">
-        <v>48</v>
+      <c r="H57" s="7" t="n">
+        <v>9600</v>
       </c>
     </row>
     <row r="58" ht="22" customHeight="true">
@@ -1985,14 +2058,16 @@
         <v>124</v>
       </c>
       <c r="E58" s="4" t="n">
-        <v>8.6</v>
+        <v>417.95</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G58" s="5" t="e"/>
-      <c r="H58" s="7" t="n">
-        <v>2000</v>
+      <c r="G58" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="H58" s="6" t="n">
+        <v>625</v>
       </c>
     </row>
     <row r="59" ht="22" customHeight="true">
@@ -2009,17 +2084,17 @@
         <v>126</v>
       </c>
       <c r="E59" s="4" t="n">
-        <v>8.6</v>
+        <v>432.84</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G59" s="5" t="e"/>
-      <c r="H59" s="7" t="n">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="60" ht="11" customHeight="true">
+      <c r="H59" s="6" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="60" ht="22" customHeight="true">
       <c r="A60" s="3" t="s">
         <v>8</v>
       </c>
@@ -2033,14 +2108,14 @@
         <v>128</v>
       </c>
       <c r="E60" s="4" t="n">
-        <v>6.77</v>
+        <v>185.44</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G60" s="5" t="e"/>
-      <c r="H60" s="7" t="n">
-        <v>2000</v>
+      <c r="H60" s="6" t="n">
+        <v>74</v>
       </c>
     </row>
     <row r="61" ht="11" customHeight="true">
@@ -2061,11 +2136,11 @@
         <v>12</v>
       </c>
       <c r="G61" s="5" t="e"/>
-      <c r="H61" s="6" t="n">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="62" ht="22" customHeight="true">
+      <c r="H61" s="7" t="n">
+        <v>34000</v>
+      </c>
+    </row>
+    <row r="62" ht="11" customHeight="true">
       <c r="A62" s="3" t="s">
         <v>8</v>
       </c>
@@ -2084,7 +2159,7 @@
       </c>
       <c r="G62" s="5" t="e"/>
       <c r="H62" s="7" t="n">
-        <v>1200</v>
+        <v>26000</v>
       </c>
     </row>
     <row r="63" ht="22" customHeight="true">
@@ -2100,13 +2175,15 @@
       <c r="D63" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="E63" s="3" t="e"/>
+      <c r="E63" s="4" t="n">
+        <v>432.84</v>
+      </c>
       <c r="F63" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G63" s="5" t="e"/>
       <c r="H63" s="6" t="n">
-        <v>120</v>
+        <v>48</v>
       </c>
     </row>
     <row r="64" ht="22" customHeight="true">
@@ -2122,13 +2199,15 @@
       <c r="D64" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="E64" s="3" t="e"/>
+      <c r="E64" s="4" t="n">
+        <v>8.6</v>
+      </c>
       <c r="F64" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G64" s="5" t="e"/>
       <c r="H64" s="7" t="n">
-        <v>18000</v>
+        <v>74000</v>
       </c>
     </row>
     <row r="65" ht="22" customHeight="true">
@@ -2144,16 +2223,18 @@
       <c r="D65" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="E65" s="3" t="e"/>
+      <c r="E65" s="4" t="n">
+        <v>8.6</v>
+      </c>
       <c r="F65" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G65" s="5" t="e"/>
       <c r="H65" s="7" t="n">
-        <v>18000</v>
-      </c>
-    </row>
-    <row r="66" ht="22" customHeight="true">
+        <v>76000</v>
+      </c>
+    </row>
+    <row r="66" ht="11" customHeight="true">
       <c r="A66" s="3" t="s">
         <v>8</v>
       </c>
@@ -2166,13 +2247,15 @@
       <c r="D66" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="E66" s="3" t="e"/>
+      <c r="E66" s="4" t="n">
+        <v>6.77</v>
+      </c>
       <c r="F66" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G66" s="5" t="e"/>
-      <c r="H66" s="6" t="n">
-        <v>18</v>
+      <c r="H66" s="7" t="n">
+        <v>4000</v>
       </c>
     </row>
     <row r="67" ht="11" customHeight="true">
@@ -2188,18 +2271,16 @@
       <c r="D67" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="E67" s="8" t="n">
-        <v>4174.05</v>
-      </c>
+      <c r="E67" s="3" t="e"/>
       <c r="F67" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G67" s="5" t="e"/>
       <c r="H67" s="6" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="68" ht="11" customHeight="true">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="68" ht="22" customHeight="true">
       <c r="A68" s="3" t="s">
         <v>8</v>
       </c>
@@ -2212,14 +2293,266 @@
       <c r="D68" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="E68" s="4" t="n">
+      <c r="E68" s="3" t="e"/>
+      <c r="F68" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G68" s="5" t="e"/>
+      <c r="H68" s="7" t="n">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="69" ht="22" customHeight="true">
+      <c r="A69" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E69" s="4" t="n">
+        <v>207.51</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G69" s="5" t="e"/>
+      <c r="H69" s="6" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="70" ht="22" customHeight="true">
+      <c r="A70" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E70" s="3" t="e"/>
+      <c r="F70" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G70" s="5" t="e"/>
+      <c r="H70" s="7" t="n">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="71" ht="22" customHeight="true">
+      <c r="A71" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E71" s="3" t="e"/>
+      <c r="F71" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G71" s="5" t="e"/>
+      <c r="H71" s="7" t="n">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="72" ht="22" customHeight="true">
+      <c r="A72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E72" s="8" t="n">
+        <v>2413.78</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G72" s="5" t="e"/>
+      <c r="H72" s="6" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="73" ht="22" customHeight="true">
+      <c r="A73" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E73" s="3" t="e"/>
+      <c r="F73" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G73" s="5" t="e"/>
+      <c r="H73" s="7" t="n">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="74" ht="22" customHeight="true">
+      <c r="A74" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E74" s="3" t="e"/>
+      <c r="F74" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G74" s="5" t="e"/>
+      <c r="H74" s="7" t="n">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="75" ht="11" customHeight="true">
+      <c r="A75" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E75" s="3" t="e"/>
+      <c r="F75" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G75" s="5" t="e"/>
+      <c r="H75" s="7" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="76" ht="11" customHeight="true">
+      <c r="A76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E76" s="4" t="n">
+        <v>9.68</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G76" s="5" t="e"/>
+      <c r="H76" s="6" t="n">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="77" ht="22" customHeight="true">
+      <c r="A77" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E77" s="4" t="n">
+        <v>6.27</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G77" s="5" t="e"/>
+      <c r="H77" s="7" t="n">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="78" ht="11" customHeight="true">
+      <c r="A78" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E78" s="8" t="n">
+        <v>4174.05</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G78" s="5" t="e"/>
+      <c r="H78" s="6" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" ht="11" customHeight="true">
+      <c r="A79" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E79" s="4" t="n">
         <v>810</v>
       </c>
-      <c r="F68" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G68" s="5" t="e"/>
-      <c r="H68" s="6" t="n">
+      <c r="F79" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G79" s="5" t="e"/>
+      <c r="H79" s="6" t="n">
         <v>12</v>
       </c>
     </row>

--- a/data/В пути АСТ.xlsx
+++ b/data/В пути АСТ.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
   <si>
     <t>Дата</t>
   </si>
@@ -49,21 +49,33 @@
     <t>Кон ост</t>
   </si>
   <si>
-    <t>20.03.2024 0:00:00</t>
+    <t>21.03.2024 0:00:00</t>
   </si>
   <si>
     <t>Астана в Пути</t>
   </si>
   <si>
+    <t>337433</t>
+  </si>
+  <si>
+    <t>Свечи чайные в гильзе d38хh16 мм, без дизайна, бел., 100 шт/упак "Textop"</t>
+  </si>
+  <si>
+    <t>Нет</t>
+  </si>
+  <si>
+    <t>103896</t>
+  </si>
+  <si>
+    <t>Салфетки 250х250 мм 1-сл., бел., бум., 100 шт/упак (ИП Головкин С.В.)</t>
+  </si>
+  <si>
     <t>102318</t>
   </si>
   <si>
     <t>Крышка для стакана d80 мм с клапаном, бел., ПС, 100 шт/упак "Kado-Prim"</t>
   </si>
   <si>
-    <t>Нет</t>
-  </si>
-  <si>
     <t>102319</t>
   </si>
   <si>
@@ -76,6 +88,18 @@
     <t>Крышка для стакана d90 мм с клапаном, черн., ПС, 100 шт/упак "Kado-Prim"</t>
   </si>
   <si>
+    <t>115127</t>
+  </si>
+  <si>
+    <t>Стакан бумажный 100 мл 1 сл., d62 мм, бел., карт., 50 шт/упак (ООО Паперскоп Рус)</t>
+  </si>
+  <si>
+    <t>115417</t>
+  </si>
+  <si>
+    <t>Стакан-шейкер одноразовый 300 мл, прозр., ПЭТ, 50 шт/упак "Upax-Unity"</t>
+  </si>
+  <si>
     <t>103516</t>
   </si>
   <si>
@@ -94,6 +118,24 @@
     <t>Капхолдер [манжета] 270х55 мм, крафт, карт., 50 шт/упак (ООО ПК Растр)</t>
   </si>
   <si>
+    <t>104965</t>
+  </si>
+  <si>
+    <t>Пакет [240+140]х280 мм с круч. ручками, крафт, бум., 300 шт/кор (ООО Демарт)</t>
+  </si>
+  <si>
+    <t>104163</t>
+  </si>
+  <si>
+    <t>Пакет "майка" для пиццы [320+240]х600 мм 14 мкм, прозр., ПНД, 100 шт/упак (ИП Морозов Я.В)</t>
+  </si>
+  <si>
+    <t>104164</t>
+  </si>
+  <si>
+    <t>Пакет "майка" для пиццы [240+180]х500 мм 14 мкм, прозр., ПНД, 100 шт/упак (ИП Морозов Я.В)</t>
+  </si>
+  <si>
     <t>110451</t>
   </si>
   <si>
@@ -136,6 +178,12 @@
     <t>Коробка для кондит. изделий 180х110х55 мм, с окном, неразъем.крышка, крафт-бел., карт., 50 шт/упак "</t>
   </si>
   <si>
+    <t>111930</t>
+  </si>
+  <si>
+    <t>Салфетка влажная, Лимон, саше, 1000 шт/кор "МИСТЕРИЯ"</t>
+  </si>
+  <si>
     <t>112340</t>
   </si>
   <si>
@@ -196,12 +244,24 @@
     <t>Крышка к контейнеру 108х82х3 мм, прозр., ПП, 100 шт/упак (ТОО Аке Пласт)</t>
   </si>
   <si>
+    <t>113085</t>
+  </si>
+  <si>
+    <t>Средство чистящее универсальное "Effect" Лимон, порошок, 400 г</t>
+  </si>
+  <si>
     <t>113105</t>
   </si>
   <si>
     <t>Упаковка 260х260х100 мм, бел., карт., 15 шт/упак "Forgenika" Cake Roll II Window White</t>
   </si>
   <si>
+    <t>113306</t>
+  </si>
+  <si>
+    <t>Пакет "Майка" [250+120]х450 мм 10 мкм, бел., ПНД, 100 шт/упак (ООО Нижполимерупак)</t>
+  </si>
+  <si>
     <t>113367</t>
   </si>
   <si>
@@ -262,10 +322,13 @@
     <t>Коробка для лапши 900 мл, 165х130х50 мм, крафт, карт., 60 шт/упак "OSQ" Eco Fold Box</t>
   </si>
   <si>
+    <t>114028</t>
+  </si>
+  <si>
+    <t>Мешок кондитерский в рулоне 1-сл., 53 см, 90 мкм, прозр., ПЭ, 100 шт/рул (ООО Компания Лемио)</t>
+  </si>
+  <si>
     <t>114035</t>
-  </si>
-  <si>
-    <t>Салфетка влажная, Лимон, саше, 1000 шт/кор "МИСТЕРИЯ"</t>
   </si>
   <si>
     <t>114176</t>
@@ -442,7 +505,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0"/>
     <xf numFmtId="0" fontId="0" applyAlignment="true">
       <alignment horizontal="left"/>
@@ -453,16 +516,19 @@
     <xf numFmtId="0" fontId="0" borderId="2" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" borderId="2" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="4" fontId="0" borderId="2" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="2" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="top" wrapText="0"/>
     </xf>
-    <xf numFmtId="3" fontId="0" borderId="2" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="1" fontId="0" borderId="2" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="top" wrapText="0"/>
     </xf>
-    <xf numFmtId="1" fontId="0" borderId="2" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="2" fontId="0" borderId="2" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" borderId="2" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="top" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -484,7 +550,7 @@
     <outlinePr summaryBelow="false" summaryRight="false"/>
     <pageSetUpPr autoPageBreaks="false" fitToPage="true"/>
   </sheetPr>
-  <dimension ref="H50"/>
+  <dimension ref="H61"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0" rightToLeft="false"/>
   </sheetViews>
@@ -494,10 +560,10 @@
     <col min="2" max="2" width="17.5" style="1" customWidth="true"/>
     <col min="3" max="3" width="11.66796875" style="1" customWidth="true"/>
     <col min="4" max="4" width="74.66796875" style="1" customWidth="true"/>
-    <col min="5" max="5" width="9.33203125" style="1" customWidth="true"/>
+    <col min="5" max="5" width="11.66796875" style="1" customWidth="true"/>
     <col min="6" max="6" width="17.83203125" style="1" customWidth="true"/>
     <col min="7" max="7" width="10.83203125" style="1" customWidth="true"/>
-    <col min="8" max="8" width="9.33203125" style="1" customWidth="true"/>
+    <col min="8" max="8" width="10.5" style="1" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="40" customHeight="true">
@@ -540,14 +606,14 @@
         <v>11</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>4.02</v>
+        <v>1556.63</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="5" t="e"/>
       <c r="H2" s="6" t="n">
-        <v>5000</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" ht="11" customHeight="true">
@@ -563,15 +629,15 @@
       <c r="D3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="4" t="n">
-        <v>4.02</v>
+      <c r="E3" s="7" t="n">
+        <v>92.85</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="5" t="e"/>
-      <c r="H3" s="6" t="n">
-        <v>41000</v>
+      <c r="H3" s="8" t="n">
+        <v>1260</v>
       </c>
     </row>
     <row r="4" ht="11" customHeight="true">
@@ -587,15 +653,15 @@
       <c r="D4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="4" t="n">
-        <v>5.28</v>
+      <c r="E4" s="7" t="n">
+        <v>4.02</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="5" t="e"/>
-      <c r="H4" s="6" t="n">
-        <v>30000</v>
+      <c r="H4" s="8" t="n">
+        <v>5000</v>
       </c>
     </row>
     <row r="5" ht="11" customHeight="true">
@@ -611,18 +677,18 @@
       <c r="D5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="4" t="n">
-        <v>4.97</v>
+      <c r="E5" s="7" t="n">
+        <v>4.02</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="5" t="e"/>
-      <c r="H5" s="6" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="6" ht="23" customHeight="true">
+      <c r="H5" s="8" t="n">
+        <v>41000</v>
+      </c>
+    </row>
+    <row r="6" ht="11" customHeight="true">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -635,15 +701,15 @@
       <c r="D6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="4" t="n">
-        <v>5</v>
+      <c r="E6" s="7" t="n">
+        <v>5.28</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="5" t="e"/>
-      <c r="H6" s="6" t="n">
-        <v>13840</v>
+      <c r="H6" s="8" t="n">
+        <v>30000</v>
       </c>
     </row>
     <row r="7" ht="11" customHeight="true">
@@ -659,18 +725,18 @@
       <c r="D7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="4" t="n">
-        <v>5.37</v>
+      <c r="E7" s="7" t="n">
+        <v>7.57</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="5" t="e"/>
-      <c r="H7" s="6" t="n">
-        <v>40500</v>
-      </c>
-    </row>
-    <row r="8" ht="23" customHeight="true">
+      <c r="H7" s="8" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="8" ht="11" customHeight="true">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
@@ -683,15 +749,15 @@
       <c r="D8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="4" t="n">
-        <v>24.97</v>
+      <c r="E8" s="7" t="n">
+        <v>14.75</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="5" t="e"/>
-      <c r="H8" s="6" t="n">
-        <v>2000</v>
+      <c r="H8" s="8" t="n">
+        <v>10000</v>
       </c>
     </row>
     <row r="9" ht="11" customHeight="true">
@@ -707,18 +773,18 @@
       <c r="D9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="4" t="n">
-        <v>32.14</v>
+      <c r="E9" s="7" t="n">
+        <v>4.97</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="5" t="e"/>
-      <c r="H9" s="6" t="n">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="10" ht="11" customHeight="true">
+      <c r="H9" s="8" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" ht="23" customHeight="true">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
@@ -731,15 +797,15 @@
       <c r="D10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="4" t="n">
-        <v>102.96</v>
+      <c r="E10" s="7" t="n">
+        <v>5</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="5" t="e"/>
-      <c r="H10" s="7" t="n">
-        <v>160</v>
+      <c r="H10" s="8" t="n">
+        <v>13840</v>
       </c>
     </row>
     <row r="11" ht="11" customHeight="true">
@@ -755,15 +821,15 @@
       <c r="D11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="4" t="n">
-        <v>293.88</v>
+      <c r="E11" s="7" t="n">
+        <v>5.37</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G11" s="5" t="e"/>
-      <c r="H11" s="7" t="n">
-        <v>40</v>
+      <c r="H11" s="8" t="n">
+        <v>132300</v>
       </c>
     </row>
     <row r="12" ht="11" customHeight="true">
@@ -779,18 +845,18 @@
       <c r="D12" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="4" t="n">
-        <v>440.39</v>
+      <c r="E12" s="7" t="n">
+        <v>26.86</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G12" s="5" t="e"/>
-      <c r="H12" s="7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" ht="11" customHeight="true">
+      <c r="H12" s="8" t="n">
+        <v>12900</v>
+      </c>
+    </row>
+    <row r="13" ht="23" customHeight="true">
       <c r="A13" s="3" t="s">
         <v>8</v>
       </c>
@@ -804,14 +870,14 @@
         <v>34</v>
       </c>
       <c r="E13" s="4" t="n">
-        <v>13.49</v>
+        <v>1137.11</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="5" t="e"/>
       <c r="H13" s="6" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" ht="23" customHeight="true">
@@ -827,18 +893,18 @@
       <c r="D14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="4" t="n">
-        <v>62.99</v>
+      <c r="E14" s="7" t="n">
+        <v>827.49</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="5" t="e"/>
-      <c r="H14" s="7" t="n">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="15" ht="11" customHeight="true">
+      <c r="H14" s="6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" ht="23" customHeight="true">
       <c r="A15" s="3" t="s">
         <v>8</v>
       </c>
@@ -851,18 +917,18 @@
       <c r="D15" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="4" t="n">
-        <v>21.58</v>
+      <c r="E15" s="7" t="n">
+        <v>24.97</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G15" s="5" t="e"/>
-      <c r="H15" s="6" t="n">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="16" ht="23" customHeight="true">
+      <c r="H15" s="8" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="16" ht="11" customHeight="true">
       <c r="A16" s="3" t="s">
         <v>8</v>
       </c>
@@ -875,18 +941,18 @@
       <c r="D16" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="4" t="n">
-        <v>19.96</v>
+      <c r="E16" s="7" t="n">
+        <v>32.14</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="5" t="e"/>
-      <c r="H16" s="6" t="n">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="17" ht="23" customHeight="true">
+      <c r="H16" s="8" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="17" ht="11" customHeight="true">
       <c r="A17" s="3" t="s">
         <v>8</v>
       </c>
@@ -899,18 +965,18 @@
       <c r="D17" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="4" t="n">
-        <v>169.33</v>
+      <c r="E17" s="7" t="n">
+        <v>102.96</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G17" s="5" t="e"/>
-      <c r="H17" s="7" t="n">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="18" ht="23" customHeight="true">
+      <c r="H17" s="6" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18" ht="11" customHeight="true">
       <c r="A18" s="3" t="s">
         <v>8</v>
       </c>
@@ -923,15 +989,15 @@
       <c r="D18" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="4" t="n">
-        <v>217.08</v>
+      <c r="E18" s="7" t="n">
+        <v>293.88</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G18" s="5" t="e"/>
-      <c r="H18" s="7" t="n">
-        <v>100</v>
+      <c r="H18" s="6" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="19" ht="11" customHeight="true">
@@ -947,15 +1013,15 @@
       <c r="D19" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E19" s="4" t="n">
-        <v>18.91</v>
+      <c r="E19" s="7" t="n">
+        <v>440.39</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G19" s="5" t="e"/>
-      <c r="H19" s="7" t="n">
-        <v>500</v>
+      <c r="H19" s="6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="20" ht="11" customHeight="true">
@@ -971,18 +1037,18 @@
       <c r="D20" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E20" s="4" t="n">
-        <v>3.22</v>
+      <c r="E20" s="7" t="n">
+        <v>13.49</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G20" s="5" t="e"/>
-      <c r="H20" s="6" t="n">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="21" ht="11" customHeight="true">
+      <c r="H20" s="8" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21" ht="23" customHeight="true">
       <c r="A21" s="3" t="s">
         <v>8</v>
       </c>
@@ -995,15 +1061,15 @@
       <c r="D21" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E21" s="4" t="n">
-        <v>3.22</v>
+      <c r="E21" s="7" t="n">
+        <v>62.99</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G21" s="5" t="e"/>
       <c r="H21" s="6" t="n">
-        <v>20000</v>
+        <v>300</v>
       </c>
     </row>
     <row r="22" ht="11" customHeight="true">
@@ -1019,15 +1085,15 @@
       <c r="D22" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E22" s="4" t="n">
-        <v>4.08</v>
+      <c r="E22" s="7" t="n">
+        <v>4.5</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G22" s="5" t="e"/>
-      <c r="H22" s="6" t="n">
-        <v>10000</v>
+      <c r="H22" s="8" t="n">
+        <v>43000</v>
       </c>
     </row>
     <row r="23" ht="11" customHeight="true">
@@ -1043,18 +1109,18 @@
       <c r="D23" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E23" s="4" t="n">
-        <v>430</v>
+      <c r="E23" s="7" t="n">
+        <v>21.58</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G23" s="5" t="e"/>
-      <c r="H23" s="7" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="24" ht="11" customHeight="true">
+      <c r="H23" s="8" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="24" ht="23" customHeight="true">
       <c r="A24" s="3" t="s">
         <v>8</v>
       </c>
@@ -1067,18 +1133,18 @@
       <c r="D24" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E24" s="4" t="n">
-        <v>4</v>
+      <c r="E24" s="7" t="n">
+        <v>19.96</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G24" s="5" t="e"/>
-      <c r="H24" s="6" t="n">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="25" ht="11" customHeight="true">
+      <c r="H24" s="8" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="25" ht="23" customHeight="true">
       <c r="A25" s="3" t="s">
         <v>8</v>
       </c>
@@ -1091,18 +1157,18 @@
       <c r="D25" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E25" s="4" t="n">
-        <v>222.57</v>
+      <c r="E25" s="7" t="n">
+        <v>169.33</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G25" s="5" t="e"/>
-      <c r="H25" s="7" t="n">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="26" ht="11" customHeight="true">
+      <c r="H25" s="6" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" ht="23" customHeight="true">
       <c r="A26" s="3" t="s">
         <v>8</v>
       </c>
@@ -1115,15 +1181,15 @@
       <c r="D26" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E26" s="4" t="n">
-        <v>10.23</v>
+      <c r="E26" s="7" t="n">
+        <v>217.08</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G26" s="5" t="e"/>
       <c r="H26" s="6" t="n">
-        <v>10000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" ht="11" customHeight="true">
@@ -1139,18 +1205,18 @@
       <c r="D27" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E27" s="4" t="n">
-        <v>16.52</v>
+      <c r="E27" s="7" t="n">
+        <v>18.91</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G27" s="5" t="e"/>
       <c r="H27" s="6" t="n">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="28" ht="23" customHeight="true">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="28" ht="11" customHeight="true">
       <c r="A28" s="3" t="s">
         <v>8</v>
       </c>
@@ -1163,18 +1229,18 @@
       <c r="D28" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E28" s="4" t="n">
-        <v>18.29</v>
+      <c r="E28" s="7" t="n">
+        <v>3.22</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G28" s="5" t="e"/>
-      <c r="H28" s="6" t="n">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="29" ht="23" customHeight="true">
+      <c r="H28" s="8" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="29" ht="11" customHeight="true">
       <c r="A29" s="3" t="s">
         <v>8</v>
       </c>
@@ -1187,18 +1253,18 @@
       <c r="D29" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E29" s="4" t="n">
-        <v>11.13</v>
+      <c r="E29" s="7" t="n">
+        <v>3.22</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G29" s="5" t="e"/>
-      <c r="H29" s="6" t="n">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="30" ht="23" customHeight="true">
+      <c r="H29" s="8" t="n">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="30" ht="11" customHeight="true">
       <c r="A30" s="3" t="s">
         <v>8</v>
       </c>
@@ -1211,18 +1277,18 @@
       <c r="D30" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E30" s="4" t="n">
-        <v>18.15</v>
+      <c r="E30" s="7" t="n">
+        <v>4.08</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G30" s="5" t="e"/>
-      <c r="H30" s="6" t="n">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="31" ht="23" customHeight="true">
+      <c r="H30" s="8" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="31" ht="11" customHeight="true">
       <c r="A31" s="3" t="s">
         <v>8</v>
       </c>
@@ -1235,15 +1301,15 @@
       <c r="D31" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E31" s="4" t="n">
-        <v>26.66</v>
+      <c r="E31" s="7" t="n">
+        <v>430</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G31" s="5" t="e"/>
       <c r="H31" s="6" t="n">
-        <v>2000</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" ht="11" customHeight="true">
@@ -1259,18 +1325,18 @@
       <c r="D32" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E32" s="4" t="n">
-        <v>25.22</v>
+      <c r="E32" s="7" t="n">
+        <v>4</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G32" s="5" t="e"/>
-      <c r="H32" s="6" t="n">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="33" ht="23" customHeight="true">
+      <c r="H32" s="8" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="33" ht="11" customHeight="true">
       <c r="A33" s="3" t="s">
         <v>8</v>
       </c>
@@ -1283,15 +1349,13 @@
       <c r="D33" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E33" s="4" t="n">
-        <v>7.62</v>
-      </c>
+      <c r="E33" s="3" t="e"/>
       <c r="F33" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G33" s="5" t="e"/>
       <c r="H33" s="6" t="n">
-        <v>3000</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34" ht="11" customHeight="true">
@@ -1307,15 +1371,15 @@
       <c r="D34" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E34" s="4" t="n">
-        <v>3.1</v>
+      <c r="E34" s="7" t="n">
+        <v>222.57</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G34" s="5" t="e"/>
       <c r="H34" s="6" t="n">
-        <v>66000</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" ht="23" customHeight="true">
@@ -1331,15 +1395,15 @@
       <c r="D35" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E35" s="4" t="n">
-        <v>39.86</v>
+      <c r="E35" s="7" t="n">
+        <v>283.34</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G35" s="5" t="e"/>
-      <c r="H35" s="7" t="n">
-        <v>480</v>
+      <c r="H35" s="6" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="36" ht="11" customHeight="true">
@@ -1355,18 +1419,18 @@
       <c r="D36" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E36" s="4" t="n">
-        <v>4.48</v>
+      <c r="E36" s="7" t="n">
+        <v>10.23</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G36" s="5" t="e"/>
-      <c r="H36" s="6" t="n">
-        <v>43000</v>
-      </c>
-    </row>
-    <row r="37" ht="23" customHeight="true">
+      <c r="H36" s="8" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="37" ht="11" customHeight="true">
       <c r="A37" s="3" t="s">
         <v>8</v>
       </c>
@@ -1379,14 +1443,14 @@
       <c r="D37" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E37" s="4" t="n">
-        <v>6</v>
+      <c r="E37" s="7" t="n">
+        <v>16.52</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G37" s="5" t="e"/>
-      <c r="H37" s="6" t="n">
+      <c r="H37" s="8" t="n">
         <v>10000</v>
       </c>
     </row>
@@ -1403,15 +1467,15 @@
       <c r="D38" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E38" s="4" t="n">
-        <v>24.56</v>
+      <c r="E38" s="7" t="n">
+        <v>18.29</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G38" s="5" t="e"/>
-      <c r="H38" s="7" t="n">
-        <v>650</v>
+      <c r="H38" s="8" t="n">
+        <v>2000</v>
       </c>
     </row>
     <row r="39" ht="23" customHeight="true">
@@ -1427,18 +1491,18 @@
       <c r="D39" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E39" s="4" t="n">
-        <v>20.89</v>
+      <c r="E39" s="7" t="n">
+        <v>11.13</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G39" s="5" t="e"/>
-      <c r="H39" s="7" t="n">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="40" ht="11" customHeight="true">
+      <c r="H39" s="8" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="40" ht="23" customHeight="true">
       <c r="A40" s="3" t="s">
         <v>8</v>
       </c>
@@ -1451,18 +1515,18 @@
       <c r="D40" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E40" s="4" t="n">
-        <v>47.04</v>
+      <c r="E40" s="7" t="n">
+        <v>18.15</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G40" s="5" t="e"/>
-      <c r="H40" s="7" t="n">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="41" ht="11" customHeight="true">
+      <c r="H40" s="8" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="41" ht="23" customHeight="true">
       <c r="A41" s="3" t="s">
         <v>8</v>
       </c>
@@ -1475,14 +1539,14 @@
       <c r="D41" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E41" s="4" t="n">
-        <v>7.57</v>
+      <c r="E41" s="7" t="n">
+        <v>26.66</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G41" s="5" t="e"/>
-      <c r="H41" s="6" t="n">
+      <c r="H41" s="8" t="n">
         <v>2000</v>
       </c>
     </row>
@@ -1499,18 +1563,18 @@
       <c r="D42" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E42" s="4" t="n">
-        <v>7.08</v>
+      <c r="E42" s="7" t="n">
+        <v>25.22</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G42" s="5" t="e"/>
-      <c r="H42" s="6" t="n">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="43" ht="11" customHeight="true">
+      <c r="H42" s="8" t="n">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="43" ht="23" customHeight="true">
       <c r="A43" s="3" t="s">
         <v>8</v>
       </c>
@@ -1523,18 +1587,18 @@
       <c r="D43" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="E43" s="4" t="n">
-        <v>25.36</v>
+      <c r="E43" s="7" t="n">
+        <v>7.62</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G43" s="5" t="e"/>
-      <c r="H43" s="7" t="n">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="44" ht="23" customHeight="true">
+      <c r="H43" s="8" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="44" ht="11" customHeight="true">
       <c r="A44" s="3" t="s">
         <v>8</v>
       </c>
@@ -1547,18 +1611,18 @@
       <c r="D44" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="E44" s="4" t="n">
-        <v>23.93</v>
+      <c r="E44" s="7" t="n">
+        <v>3.1</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G44" s="5" t="e"/>
-      <c r="H44" s="7" t="n">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="45" ht="11" customHeight="true">
+      <c r="H44" s="8" t="n">
+        <v>66000</v>
+      </c>
+    </row>
+    <row r="45" ht="23" customHeight="true">
       <c r="A45" s="3" t="s">
         <v>8</v>
       </c>
@@ -1571,18 +1635,18 @@
       <c r="D45" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E45" s="4" t="n">
-        <v>17.12</v>
+      <c r="E45" s="7" t="n">
+        <v>39.86</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G45" s="5" t="e"/>
       <c r="H45" s="6" t="n">
-        <v>3100</v>
-      </c>
-    </row>
-    <row r="46" ht="11" customHeight="true">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="46" ht="23" customHeight="true">
       <c r="A46" s="3" t="s">
         <v>8</v>
       </c>
@@ -1596,14 +1660,14 @@
         <v>100</v>
       </c>
       <c r="E46" s="4" t="n">
-        <v>6.89</v>
+        <v>3038.81</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G46" s="5" t="e"/>
       <c r="H46" s="6" t="n">
-        <v>2400</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" ht="11" customHeight="true">
@@ -1617,88 +1681,352 @@
         <v>101</v>
       </c>
       <c r="D47" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E47" s="7" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" s="5" t="e"/>
+      <c r="H47" s="8" t="n">
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="48" ht="23" customHeight="true">
+      <c r="A48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="E47" s="4" t="n">
-        <v>6.77</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G47" s="5" t="e"/>
-      <c r="H47" s="6" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="48" ht="11" customHeight="true">
-      <c r="A48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C48" s="3" t="s">
+      <c r="D48" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="E48" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G48" s="5" t="e"/>
+      <c r="H48" s="8" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="49" ht="23" customHeight="true">
+      <c r="A49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="E48" s="4" t="n">
-        <v>6.77</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G48" s="5" t="e"/>
-      <c r="H48" s="6" t="n">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="49" ht="11" customHeight="true">
-      <c r="A49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C49" s="3" t="s">
+      <c r="D49" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E49" s="4" t="n">
-        <v>9.25</v>
+      <c r="E49" s="7" t="n">
+        <v>24.56</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G49" s="5" t="e"/>
       <c r="H49" s="6" t="n">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="50" ht="23" customHeight="true">
+      <c r="A50" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E50" s="7" t="n">
+        <v>20.89</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" s="5" t="e"/>
+      <c r="H50" s="6" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="51" ht="11" customHeight="true">
+      <c r="A51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E51" s="7" t="n">
+        <v>47.04</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G51" s="5" t="e"/>
+      <c r="H51" s="6" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="52" ht="11" customHeight="true">
+      <c r="A52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E52" s="7" t="n">
+        <v>7.57</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G52" s="5" t="e"/>
+      <c r="H52" s="8" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="53" ht="11" customHeight="true">
+      <c r="A53" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E53" s="7" t="n">
+        <v>7.08</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G53" s="5" t="e"/>
+      <c r="H53" s="8" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="54" ht="11" customHeight="true">
+      <c r="A54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E54" s="7" t="n">
+        <v>25.36</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54" s="5" t="e"/>
+      <c r="H54" s="6" t="n">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="55" ht="23" customHeight="true">
+      <c r="A55" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E55" s="7" t="n">
+        <v>23.93</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G55" s="5" t="e"/>
+      <c r="H55" s="6" t="n">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="56" ht="11" customHeight="true">
+      <c r="A56" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E56" s="7" t="n">
+        <v>17.12</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G56" s="5" t="e"/>
+      <c r="H56" s="8" t="n">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="57" ht="11" customHeight="true">
+      <c r="A57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E57" s="7" t="n">
+        <v>6.89</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G57" s="5" t="e"/>
+      <c r="H57" s="8" t="n">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="58" ht="11" customHeight="true">
+      <c r="A58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E58" s="7" t="n">
+        <v>6.77</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G58" s="5" t="e"/>
+      <c r="H58" s="8" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="59" ht="11" customHeight="true">
+      <c r="A59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E59" s="7" t="n">
+        <v>6.77</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G59" s="5" t="e"/>
+      <c r="H59" s="8" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="60" ht="11" customHeight="true">
+      <c r="A60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E60" s="7" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G60" s="5" t="e"/>
+      <c r="H60" s="8" t="n">
         <v>4200</v>
       </c>
     </row>
-    <row r="50" ht="11" customHeight="true">
-      <c r="A50" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E50" s="4" t="n">
+    <row r="61" ht="11" customHeight="true">
+      <c r="A61" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E61" s="7" t="n">
         <v>9.68</v>
       </c>
-      <c r="F50" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G50" s="5" t="e"/>
-      <c r="H50" s="7" t="n">
+      <c r="F61" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G61" s="5" t="e"/>
+      <c r="H61" s="6" t="n">
         <v>960</v>
       </c>
     </row>

--- a/data/В пути АСТ.xlsx
+++ b/data/В пути АСТ.xlsx
@@ -49,7 +49,7 @@
     <t>Кон ост</t>
   </si>
   <si>
-    <t>21.03.2024 0:00:00</t>
+    <t>25.03.2024 0:00:00</t>
   </si>
   <si>
     <t>Астана в Пути</t>

--- a/data/В пути АСТ.xlsx
+++ b/data/В пути АСТ.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
   <si>
     <t>Дата</t>
   </si>
@@ -47,6 +47,225 @@
   </si>
   <si>
     <t>Кон ост</t>
+  </si>
+  <si>
+    <t>29.03.2024 0:00:00</t>
+  </si>
+  <si>
+    <t>Астана в Пути</t>
+  </si>
+  <si>
+    <t>337433</t>
+  </si>
+  <si>
+    <t>Свечи чайные в гильзе d38хh16 мм, без дизайна, бел., 100 шт/упак "Textop"</t>
+  </si>
+  <si>
+    <t>Нет</t>
+  </si>
+  <si>
+    <t>103896</t>
+  </si>
+  <si>
+    <t>Салфетки 250х250 мм 1-сл., бел., бум., 100 шт/упак (ИП Головкин С.В.)</t>
+  </si>
+  <si>
+    <t>101365</t>
+  </si>
+  <si>
+    <t>Средство для дезинфекции и отбеливания "Platinum Sharks" Gold Белизна 25%, канистра, 5000 мл</t>
+  </si>
+  <si>
+    <t>101366</t>
+  </si>
+  <si>
+    <t>Средство для дезинфекции и отбеливания "Platinum Sharks" Gold Белизна 25%, флакон, 1000 мл</t>
+  </si>
+  <si>
+    <t>101367</t>
+  </si>
+  <si>
+    <t>Средство для очистки кухонных плит "Platinum Sharks" D-09 Антижир, триггер, 750 мл</t>
+  </si>
+  <si>
+    <t>101369</t>
+  </si>
+  <si>
+    <t>Средство для мытья посуды "Silver Regular" Лимон, бутылка ПЭТ, 5000 мл</t>
+  </si>
+  <si>
+    <t>107441</t>
+  </si>
+  <si>
+    <t>Крышка для стакана d95 мм куполообразная без отверстия, прозр., ПЭТ, 50 шт/упак "Upax-Unity"</t>
+  </si>
+  <si>
+    <t>115127</t>
+  </si>
+  <si>
+    <t>Стакан бумажный 100 мл 1 сл., d62 мм, бел., карт., 50 шт/упак (ООО Паперскоп Рус)</t>
+  </si>
+  <si>
+    <t>115417</t>
+  </si>
+  <si>
+    <t>Стакан-шейкер одноразовый 300 мл, прозр., ПЭТ, 50 шт/упак "Upax-Unity"</t>
+  </si>
+  <si>
+    <t>123250</t>
+  </si>
+  <si>
+    <t>Тарелка одноразовая мелкая d167 мм, бел., ПС, 100 шт/упак "МИСТЕРИЯ"</t>
+  </si>
+  <si>
+    <t>106360</t>
+  </si>
+  <si>
+    <t>Крышка к контейнеру купол. 114х114х56 мм, прозр., ПЭТ, 50 шт/упак "OSQ" LidSmartPack 300</t>
+  </si>
+  <si>
+    <t>107468</t>
+  </si>
+  <si>
+    <t>Капхолдер [манжета] 270х55 мм, крафт, карт., 50 шт/упак (ООО ПК Растр)</t>
+  </si>
+  <si>
+    <t>104409</t>
+  </si>
+  <si>
+    <t>Контейнер 300 мл, 100х100х49 мм, без окна, без крышки, крафт, карт., 50 шт/упак "OSQ Eco SmartPack</t>
+  </si>
+  <si>
+    <t>107910</t>
+  </si>
+  <si>
+    <t>Антисептическое средство для рук "Platinum Sharks" Helmet Shark, канистра, 5000 мл</t>
+  </si>
+  <si>
+    <t>104965</t>
+  </si>
+  <si>
+    <t>Пакет [240+140]х280 мм с круч. ручками, крафт, бум., 300 шт/кор (ООО Демарт)</t>
+  </si>
+  <si>
+    <t>104163</t>
+  </si>
+  <si>
+    <t>Пакет "майка" для пиццы [320+240]х600 мм 14 мкм, прозр., ПНД, 100 шт/упак (ИП Морозов Я.В)</t>
+  </si>
+  <si>
+    <t>104164</t>
+  </si>
+  <si>
+    <t>Пакет "майка" для пиццы [240+180]х500 мм 14 мкм, прозр., ПНД, 100 шт/упак (ИП Морозов Я.В)</t>
+  </si>
+  <si>
+    <t>105349</t>
+  </si>
+  <si>
+    <t>Контейнер 500 мл, 170х70х40 мм, с окном, неразъем. крышка, крафт-бел., карт., 25 шт/упак "OSQ" Eco T</t>
+  </si>
+  <si>
+    <t>111452</t>
+  </si>
+  <si>
+    <t>Коробка для картофеля фри 105х50х110 мм, M, крафт-бел., карт., 50 шт/упак "OSQ" Eco Fry</t>
+  </si>
+  <si>
+    <t>111580</t>
+  </si>
+  <si>
+    <t>Коробка для кондит. изделий 180х110х55 мм, с окном, неразъем.крышка, крафт-бел., карт., 50 шт/упак "</t>
+  </si>
+  <si>
+    <t>111930</t>
+  </si>
+  <si>
+    <t>Салфетка влажная, Лимон, саше, 1000 шт/кор "МИСТЕРИЯ"</t>
+  </si>
+  <si>
+    <t>112340</t>
+  </si>
+  <si>
+    <t>Крышка к контейнеру 175х130х13,5 мм, прозр., ПЭТ 50 шт/упак "OSQ" OpSalad 500</t>
+  </si>
+  <si>
+    <t>112341</t>
+  </si>
+  <si>
+    <t>Контейнер 500 мл, 164х115х45 мм, без окна, без крышки, крафт-бел., карт., 50 шт/упак "OSQ" OpSalad</t>
+  </si>
+  <si>
+    <t>112619</t>
+  </si>
+  <si>
+    <t>Коробка для торта 180х180х100 мм, с окном, неразъем.крышка, без руч., бел., карт., 120 шт/кор "Forge</t>
+  </si>
+  <si>
+    <t>113085</t>
+  </si>
+  <si>
+    <t>Средство чистящее универсальное "Effect" Лимон, порошок, 400 г</t>
+  </si>
+  <si>
+    <t>113103</t>
+  </si>
+  <si>
+    <t>Упаковка 220х220х100 мм, бел., карт., 15 шт/упак "Forgenika" Cake Roll II Window White</t>
+  </si>
+  <si>
+    <t>113104</t>
+  </si>
+  <si>
+    <t>Упаковка 240х240х100 мм, бел., карт., 15 шт/упак "Forgenika" Cake Roll II Window White</t>
+  </si>
+  <si>
+    <t>113211</t>
+  </si>
+  <si>
+    <t>Контейнер 250 мл 1-секц. 124,5х124,5х38,4 мм, без крышки, черн., ПЭТ, 50 шт/упак "Upax-Unity"</t>
+  </si>
+  <si>
+    <t>113214</t>
+  </si>
+  <si>
+    <t>Крышка к контейнеру 124,5х124,5х13,1 мм, прозр., ПЭТ, 25 шт/упак "Upax-Unity"</t>
+  </si>
+  <si>
+    <t>113306</t>
+  </si>
+  <si>
+    <t>Пакет "Майка" [250+120]х450 мм 10 мкм, бел., ПНД, 100 шт/упак (ООО Нижполимерупак)</t>
+  </si>
+  <si>
+    <t>113711</t>
+  </si>
+  <si>
+    <t>Коробка для лапши 900 мл, 165х130х50 мм, крафт, карт., 60 шт/упак "OSQ" Eco Fold Box</t>
+  </si>
+  <si>
+    <t>114028</t>
+  </si>
+  <si>
+    <t>Мешок кондитерский в рулоне 1-сл., 53 см, 90 мкм, прозр., ПЭ, 100 шт/рул (ООО Компания Лемио)</t>
+  </si>
+  <si>
+    <t>114509</t>
+  </si>
+  <si>
+    <t>Контейнер 1000 мл, 200х120х40 мм, с окном, неразъем.крышка, крафт-бел., карт., 25 шт/упак "OSQ" Eco </t>
+  </si>
+  <si>
+    <t>115993</t>
+  </si>
+  <si>
+    <t>Контейнер 1555 мл, 200х200х55 мм, с окном, неразъем.крышка, крафт-бел., карт., 25 шт/упак "OSQ" Eco </t>
+  </si>
+  <si>
+    <t>109414</t>
+  </si>
+  <si>
+    <t>Мыло жидкое антибактериальное "Silver" Regular, бутылка ПЭТ, 5000 мл</t>
   </si>
 </sst>
 </file>
@@ -97,7 +316,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -120,17 +339,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="7D8AB9"/>
+      </left>
+      <right style="thin">
+        <color rgb="7D8AB9"/>
+      </right>
+      <top style="thin">
+        <color rgb="7D8AB9"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="7D8AB9"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0"/>
     <xf numFmtId="0" fontId="0" applyAlignment="true">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="2" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" borderId="2" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="2" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="right" vertical="top" wrapText="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" borderId="2" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="right" vertical="top" wrapText="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" borderId="2" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" borderId="2" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="right" vertical="top" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -151,20 +403,20 @@
     <outlinePr summaryBelow="false" summaryRight="false"/>
     <pageSetUpPr autoPageBreaks="false" fitToPage="true"/>
   </sheetPr>
-  <dimension ref="H1"/>
+  <dimension ref="H36"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0" rightToLeft="false"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" customHeight="true" defaultRowHeight="11.429"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" style="1" customWidth="true"/>
-    <col min="2" max="2" width="9.5" style="1" customWidth="true"/>
+    <col min="1" max="1" width="23.33203125" style="1" customWidth="true"/>
+    <col min="2" max="2" width="17.5" style="1" customWidth="true"/>
     <col min="3" max="3" width="11.66796875" style="1" customWidth="true"/>
-    <col min="4" max="4" width="18.33203125" style="1" customWidth="true"/>
-    <col min="5" max="5" width="8.5" style="1" customWidth="true"/>
+    <col min="4" max="4" width="74.66796875" style="1" customWidth="true"/>
+    <col min="5" max="5" width="11.66796875" style="1" customWidth="true"/>
     <col min="6" max="6" width="17.83203125" style="1" customWidth="true"/>
     <col min="7" max="7" width="10.83203125" style="1" customWidth="true"/>
-    <col min="8" max="8" width="6.66796875" style="1" customWidth="true"/>
+    <col min="8" max="8" width="9.33203125" style="1" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="40" customHeight="true">
@@ -191,6 +443,844 @@
       </c>
       <c r="H1" s="2" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="2" ht="11" customHeight="true">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="4" t="n">
+        <v>1556.63</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="5" t="e"/>
+      <c r="H2" s="6" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" ht="11" customHeight="true">
+      <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="7" t="n">
+        <v>92.85</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="5" t="e"/>
+      <c r="H3" s="8" t="n">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="4" ht="23" customHeight="true">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>1600</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="5" t="e"/>
+      <c r="H4" s="6" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" ht="23" customHeight="true">
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="7" t="n">
+        <v>240</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="5" t="e"/>
+      <c r="H5" s="6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" ht="11" customHeight="true">
+      <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="5" t="e"/>
+      <c r="H6" s="6" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" ht="11" customHeight="true">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="7" t="n">
+        <v>850</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="5" t="e"/>
+      <c r="H7" s="6" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" ht="23" customHeight="true">
+      <c r="A8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="7" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="5" t="e"/>
+      <c r="H8" s="8" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="9" ht="11" customHeight="true">
+      <c r="A9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="7" t="n">
+        <v>7.57</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="5" t="e"/>
+      <c r="H9" s="8" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="10" ht="11" customHeight="true">
+      <c r="A10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="7" t="n">
+        <v>14.75</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="5" t="e"/>
+      <c r="H10" s="8" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="11" ht="11" customHeight="true">
+      <c r="A11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="7" t="n">
+        <v>7.04</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="5" t="e"/>
+      <c r="H11" s="8" t="n">
+        <v>39000</v>
+      </c>
+    </row>
+    <row r="12" ht="23" customHeight="true">
+      <c r="A12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="7" t="n">
+        <v>31.43</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="5" t="e"/>
+      <c r="H12" s="6" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="13" ht="11" customHeight="true">
+      <c r="A13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="7" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="5" t="e"/>
+      <c r="H13" s="8" t="n">
+        <v>91800</v>
+      </c>
+    </row>
+    <row r="14" ht="23" customHeight="true">
+      <c r="A14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="7" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="5" t="e"/>
+      <c r="H14" s="6" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="15" ht="11" customHeight="true">
+      <c r="A15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="4" t="n">
+        <v>4800</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="5" t="e"/>
+      <c r="H15" s="6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" ht="11" customHeight="true">
+      <c r="A16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="7" t="n">
+        <v>26.86</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="5" t="e"/>
+      <c r="H16" s="8" t="n">
+        <v>12900</v>
+      </c>
+    </row>
+    <row r="17" ht="23" customHeight="true">
+      <c r="A17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="4" t="n">
+        <v>1137.11</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="5" t="e"/>
+      <c r="H17" s="6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" ht="23" customHeight="true">
+      <c r="A18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="7" t="n">
+        <v>827.49</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="5" t="e"/>
+      <c r="H18" s="6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" ht="23" customHeight="true">
+      <c r="A19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="7" t="n">
+        <v>29.54</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="5" t="e"/>
+      <c r="H19" s="6" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="20" ht="23" customHeight="true">
+      <c r="A20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="7" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="5" t="e"/>
+      <c r="H20" s="8" t="n">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="21" ht="23" customHeight="true">
+      <c r="A21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="7" t="n">
+        <v>62.99</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="5" t="e"/>
+      <c r="H21" s="6" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="22" ht="11" customHeight="true">
+      <c r="A22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="7" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="5" t="e"/>
+      <c r="H22" s="8" t="n">
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="23" ht="11" customHeight="true">
+      <c r="A23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" s="7" t="n">
+        <v>21.58</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="5" t="e"/>
+      <c r="H23" s="8" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="24" ht="23" customHeight="true">
+      <c r="A24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" s="7" t="n">
+        <v>19.96</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="5" t="e"/>
+      <c r="H24" s="8" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="25" ht="23" customHeight="true">
+      <c r="A25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" s="7" t="n">
+        <v>169.33</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="5" t="e"/>
+      <c r="H25" s="6" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" ht="11" customHeight="true">
+      <c r="A26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" s="3" t="e"/>
+      <c r="F26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="5" t="e"/>
+      <c r="H26" s="6" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" ht="11" customHeight="true">
+      <c r="A27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E27" s="7" t="n">
+        <v>187.07</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="5" t="e"/>
+      <c r="H27" s="6" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" ht="11" customHeight="true">
+      <c r="A28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="7" t="n">
+        <v>213.11</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="5" t="e"/>
+      <c r="H28" s="6" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" ht="23" customHeight="true">
+      <c r="A29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E29" s="7" t="n">
+        <v>6.93</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="5" t="e"/>
+      <c r="H29" s="8" t="n">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="30" ht="11" customHeight="true">
+      <c r="A30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E30" s="7" t="n">
+        <v>8.26</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="5" t="e"/>
+      <c r="H30" s="8" t="n">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="31" ht="23" customHeight="true">
+      <c r="A31" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E31" s="7" t="n">
+        <v>283.34</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="5" t="e"/>
+      <c r="H31" s="6" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" ht="23" customHeight="true">
+      <c r="A32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E32" s="7" t="n">
+        <v>39.86</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" s="5" t="e"/>
+      <c r="H32" s="6" t="n">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="33" ht="23" customHeight="true">
+      <c r="A33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E33" s="4" t="n">
+        <v>3038.81</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" s="5" t="e"/>
+      <c r="H33" s="6" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" ht="23" customHeight="true">
+      <c r="A34" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E34" s="7" t="n">
+        <v>44.57</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="5" t="e"/>
+      <c r="H34" s="6" t="n">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="35" ht="23" customHeight="true">
+      <c r="A35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E35" s="7" t="n">
+        <v>72.19</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" s="5" t="e"/>
+      <c r="H35" s="6" t="n">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="36" ht="11" customHeight="true">
+      <c r="A36" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E36" s="7" t="n">
+        <v>810</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" s="5" t="e"/>
+      <c r="H36" s="6" t="n">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/data/В пути АСТ.xlsx
+++ b/data/В пути АСТ.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>Дата</t>
   </si>
@@ -49,27 +49,63 @@
     <t>Кон ост</t>
   </si>
   <si>
-    <t>29.03.2024 0:00:00</t>
+    <t>03.04.2024 0:00:00</t>
   </si>
   <si>
     <t>Астана в Пути</t>
   </si>
   <si>
+    <t>432011</t>
+  </si>
+  <si>
+    <t>Фартук 750х1250 мм, бел., ПНД, 100 шт/упак (ООО Профи Ти)</t>
+  </si>
+  <si>
+    <t>Нет</t>
+  </si>
+  <si>
     <t>337433</t>
   </si>
   <si>
     <t>Свечи чайные в гильзе d38хh16 мм, без дизайна, бел., 100 шт/упак "Textop"</t>
   </si>
   <si>
-    <t>Нет</t>
-  </si>
-  <si>
     <t>103896</t>
   </si>
   <si>
     <t>Салфетки 250х250 мм 1-сл., бел., бум., 100 шт/упак (ИП Головкин С.В.)</t>
   </si>
   <si>
+    <t>432000</t>
+  </si>
+  <si>
+    <t>Фартук 720х1200 мм, бел., ПЭ, 100 шт/упак (ООО Профи Ти)</t>
+  </si>
+  <si>
+    <t>102185</t>
+  </si>
+  <si>
+    <t>Мешок для мусора 120 л, [50+20]х110 см Суперпрочный, черн., ПВД, 10 шт/рул (ООО Техинвест Плюс)</t>
+  </si>
+  <si>
+    <t>101332</t>
+  </si>
+  <si>
+    <t>Полотно холстопрошивное 800мм х 50м Стандарт, 145 гр/м2, бел. (ООО Намтекс)</t>
+  </si>
+  <si>
+    <t>102488</t>
+  </si>
+  <si>
+    <t>Полотно вафельное 400мм х 50м, 100 гр/м2, бел. (Samo Tekstil Servis)</t>
+  </si>
+  <si>
+    <t>110617</t>
+  </si>
+  <si>
+    <t>Дезинфицирующие таблетки "Ника" Хлор Люкс, 300 шт., 1000 г</t>
+  </si>
+  <si>
     <t>101365</t>
   </si>
   <si>
@@ -94,6 +130,12 @@
     <t>Средство для мытья посуды "Silver Regular" Лимон, бутылка ПЭТ, 5000 мл</t>
   </si>
   <si>
+    <t>101680</t>
+  </si>
+  <si>
+    <t>Средство чистящее универсальное "Чистин" Лимонный всплеск, порошок, 400 г</t>
+  </si>
+  <si>
     <t>107441</t>
   </si>
   <si>
@@ -112,12 +154,30 @@
     <t>Стакан-шейкер одноразовый 300 мл, прозр., ПЭТ, 50 шт/упак "Upax-Unity"</t>
   </si>
   <si>
+    <t>120100</t>
+  </si>
+  <si>
+    <t>Тарелка одноразовая мелкая d205 мм, бел., ПС, 100 шт/упак "МИСТЕРИЯ"</t>
+  </si>
+  <si>
     <t>123250</t>
   </si>
   <si>
     <t>Тарелка одноразовая мелкая d167 мм, бел., ПС, 100 шт/упак "МИСТЕРИЯ"</t>
   </si>
   <si>
+    <t>107208</t>
+  </si>
+  <si>
+    <t>Контейнер 800[500+2х150] мл 3-секц., овал 257х202х37 мм, без крышки, черн., ПП, 30 шт/упак "ПолиЭр"</t>
+  </si>
+  <si>
+    <t>102910</t>
+  </si>
+  <si>
+    <t>Крышка к контейнеру купол. 3-секц. овал 257х202х35 мм, прозр., ПП, 30 шт/упак "ПолиЭр"</t>
+  </si>
+  <si>
     <t>106360</t>
   </si>
   <si>
@@ -184,6 +244,12 @@
     <t>Салфетка влажная, Лимон, саше, 1000 шт/кор "МИСТЕРИЯ"</t>
   </si>
   <si>
+    <t>112297</t>
+  </si>
+  <si>
+    <t>Трубочки для коктейлей 210 мм, d7 мм, черн., пласт. прямые в инд. упаковке, 500 шт/упак (ООО Экстрал</t>
+  </si>
+  <si>
     <t>112340</t>
   </si>
   <si>
@@ -250,16 +316,40 @@
     <t>Мешок кондитерский в рулоне 1-сл., 53 см, 90 мкм, прозр., ПЭ, 100 шт/рул (ООО Компания Лемио)</t>
   </si>
   <si>
+    <t>114220</t>
+  </si>
+  <si>
+    <t>Контейнер 250 мл 1-секц. 124,5х124,5х38,4 мм, без крышки, прозр., ПЭТ, 50 шт/упак "Upax-Unity"</t>
+  </si>
+  <si>
     <t>114509</t>
   </si>
   <si>
     <t>Контейнер 1000 мл, 200х120х40 мм, с окном, неразъем.крышка, крафт-бел., карт., 25 шт/упак "OSQ" Eco </t>
   </si>
   <si>
+    <t>114654</t>
+  </si>
+  <si>
+    <t>Перец порционный 0,25 г, стик, 1000 шт/кор (ООО ВЗЛП)</t>
+  </si>
+  <si>
     <t>115993</t>
   </si>
   <si>
     <t>Контейнер 1555 мл, 200х200х55 мм, с окном, неразъем.крышка, крафт-бел., карт., 25 шт/упак "OSQ" Eco </t>
+  </si>
+  <si>
+    <t>108563</t>
+  </si>
+  <si>
+    <t>Бумага туалетная для диспенсеров 1-сл. "Focus" Eco Jumbo, бел., 200 м</t>
+  </si>
+  <si>
+    <t>109145</t>
+  </si>
+  <si>
+    <t>Фольга алюминиевая 44см х 100м, 14 мкм Особо прочная (ООО Металлпейпер-М)</t>
   </si>
   <si>
     <t>109414</t>
@@ -403,7 +493,7 @@
     <outlinePr summaryBelow="false" summaryRight="false"/>
     <pageSetUpPr autoPageBreaks="false" fitToPage="true"/>
   </sheetPr>
-  <dimension ref="H36"/>
+  <dimension ref="H51"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0" rightToLeft="false"/>
   </sheetViews>
@@ -416,7 +506,7 @@
     <col min="5" max="5" width="11.66796875" style="1" customWidth="true"/>
     <col min="6" max="6" width="17.83203125" style="1" customWidth="true"/>
     <col min="7" max="7" width="10.83203125" style="1" customWidth="true"/>
-    <col min="8" max="8" width="9.33203125" style="1" customWidth="true"/>
+    <col min="8" max="8" width="10.5" style="1" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="40" customHeight="true">
@@ -459,14 +549,14 @@
         <v>11</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>1556.63</v>
+        <v>2546.13</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="5" t="e"/>
       <c r="H2" s="6" t="n">
-        <v>60</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" ht="11" customHeight="true">
@@ -482,18 +572,18 @@
       <c r="D3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="7" t="n">
-        <v>92.85</v>
+      <c r="E3" s="4" t="n">
+        <v>1556.63</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="5" t="e"/>
-      <c r="H3" s="8" t="n">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="4" ht="23" customHeight="true">
+      <c r="H3" s="6" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" ht="11" customHeight="true">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -506,18 +596,18 @@
       <c r="D4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="4" t="n">
-        <v>1600</v>
+      <c r="E4" s="7" t="n">
+        <v>92.85</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="5" t="e"/>
-      <c r="H4" s="6" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" ht="23" customHeight="true">
+      <c r="H4" s="8" t="n">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="5" ht="11" customHeight="true">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -530,18 +620,18 @@
       <c r="D5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="7" t="n">
-        <v>240</v>
+      <c r="E5" s="4" t="n">
+        <v>1218.34</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="5" t="e"/>
       <c r="H5" s="6" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" ht="11" customHeight="true">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" ht="23" customHeight="true">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -554,8 +644,8 @@
       <c r="D6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="4" t="n">
-        <v>1000</v>
+      <c r="E6" s="7" t="n">
+        <v>308.54</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>12</v>
@@ -578,18 +668,18 @@
       <c r="D7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="7" t="n">
-        <v>850</v>
+      <c r="E7" s="4" t="n">
+        <v>6504.69</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="5" t="e"/>
       <c r="H7" s="6" t="n">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" ht="23" customHeight="true">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" ht="11" customHeight="true">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
@@ -602,15 +692,15 @@
       <c r="D8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="7" t="n">
-        <v>6.35</v>
+      <c r="E8" s="4" t="n">
+        <v>5716.93</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="5" t="e"/>
-      <c r="H8" s="8" t="n">
-        <v>15000</v>
+      <c r="H8" s="6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="9" ht="11" customHeight="true">
@@ -626,18 +716,18 @@
       <c r="D9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="7" t="n">
-        <v>7.57</v>
+      <c r="E9" s="4" t="n">
+        <v>1886.03</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="5" t="e"/>
-      <c r="H9" s="8" t="n">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="10" ht="11" customHeight="true">
+      <c r="H9" s="6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" ht="23" customHeight="true">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
@@ -650,18 +740,18 @@
       <c r="D10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="7" t="n">
-        <v>14.75</v>
+      <c r="E10" s="4" t="n">
+        <v>1600</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="5" t="e"/>
-      <c r="H10" s="8" t="n">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="11" ht="11" customHeight="true">
+      <c r="H10" s="6" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" ht="23" customHeight="true">
       <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
@@ -675,17 +765,17 @@
         <v>30</v>
       </c>
       <c r="E11" s="7" t="n">
-        <v>7.04</v>
+        <v>240</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G11" s="5" t="e"/>
-      <c r="H11" s="8" t="n">
-        <v>39000</v>
-      </c>
-    </row>
-    <row r="12" ht="23" customHeight="true">
+      <c r="H11" s="6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" ht="11" customHeight="true">
       <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
@@ -698,15 +788,15 @@
       <c r="D12" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="7" t="n">
-        <v>31.43</v>
+      <c r="E12" s="4" t="n">
+        <v>1000</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G12" s="5" t="e"/>
       <c r="H12" s="6" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" ht="11" customHeight="true">
@@ -723,17 +813,17 @@
         <v>34</v>
       </c>
       <c r="E13" s="7" t="n">
-        <v>5.37</v>
+        <v>850</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="5" t="e"/>
-      <c r="H13" s="8" t="n">
-        <v>91800</v>
-      </c>
-    </row>
-    <row r="14" ht="23" customHeight="true">
+      <c r="H13" s="6" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" ht="11" customHeight="true">
       <c r="A14" s="3" t="s">
         <v>8</v>
       </c>
@@ -747,17 +837,17 @@
         <v>36</v>
       </c>
       <c r="E14" s="7" t="n">
-        <v>32.9</v>
+        <v>181.5</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="5" t="e"/>
       <c r="H14" s="6" t="n">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="15" ht="11" customHeight="true">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="15" ht="23" customHeight="true">
       <c r="A15" s="3" t="s">
         <v>8</v>
       </c>
@@ -770,15 +860,15 @@
       <c r="D15" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="4" t="n">
-        <v>4800</v>
+      <c r="E15" s="7" t="n">
+        <v>6.35</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G15" s="5" t="e"/>
-      <c r="H15" s="6" t="n">
-        <v>2</v>
+      <c r="H15" s="8" t="n">
+        <v>15000</v>
       </c>
     </row>
     <row r="16" ht="11" customHeight="true">
@@ -795,17 +885,17 @@
         <v>40</v>
       </c>
       <c r="E16" s="7" t="n">
-        <v>26.86</v>
+        <v>7.57</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="5" t="e"/>
       <c r="H16" s="8" t="n">
-        <v>12900</v>
-      </c>
-    </row>
-    <row r="17" ht="23" customHeight="true">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="17" ht="11" customHeight="true">
       <c r="A17" s="3" t="s">
         <v>8</v>
       </c>
@@ -818,18 +908,18 @@
       <c r="D17" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="4" t="n">
-        <v>1137.11</v>
+      <c r="E17" s="7" t="n">
+        <v>14.75</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G17" s="5" t="e"/>
-      <c r="H17" s="6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" ht="23" customHeight="true">
+      <c r="H17" s="8" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="18" ht="11" customHeight="true">
       <c r="A18" s="3" t="s">
         <v>8</v>
       </c>
@@ -843,17 +933,17 @@
         <v>44</v>
       </c>
       <c r="E18" s="7" t="n">
-        <v>827.49</v>
+        <v>9.12</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G18" s="5" t="e"/>
-      <c r="H18" s="6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" ht="23" customHeight="true">
+      <c r="H18" s="8" t="n">
+        <v>96000</v>
+      </c>
+    </row>
+    <row r="19" ht="11" customHeight="true">
       <c r="A19" s="3" t="s">
         <v>8</v>
       </c>
@@ -867,14 +957,14 @@
         <v>46</v>
       </c>
       <c r="E19" s="7" t="n">
-        <v>29.54</v>
+        <v>7.04</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G19" s="5" t="e"/>
-      <c r="H19" s="6" t="n">
-        <v>500</v>
+      <c r="H19" s="8" t="n">
+        <v>166400</v>
       </c>
     </row>
     <row r="20" ht="23" customHeight="true">
@@ -891,14 +981,14 @@
         <v>48</v>
       </c>
       <c r="E20" s="7" t="n">
-        <v>11.99</v>
+        <v>42.56</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G20" s="5" t="e"/>
       <c r="H20" s="8" t="n">
-        <v>6000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="21" ht="23" customHeight="true">
@@ -915,17 +1005,17 @@
         <v>50</v>
       </c>
       <c r="E21" s="7" t="n">
-        <v>62.99</v>
+        <v>42.08</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G21" s="5" t="e"/>
-      <c r="H21" s="6" t="n">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="22" ht="11" customHeight="true">
+      <c r="H21" s="8" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="22" ht="23" customHeight="true">
       <c r="A22" s="3" t="s">
         <v>8</v>
       </c>
@@ -939,14 +1029,14 @@
         <v>52</v>
       </c>
       <c r="E22" s="7" t="n">
-        <v>4.5</v>
+        <v>31.43</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G22" s="5" t="e"/>
-      <c r="H22" s="8" t="n">
-        <v>43000</v>
+      <c r="H22" s="6" t="n">
+        <v>300</v>
       </c>
     </row>
     <row r="23" ht="11" customHeight="true">
@@ -963,14 +1053,14 @@
         <v>54</v>
       </c>
       <c r="E23" s="7" t="n">
-        <v>21.58</v>
+        <v>5.61</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G23" s="5" t="e"/>
       <c r="H23" s="8" t="n">
-        <v>3000</v>
+        <v>91800</v>
       </c>
     </row>
     <row r="24" ht="23" customHeight="true">
@@ -987,17 +1077,17 @@
         <v>56</v>
       </c>
       <c r="E24" s="7" t="n">
-        <v>19.96</v>
+        <v>32.9</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G24" s="5" t="e"/>
-      <c r="H24" s="8" t="n">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="25" ht="23" customHeight="true">
+      <c r="H24" s="6" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="25" ht="11" customHeight="true">
       <c r="A25" s="3" t="s">
         <v>8</v>
       </c>
@@ -1010,15 +1100,15 @@
       <c r="D25" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E25" s="7" t="n">
-        <v>169.33</v>
+      <c r="E25" s="4" t="n">
+        <v>4800</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G25" s="5" t="e"/>
       <c r="H25" s="6" t="n">
-        <v>120</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" ht="11" customHeight="true">
@@ -1034,16 +1124,18 @@
       <c r="D26" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E26" s="3" t="e"/>
+      <c r="E26" s="7" t="n">
+        <v>26.86</v>
+      </c>
       <c r="F26" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G26" s="5" t="e"/>
-      <c r="H26" s="6" t="n">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="27" ht="11" customHeight="true">
+      <c r="H26" s="8" t="n">
+        <v>12900</v>
+      </c>
+    </row>
+    <row r="27" ht="23" customHeight="true">
       <c r="A27" s="3" t="s">
         <v>8</v>
       </c>
@@ -1056,18 +1148,18 @@
       <c r="D27" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E27" s="7" t="n">
-        <v>187.07</v>
+      <c r="E27" s="4" t="n">
+        <v>1137.11</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G27" s="5" t="e"/>
       <c r="H27" s="6" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="28" ht="11" customHeight="true">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" ht="23" customHeight="true">
       <c r="A28" s="3" t="s">
         <v>8</v>
       </c>
@@ -1081,14 +1173,14 @@
         <v>64</v>
       </c>
       <c r="E28" s="7" t="n">
-        <v>213.11</v>
+        <v>827.49</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G28" s="5" t="e"/>
       <c r="H28" s="6" t="n">
-        <v>75</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" ht="23" customHeight="true">
@@ -1105,17 +1197,17 @@
         <v>66</v>
       </c>
       <c r="E29" s="7" t="n">
-        <v>6.93</v>
+        <v>29.54</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G29" s="5" t="e"/>
-      <c r="H29" s="8" t="n">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="30" ht="11" customHeight="true">
+      <c r="H29" s="6" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="30" ht="23" customHeight="true">
       <c r="A30" s="3" t="s">
         <v>8</v>
       </c>
@@ -1129,14 +1221,14 @@
         <v>68</v>
       </c>
       <c r="E30" s="7" t="n">
-        <v>8.26</v>
+        <v>11.99</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G30" s="5" t="e"/>
       <c r="H30" s="8" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="31" ht="23" customHeight="true">
@@ -1153,17 +1245,17 @@
         <v>70</v>
       </c>
       <c r="E31" s="7" t="n">
-        <v>283.34</v>
+        <v>62.99</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G31" s="5" t="e"/>
       <c r="H31" s="6" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" ht="23" customHeight="true">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="32" ht="11" customHeight="true">
       <c r="A32" s="3" t="s">
         <v>8</v>
       </c>
@@ -1177,14 +1269,14 @@
         <v>72</v>
       </c>
       <c r="E32" s="7" t="n">
-        <v>39.86</v>
+        <v>4.5</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G32" s="5" t="e"/>
-      <c r="H32" s="6" t="n">
-        <v>960</v>
+      <c r="H32" s="8" t="n">
+        <v>43000</v>
       </c>
     </row>
     <row r="33" ht="23" customHeight="true">
@@ -1201,17 +1293,17 @@
         <v>74</v>
       </c>
       <c r="E33" s="4" t="n">
-        <v>3038.81</v>
+        <v>1089.58</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G33" s="5" t="e"/>
       <c r="H33" s="6" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" ht="23" customHeight="true">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34" ht="11" customHeight="true">
       <c r="A34" s="3" t="s">
         <v>8</v>
       </c>
@@ -1225,14 +1317,14 @@
         <v>76</v>
       </c>
       <c r="E34" s="7" t="n">
-        <v>44.57</v>
+        <v>21.58</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G34" s="5" t="e"/>
-      <c r="H34" s="6" t="n">
-        <v>225</v>
+      <c r="H34" s="8" t="n">
+        <v>3000</v>
       </c>
     </row>
     <row r="35" ht="23" customHeight="true">
@@ -1249,17 +1341,17 @@
         <v>78</v>
       </c>
       <c r="E35" s="7" t="n">
-        <v>72.19</v>
+        <v>19.96</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G35" s="5" t="e"/>
-      <c r="H35" s="6" t="n">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="36" ht="11" customHeight="true">
+      <c r="H35" s="8" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="36" ht="23" customHeight="true">
       <c r="A36" s="3" t="s">
         <v>8</v>
       </c>
@@ -1273,13 +1365,371 @@
         <v>80</v>
       </c>
       <c r="E36" s="7" t="n">
-        <v>810</v>
+        <v>169.33</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G36" s="5" t="e"/>
       <c r="H36" s="6" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="37" ht="11" customHeight="true">
+      <c r="A37" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E37" s="3" t="e"/>
+      <c r="F37" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" s="5" t="e"/>
+      <c r="H37" s="6" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="38" ht="11" customHeight="true">
+      <c r="A38" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E38" s="7" t="n">
+        <v>187.07</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" s="5" t="e"/>
+      <c r="H38" s="6" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" ht="11" customHeight="true">
+      <c r="A39" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E39" s="7" t="n">
+        <v>213.11</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" s="5" t="e"/>
+      <c r="H39" s="6" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" ht="23" customHeight="true">
+      <c r="A40" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E40" s="7" t="n">
+        <v>6.93</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" s="5" t="e"/>
+      <c r="H40" s="8" t="n">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="41" ht="11" customHeight="true">
+      <c r="A41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E41" s="7" t="n">
+        <v>8.26</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" s="5" t="e"/>
+      <c r="H41" s="8" t="n">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="42" ht="23" customHeight="true">
+      <c r="A42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E42" s="7" t="n">
+        <v>283.34</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" s="5" t="e"/>
+      <c r="H42" s="6" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" ht="23" customHeight="true">
+      <c r="A43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E43" s="7" t="n">
+        <v>39.86</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" s="5" t="e"/>
+      <c r="H43" s="6" t="n">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="44" ht="23" customHeight="true">
+      <c r="A44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E44" s="4" t="n">
+        <v>3038.81</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44" s="5" t="e"/>
+      <c r="H44" s="6" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" ht="23" customHeight="true">
+      <c r="A45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E45" s="7" t="n">
+        <v>8.99</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45" s="5" t="e"/>
+      <c r="H45" s="8" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="46" ht="23" customHeight="true">
+      <c r="A46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E46" s="7" t="n">
+        <v>44.57</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" s="5" t="e"/>
+      <c r="H46" s="6" t="n">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="47" ht="11" customHeight="true">
+      <c r="A47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E47" s="7" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" s="5" t="e"/>
+      <c r="H47" s="8" t="n">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="48" ht="23" customHeight="true">
+      <c r="A48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E48" s="7" t="n">
+        <v>72.19</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G48" s="5" t="e"/>
+      <c r="H48" s="6" t="n">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="49" ht="11" customHeight="true">
+      <c r="A49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E49" s="7" t="n">
+        <v>334.15</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49" s="5" t="e"/>
+      <c r="H49" s="6" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50" ht="11" customHeight="true">
+      <c r="A50" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E50" s="4" t="n">
+        <v>3704.8</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" s="5" t="e"/>
+      <c r="H50" s="6" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="51" ht="11" customHeight="true">
+      <c r="A51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E51" s="7" t="n">
+        <v>810</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G51" s="5" t="e"/>
+      <c r="H51" s="6" t="n">
         <v>50</v>
       </c>
     </row>

--- a/data/В пути АСТ.xlsx
+++ b/data/В пути АСТ.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
   <si>
     <t>Дата</t>
   </si>
@@ -49,7 +49,7 @@
     <t>Кон ост</t>
   </si>
   <si>
-    <t>03.04.2024 0:00:00</t>
+    <t>08.04.2024 0:00:00</t>
   </si>
   <si>
     <t>Астана в Пути</t>
@@ -106,30 +106,6 @@
     <t>Дезинфицирующие таблетки "Ника" Хлор Люкс, 300 шт., 1000 г</t>
   </si>
   <si>
-    <t>101365</t>
-  </si>
-  <si>
-    <t>Средство для дезинфекции и отбеливания "Platinum Sharks" Gold Белизна 25%, канистра, 5000 мл</t>
-  </si>
-  <si>
-    <t>101366</t>
-  </si>
-  <si>
-    <t>Средство для дезинфекции и отбеливания "Platinum Sharks" Gold Белизна 25%, флакон, 1000 мл</t>
-  </si>
-  <si>
-    <t>101367</t>
-  </si>
-  <si>
-    <t>Средство для очистки кухонных плит "Platinum Sharks" D-09 Антижир, триггер, 750 мл</t>
-  </si>
-  <si>
-    <t>101369</t>
-  </si>
-  <si>
-    <t>Средство для мытья посуды "Silver Regular" Лимон, бутылка ПЭТ, 5000 мл</t>
-  </si>
-  <si>
     <t>101680</t>
   </si>
   <si>
@@ -196,12 +172,6 @@
     <t>Контейнер 300 мл, 100х100х49 мм, без окна, без крышки, крафт, карт., 50 шт/упак "OSQ Eco SmartPack</t>
   </si>
   <si>
-    <t>107910</t>
-  </si>
-  <si>
-    <t>Антисептическое средство для рук "Platinum Sharks" Helmet Shark, канистра, 5000 мл</t>
-  </si>
-  <si>
     <t>104965</t>
   </si>
   <si>
@@ -250,6 +220,12 @@
     <t>Трубочки для коктейлей 210 мм, d7 мм, черн., пласт. прямые в инд. упаковке, 500 шт/упак (ООО Экстрал</t>
   </si>
   <si>
+    <t>112338</t>
+  </si>
+  <si>
+    <t>Лоток [короб] для фастфуда 190х85х42 мм, крафт-бел., карт., 400 шт/кор "OSQ" Tray 800 nol</t>
+  </si>
+  <si>
     <t>112340</t>
   </si>
   <si>
@@ -268,6 +244,18 @@
     <t>Коробка для торта 180х180х100 мм, с окном, неразъем.крышка, без руч., бел., карт., 120 шт/кор "Forge</t>
   </si>
   <si>
+    <t>112792</t>
+  </si>
+  <si>
+    <t>Вилка одноразовая 160 мм, бел., ПС, 100 шт/упак (ВЗЛП ООО)</t>
+  </si>
+  <si>
+    <t>112803</t>
+  </si>
+  <si>
+    <t>Средство для мытья пола и твердых поверхностей "Platinum Sharks", канистра, 5000 мл</t>
+  </si>
+  <si>
     <t>113085</t>
   </si>
   <si>
@@ -350,12 +338,6 @@
   </si>
   <si>
     <t>Фольга алюминиевая 44см х 100м, 14 мкм Особо прочная (ООО Металлпейпер-М)</t>
-  </si>
-  <si>
-    <t>109414</t>
-  </si>
-  <si>
-    <t>Мыло жидкое антибактериальное "Silver" Regular, бутылка ПЭТ, 5000 мл</t>
   </si>
 </sst>
 </file>
@@ -493,7 +475,7 @@
     <outlinePr summaryBelow="false" summaryRight="false"/>
     <pageSetUpPr autoPageBreaks="false" fitToPage="true"/>
   </sheetPr>
-  <dimension ref="H51"/>
+  <dimension ref="H48"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0" rightToLeft="false"/>
   </sheetViews>
@@ -727,7 +709,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" ht="23" customHeight="true">
+    <row r="10" ht="11" customHeight="true">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
@@ -740,15 +722,15 @@
       <c r="D10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="4" t="n">
-        <v>1600</v>
+      <c r="E10" s="7" t="n">
+        <v>181.5</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="5" t="e"/>
       <c r="H10" s="6" t="n">
-        <v>14</v>
+        <v>400</v>
       </c>
     </row>
     <row r="11" ht="23" customHeight="true">
@@ -765,14 +747,14 @@
         <v>30</v>
       </c>
       <c r="E11" s="7" t="n">
-        <v>240</v>
+        <v>6.35</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G11" s="5" t="e"/>
-      <c r="H11" s="6" t="n">
-        <v>100</v>
+      <c r="H11" s="8" t="n">
+        <v>15000</v>
       </c>
     </row>
     <row r="12" ht="11" customHeight="true">
@@ -788,15 +770,15 @@
       <c r="D12" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="4" t="n">
-        <v>1000</v>
+      <c r="E12" s="7" t="n">
+        <v>7.57</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G12" s="5" t="e"/>
-      <c r="H12" s="6" t="n">
-        <v>60</v>
+      <c r="H12" s="8" t="n">
+        <v>5000</v>
       </c>
     </row>
     <row r="13" ht="11" customHeight="true">
@@ -813,14 +795,14 @@
         <v>34</v>
       </c>
       <c r="E13" s="7" t="n">
-        <v>850</v>
+        <v>14.75</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="5" t="e"/>
-      <c r="H13" s="6" t="n">
-        <v>80</v>
+      <c r="H13" s="8" t="n">
+        <v>10000</v>
       </c>
     </row>
     <row r="14" ht="11" customHeight="true">
@@ -837,17 +819,17 @@
         <v>36</v>
       </c>
       <c r="E14" s="7" t="n">
-        <v>181.5</v>
+        <v>9.12</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="5" t="e"/>
-      <c r="H14" s="6" t="n">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="15" ht="23" customHeight="true">
+      <c r="H14" s="8" t="n">
+        <v>96000</v>
+      </c>
+    </row>
+    <row r="15" ht="11" customHeight="true">
       <c r="A15" s="3" t="s">
         <v>8</v>
       </c>
@@ -861,17 +843,17 @@
         <v>38</v>
       </c>
       <c r="E15" s="7" t="n">
-        <v>6.35</v>
+        <v>7.04</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G15" s="5" t="e"/>
       <c r="H15" s="8" t="n">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="16" ht="11" customHeight="true">
+        <v>166400</v>
+      </c>
+    </row>
+    <row r="16" ht="23" customHeight="true">
       <c r="A16" s="3" t="s">
         <v>8</v>
       </c>
@@ -885,17 +867,17 @@
         <v>40</v>
       </c>
       <c r="E16" s="7" t="n">
-        <v>7.57</v>
+        <v>42.56</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="5" t="e"/>
       <c r="H16" s="8" t="n">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="17" ht="11" customHeight="true">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="17" ht="23" customHeight="true">
       <c r="A17" s="3" t="s">
         <v>8</v>
       </c>
@@ -909,17 +891,17 @@
         <v>42</v>
       </c>
       <c r="E17" s="7" t="n">
-        <v>14.75</v>
+        <v>42.08</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G17" s="5" t="e"/>
       <c r="H17" s="8" t="n">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="18" ht="11" customHeight="true">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="18" ht="23" customHeight="true">
       <c r="A18" s="3" t="s">
         <v>8</v>
       </c>
@@ -933,14 +915,14 @@
         <v>44</v>
       </c>
       <c r="E18" s="7" t="n">
-        <v>9.12</v>
+        <v>31.43</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G18" s="5" t="e"/>
-      <c r="H18" s="8" t="n">
-        <v>96000</v>
+      <c r="H18" s="6" t="n">
+        <v>300</v>
       </c>
     </row>
     <row r="19" ht="11" customHeight="true">
@@ -957,14 +939,14 @@
         <v>46</v>
       </c>
       <c r="E19" s="7" t="n">
-        <v>7.04</v>
+        <v>5.5</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G19" s="5" t="e"/>
       <c r="H19" s="8" t="n">
-        <v>166400</v>
+        <v>91800</v>
       </c>
     </row>
     <row r="20" ht="23" customHeight="true">
@@ -981,17 +963,17 @@
         <v>48</v>
       </c>
       <c r="E20" s="7" t="n">
-        <v>42.56</v>
+        <v>32.9</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G20" s="5" t="e"/>
-      <c r="H20" s="8" t="n">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="21" ht="23" customHeight="true">
+      <c r="H20" s="6" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="21" ht="11" customHeight="true">
       <c r="A21" s="3" t="s">
         <v>8</v>
       </c>
@@ -1005,14 +987,14 @@
         <v>50</v>
       </c>
       <c r="E21" s="7" t="n">
-        <v>42.08</v>
+        <v>26.86</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G21" s="5" t="e"/>
       <c r="H21" s="8" t="n">
-        <v>1500</v>
+        <v>12900</v>
       </c>
     </row>
     <row r="22" ht="23" customHeight="true">
@@ -1028,18 +1010,18 @@
       <c r="D22" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E22" s="7" t="n">
-        <v>31.43</v>
+      <c r="E22" s="4" t="n">
+        <v>1137.11</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G22" s="5" t="e"/>
       <c r="H22" s="6" t="n">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="23" ht="11" customHeight="true">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" ht="23" customHeight="true">
       <c r="A23" s="3" t="s">
         <v>8</v>
       </c>
@@ -1053,14 +1035,14 @@
         <v>54</v>
       </c>
       <c r="E23" s="7" t="n">
-        <v>5.61</v>
+        <v>827.49</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G23" s="5" t="e"/>
-      <c r="H23" s="8" t="n">
-        <v>91800</v>
+      <c r="H23" s="6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="24" ht="23" customHeight="true">
@@ -1077,17 +1059,17 @@
         <v>56</v>
       </c>
       <c r="E24" s="7" t="n">
-        <v>32.9</v>
+        <v>29.54</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G24" s="5" t="e"/>
       <c r="H24" s="6" t="n">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="25" ht="11" customHeight="true">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="25" ht="23" customHeight="true">
       <c r="A25" s="3" t="s">
         <v>8</v>
       </c>
@@ -1100,18 +1082,18 @@
       <c r="D25" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E25" s="4" t="n">
-        <v>4800</v>
+      <c r="E25" s="7" t="n">
+        <v>11.99</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G25" s="5" t="e"/>
-      <c r="H25" s="6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" ht="11" customHeight="true">
+      <c r="H25" s="8" t="n">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="26" ht="23" customHeight="true">
       <c r="A26" s="3" t="s">
         <v>8</v>
       </c>
@@ -1125,17 +1107,17 @@
         <v>60</v>
       </c>
       <c r="E26" s="7" t="n">
-        <v>26.86</v>
+        <v>62.99</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G26" s="5" t="e"/>
-      <c r="H26" s="8" t="n">
-        <v>12900</v>
-      </c>
-    </row>
-    <row r="27" ht="23" customHeight="true">
+      <c r="H26" s="6" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="27" ht="11" customHeight="true">
       <c r="A27" s="3" t="s">
         <v>8</v>
       </c>
@@ -1148,15 +1130,15 @@
       <c r="D27" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E27" s="4" t="n">
-        <v>1137.11</v>
+      <c r="E27" s="7" t="n">
+        <v>4.5</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G27" s="5" t="e"/>
-      <c r="H27" s="6" t="n">
-        <v>10</v>
+      <c r="H27" s="8" t="n">
+        <v>43000</v>
       </c>
     </row>
     <row r="28" ht="23" customHeight="true">
@@ -1172,15 +1154,15 @@
       <c r="D28" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E28" s="7" t="n">
-        <v>827.49</v>
+      <c r="E28" s="4" t="n">
+        <v>1089.58</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G28" s="5" t="e"/>
       <c r="H28" s="6" t="n">
-        <v>10</v>
+        <v>200</v>
       </c>
     </row>
     <row r="29" ht="23" customHeight="true">
@@ -1197,17 +1179,17 @@
         <v>66</v>
       </c>
       <c r="E29" s="7" t="n">
-        <v>29.54</v>
+        <v>19.85</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G29" s="5" t="e"/>
-      <c r="H29" s="6" t="n">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="30" ht="23" customHeight="true">
+      <c r="H29" s="8" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="30" ht="11" customHeight="true">
       <c r="A30" s="3" t="s">
         <v>8</v>
       </c>
@@ -1221,14 +1203,14 @@
         <v>68</v>
       </c>
       <c r="E30" s="7" t="n">
-        <v>11.99</v>
+        <v>21.58</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G30" s="5" t="e"/>
       <c r="H30" s="8" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="31" ht="23" customHeight="true">
@@ -1245,17 +1227,17 @@
         <v>70</v>
       </c>
       <c r="E31" s="7" t="n">
-        <v>62.99</v>
+        <v>19.96</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G31" s="5" t="e"/>
-      <c r="H31" s="6" t="n">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="32" ht="11" customHeight="true">
+      <c r="H31" s="8" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="32" ht="23" customHeight="true">
       <c r="A32" s="3" t="s">
         <v>8</v>
       </c>
@@ -1269,17 +1251,17 @@
         <v>72</v>
       </c>
       <c r="E32" s="7" t="n">
-        <v>4.5</v>
+        <v>169.33</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G32" s="5" t="e"/>
-      <c r="H32" s="8" t="n">
-        <v>43000</v>
-      </c>
-    </row>
-    <row r="33" ht="23" customHeight="true">
+      <c r="H32" s="6" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="33" ht="11" customHeight="true">
       <c r="A33" s="3" t="s">
         <v>8</v>
       </c>
@@ -1292,18 +1274,18 @@
       <c r="D33" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E33" s="4" t="n">
-        <v>1089.58</v>
+      <c r="E33" s="7" t="n">
+        <v>3.22</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G33" s="5" t="e"/>
-      <c r="H33" s="6" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="34" ht="11" customHeight="true">
+      <c r="H33" s="8" t="n">
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="34" ht="23" customHeight="true">
       <c r="A34" s="3" t="s">
         <v>8</v>
       </c>
@@ -1316,18 +1298,18 @@
       <c r="D34" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E34" s="7" t="n">
-        <v>21.58</v>
+      <c r="E34" s="4" t="n">
+        <v>1000</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G34" s="5" t="e"/>
-      <c r="H34" s="8" t="n">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="35" ht="23" customHeight="true">
+      <c r="H34" s="6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" ht="11" customHeight="true">
       <c r="A35" s="3" t="s">
         <v>8</v>
       </c>
@@ -1340,18 +1322,16 @@
       <c r="D35" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E35" s="7" t="n">
-        <v>19.96</v>
-      </c>
+      <c r="E35" s="3" t="e"/>
       <c r="F35" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G35" s="5" t="e"/>
-      <c r="H35" s="8" t="n">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="36" ht="23" customHeight="true">
+      <c r="H35" s="6" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="36" ht="11" customHeight="true">
       <c r="A36" s="3" t="s">
         <v>8</v>
       </c>
@@ -1365,14 +1345,14 @@
         <v>80</v>
       </c>
       <c r="E36" s="7" t="n">
-        <v>169.33</v>
+        <v>187.07</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G36" s="5" t="e"/>
       <c r="H36" s="6" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37" ht="11" customHeight="true">
@@ -1388,16 +1368,18 @@
       <c r="D37" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E37" s="3" t="e"/>
+      <c r="E37" s="7" t="n">
+        <v>213.11</v>
+      </c>
       <c r="F37" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G37" s="5" t="e"/>
       <c r="H37" s="6" t="n">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="38" ht="11" customHeight="true">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" ht="23" customHeight="true">
       <c r="A38" s="3" t="s">
         <v>8</v>
       </c>
@@ -1411,14 +1393,14 @@
         <v>84</v>
       </c>
       <c r="E38" s="7" t="n">
-        <v>187.07</v>
+        <v>6.93</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G38" s="5" t="e"/>
-      <c r="H38" s="6" t="n">
-        <v>90</v>
+      <c r="H38" s="8" t="n">
+        <v>8000</v>
       </c>
     </row>
     <row r="39" ht="11" customHeight="true">
@@ -1435,14 +1417,14 @@
         <v>86</v>
       </c>
       <c r="E39" s="7" t="n">
-        <v>213.11</v>
+        <v>8.26</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G39" s="5" t="e"/>
-      <c r="H39" s="6" t="n">
-        <v>75</v>
+      <c r="H39" s="8" t="n">
+        <v>13000</v>
       </c>
     </row>
     <row r="40" ht="23" customHeight="true">
@@ -1459,17 +1441,17 @@
         <v>88</v>
       </c>
       <c r="E40" s="7" t="n">
-        <v>6.93</v>
+        <v>283.34</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G40" s="5" t="e"/>
-      <c r="H40" s="8" t="n">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="41" ht="11" customHeight="true">
+      <c r="H40" s="6" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" ht="23" customHeight="true">
       <c r="A41" s="3" t="s">
         <v>8</v>
       </c>
@@ -1483,14 +1465,14 @@
         <v>90</v>
       </c>
       <c r="E41" s="7" t="n">
-        <v>8.26</v>
+        <v>39.86</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G41" s="5" t="e"/>
-      <c r="H41" s="8" t="n">
-        <v>13000</v>
+      <c r="H41" s="6" t="n">
+        <v>960</v>
       </c>
     </row>
     <row r="42" ht="23" customHeight="true">
@@ -1506,15 +1488,15 @@
       <c r="D42" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E42" s="7" t="n">
-        <v>283.34</v>
+      <c r="E42" s="4" t="n">
+        <v>3038.81</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G42" s="5" t="e"/>
       <c r="H42" s="6" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" ht="23" customHeight="true">
@@ -1531,14 +1513,14 @@
         <v>94</v>
       </c>
       <c r="E43" s="7" t="n">
-        <v>39.86</v>
+        <v>8.99</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G43" s="5" t="e"/>
-      <c r="H43" s="6" t="n">
-        <v>960</v>
+      <c r="H43" s="8" t="n">
+        <v>5000</v>
       </c>
     </row>
     <row r="44" ht="23" customHeight="true">
@@ -1554,18 +1536,18 @@
       <c r="D44" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="E44" s="4" t="n">
-        <v>3038.81</v>
+      <c r="E44" s="7" t="n">
+        <v>44.57</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G44" s="5" t="e"/>
       <c r="H44" s="6" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="45" ht="23" customHeight="true">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="45" ht="11" customHeight="true">
       <c r="A45" s="3" t="s">
         <v>8</v>
       </c>
@@ -1579,14 +1561,14 @@
         <v>98</v>
       </c>
       <c r="E45" s="7" t="n">
-        <v>8.99</v>
+        <v>0.99</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G45" s="5" t="e"/>
       <c r="H45" s="8" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="46" ht="23" customHeight="true">
@@ -1603,14 +1585,14 @@
         <v>100</v>
       </c>
       <c r="E46" s="7" t="n">
-        <v>44.57</v>
+        <v>72.19</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G46" s="5" t="e"/>
       <c r="H46" s="6" t="n">
-        <v>225</v>
+        <v>175</v>
       </c>
     </row>
     <row r="47" ht="11" customHeight="true">
@@ -1627,17 +1609,17 @@
         <v>102</v>
       </c>
       <c r="E47" s="7" t="n">
-        <v>0.99</v>
+        <v>334.15</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G47" s="5" t="e"/>
-      <c r="H47" s="8" t="n">
-        <v>18000</v>
-      </c>
-    </row>
-    <row r="48" ht="23" customHeight="true">
+      <c r="H47" s="6" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48" ht="11" customHeight="true">
       <c r="A48" s="3" t="s">
         <v>8</v>
       </c>
@@ -1650,87 +1632,15 @@
       <c r="D48" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="E48" s="7" t="n">
-        <v>72.19</v>
+      <c r="E48" s="4" t="n">
+        <v>3704.8</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G48" s="5" t="e"/>
       <c r="H48" s="6" t="n">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="49" ht="11" customHeight="true">
-      <c r="A49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E49" s="7" t="n">
-        <v>334.15</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G49" s="5" t="e"/>
-      <c r="H49" s="6" t="n">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="50" ht="11" customHeight="true">
-      <c r="A50" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E50" s="4" t="n">
-        <v>3704.8</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G50" s="5" t="e"/>
-      <c r="H50" s="6" t="n">
         <v>56</v>
-      </c>
-    </row>
-    <row r="51" ht="11" customHeight="true">
-      <c r="A51" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="E51" s="7" t="n">
-        <v>810</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G51" s="5" t="e"/>
-      <c r="H51" s="6" t="n">
-        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/data/В пути АСТ.xlsx
+++ b/data/В пути АСТ.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>Дата</t>
   </si>
@@ -49,7 +49,7 @@
     <t>Кон ост</t>
   </si>
   <si>
-    <t>12.04.2024 0:00:00</t>
+    <t>18.04.2024 0:00:00</t>
   </si>
   <si>
     <t>Астана в Пути</t>
@@ -70,12 +70,24 @@
     <t>Коробка для пиццы 330х330х40 мм, бел., микрогофрокарт.Т-11 Е, 50 шт/кор (OOO КТК)</t>
   </si>
   <si>
+    <t>100629</t>
+  </si>
+  <si>
+    <t>Полотенца бумажные для диспенсеров 230х210 мм 1-сл. Z-сложен., бел., 200 лист/упак "Терес"</t>
+  </si>
+  <si>
     <t>100665</t>
   </si>
   <si>
     <t>Пленка пищевая 300мм х 200м 7 мкм, прозр., ПЭ (ООО ДПЗ)</t>
   </si>
   <si>
+    <t>432250</t>
+  </si>
+  <si>
+    <t>Халат р-р 48-50, 30 гр/м2, бел., нетк. мат-л СМС, 5 шт/упак (ООО Профи Ти)</t>
+  </si>
+  <si>
     <t>101043</t>
   </si>
   <si>
@@ -88,12 +100,30 @@
     <t>Мешок для мусора 180 л, [70+20]х110 см Суперпрочный, черн., ПВД, 10 шт/рул (ООО Техинвест Плюс)</t>
   </si>
   <si>
+    <t>847281</t>
+  </si>
+  <si>
+    <t>Средство для мытья пароконвектоматов "Pro-Brite" Strong, концентрат, канистра, 5000 мл</t>
+  </si>
+  <si>
+    <t>847282</t>
+  </si>
+  <si>
+    <t>Средство для ополаскивания пароконвектоматов "Pro-Brite" Rinser, канистра, 5000 мл</t>
+  </si>
+  <si>
     <t>101913</t>
   </si>
   <si>
     <t>Шапочка "Шарлотта", бел., неткан. мат-л, 100 шт/упак (ООО Оптитрейд)</t>
   </si>
   <si>
+    <t>270127</t>
+  </si>
+  <si>
+    <t>Бумага для выпечки силикон. в рулоне 380мм х 50м, коричн. "Nordic EBG"</t>
+  </si>
+  <si>
     <t>100295</t>
   </si>
   <si>
@@ -124,6 +154,12 @@
     <t>Ложка одноразовая 165 мм, бел., ПС, 100 шт/упак "МИСТЕРИЯ"</t>
   </si>
   <si>
+    <t>120100</t>
+  </si>
+  <si>
+    <t>Тарелка одноразовая мелкая d205 мм, бел., ПС, 100 шт/упак "МИСТЕРИЯ"</t>
+  </si>
+  <si>
     <t>123250</t>
   </si>
   <si>
@@ -154,12 +190,24 @@
     <t>Крышка к контейнеру для суши "Витрина" 220х148х40 мм, прозр., ОПС, 540 шт/кор "Kado-Prim"</t>
   </si>
   <si>
+    <t>253029</t>
+  </si>
+  <si>
+    <t>Крышка к контейнеру для суши 188х133х32 мм, прозр., ПЭТ, 420 шт/кор "ПолиЭр"</t>
+  </si>
+  <si>
     <t>260359</t>
   </si>
   <si>
     <t>Контейнер для суши "Витрина" 3-секц. 220х148х40 мм, без крышки, черн., ПС, 540 шт/кор "Kado-Prim"</t>
   </si>
   <si>
+    <t>253028</t>
+  </si>
+  <si>
+    <t>Контейнер для суши 1-секц. 188х133х30 мм, без крышки, черн., ПЭТ, 420 шт/кор "ПолиЭр"</t>
+  </si>
+  <si>
     <t>106101</t>
   </si>
   <si>
@@ -172,24 +220,102 @@
     <t>Антисептическое средство для рук "Platinum Sharks" Helmet Shark, канистра, 5000 мл</t>
   </si>
   <si>
+    <t>105850</t>
+  </si>
+  <si>
+    <t>Пакет на вынос [260+130]х320 мм M без ручек, бел., бум., 750 шт/кор (ТОО Классика)</t>
+  </si>
+  <si>
+    <t>104164</t>
+  </si>
+  <si>
+    <t>Пакет "майка" для пиццы [240+180]х500 мм 14 мкм, прозр., ПНД, 100 шт/упак (ИП Морозов Я.В)</t>
+  </si>
+  <si>
     <t>345044</t>
   </si>
   <si>
     <t>Размешиватель 140 мм, древ. волокно, 500 шт/упак (ООО Компания Лемио)</t>
   </si>
   <si>
+    <t>104738</t>
+  </si>
+  <si>
+    <t>Пакет Doy Pack 160х250 мм без окна, крафт, бум., 50 шт/упак (ООО Витон)</t>
+  </si>
+  <si>
+    <t>107695</t>
+  </si>
+  <si>
+    <t>Контейнер 500 мл 1-секц. d115хh82,6 мм, без крышки, черн., ПП, 50 шт/упак (ООО Д-Полимер)</t>
+  </si>
+  <si>
+    <t>160501</t>
+  </si>
+  <si>
+    <t>Крышка к контейнеру d115хh8 мм, прозр., ПП, 50 шт/упак (ООО Д-Полимер)</t>
+  </si>
+  <si>
+    <t>106841</t>
+  </si>
+  <si>
+    <t>Коробка для кондит. изделий 180х55х55 мм, с окном, неразъем.крышка, крафт-бел., карт., 50 шт/упак "O</t>
+  </si>
+  <si>
+    <t>112698</t>
+  </si>
+  <si>
+    <t>Бумага для выпечки силикон. в рулоне 380мм х 50м, бел. "Nordic EBG"</t>
+  </si>
+  <si>
+    <t>112884</t>
+  </si>
+  <si>
+    <t>Средство для мытья стекол и зеркал "Platinum Sharks" Silver Glass, триггер, 750 мл</t>
+  </si>
+  <si>
     <t>113602</t>
   </si>
   <si>
     <t>Размешиватель 170 мм, инд. упак., бамбук, 250 шт/упак "GREEN MYSTERY"</t>
   </si>
   <si>
+    <t>114029</t>
+  </si>
+  <si>
+    <t>Мешок кондитерский в рулоне 1-сл., 61 см, 90 мкм, прозр., ПЭ, 100 шт/рул (ООО Компания Лемио)</t>
+  </si>
+  <si>
+    <t>114503</t>
+  </si>
+  <si>
+    <t>Пакет пищевой [140+60]х250 мм без руч., с окном, бел, бум., 3000 шт/кор (ООО Тек-Пак)</t>
+  </si>
+  <si>
     <t>114506</t>
   </si>
   <si>
     <t>Коробка для бургера [бургербокс] 120х120х70 мм, L, крафт-бел., карт., 60 шт/упак "OSQ"</t>
   </si>
   <si>
+    <t>114953</t>
+  </si>
+  <si>
+    <t>Стакан бумажный 400 мл 1 сл., d90 мм, сине-фиолет., карт., 50 шт/упак (ООО Паперскоп Рус)</t>
+  </si>
+  <si>
+    <t>115177</t>
+  </si>
+  <si>
+    <t>Пакет пищевой [90+40]х205 мм без руч., без окна, бел., бум., 1600 шт/кор (ООО Тек-Пак)</t>
+  </si>
+  <si>
+    <t>116051</t>
+  </si>
+  <si>
+    <t>Сода кальцинированная, 600 г (ООО Бионикс)</t>
+  </si>
+  <si>
     <t>116073</t>
   </si>
   <si>
@@ -200,6 +326,18 @@
   </si>
   <si>
     <t>Перчатки латексные, р-р L, с хлопк. напылен., желт., 1 пар/упак "Aviora"</t>
+  </si>
+  <si>
+    <t>116264</t>
+  </si>
+  <si>
+    <t>Стакан бумажный 400 мл 1 сл., d90 мм, желт., карт., 50 шт/упак (ООО Паперскоп Рус)</t>
+  </si>
+  <si>
+    <t>108353</t>
+  </si>
+  <si>
+    <t>Перчатки нитяные, 4 нит., 10 кл., бел., Х/Б, 1 пар/упак (ООО Лидертекс)</t>
   </si>
   <si>
     <t>451356</t>
@@ -349,7 +487,7 @@
     <outlinePr summaryBelow="false" summaryRight="false"/>
     <pageSetUpPr autoPageBreaks="false" fitToPage="true"/>
   </sheetPr>
-  <dimension ref="H27"/>
+  <dimension ref="H50"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0" rightToLeft="false"/>
   </sheetViews>
@@ -439,7 +577,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="4" ht="11" customHeight="true">
+    <row r="4" ht="23" customHeight="true">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -453,14 +591,14 @@
         <v>16</v>
       </c>
       <c r="E4" s="7" t="n">
-        <v>241.79</v>
+        <v>295.25</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="5" t="e"/>
       <c r="H4" s="6" t="n">
-        <v>15</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" ht="11" customHeight="true">
@@ -477,17 +615,17 @@
         <v>18</v>
       </c>
       <c r="E5" s="7" t="n">
-        <v>53.77</v>
+        <v>241.79</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="5" t="e"/>
       <c r="H5" s="6" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" ht="23" customHeight="true">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" ht="11" customHeight="true">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -500,15 +638,15 @@
       <c r="D6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="7" t="n">
-        <v>421.91</v>
+      <c r="E6" s="4" t="n">
+        <v>1508.42</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="5" t="e"/>
       <c r="H6" s="6" t="n">
-        <v>125</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" ht="11" customHeight="true">
@@ -525,14 +663,14 @@
         <v>22</v>
       </c>
       <c r="E7" s="7" t="n">
-        <v>609.17</v>
+        <v>53.77</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="5" t="e"/>
       <c r="H7" s="6" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" ht="23" customHeight="true">
@@ -549,14 +687,14 @@
         <v>24</v>
       </c>
       <c r="E8" s="7" t="n">
-        <v>415</v>
+        <v>421.91</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="5" t="e"/>
       <c r="H8" s="6" t="n">
-        <v>10</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" ht="23" customHeight="true">
@@ -572,18 +710,18 @@
       <c r="D9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="7" t="n">
-        <v>6.35</v>
+      <c r="E9" s="4" t="n">
+        <v>5003.67</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="5" t="e"/>
-      <c r="H9" s="8" t="n">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="10" ht="11" customHeight="true">
+      <c r="H9" s="6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" ht="23" customHeight="true">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
@@ -596,15 +734,15 @@
       <c r="D10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="7" t="n">
-        <v>14.75</v>
+      <c r="E10" s="4" t="n">
+        <v>2773.77</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="5" t="e"/>
-      <c r="H10" s="8" t="n">
-        <v>15000</v>
+      <c r="H10" s="6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="11" ht="11" customHeight="true">
@@ -621,14 +759,14 @@
         <v>30</v>
       </c>
       <c r="E11" s="7" t="n">
-        <v>3.13</v>
+        <v>609.17</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G11" s="5" t="e"/>
-      <c r="H11" s="8" t="n">
-        <v>140000</v>
+      <c r="H11" s="6" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="12" ht="11" customHeight="true">
@@ -644,18 +782,18 @@
       <c r="D12" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="7" t="n">
-        <v>4.2</v>
+      <c r="E12" s="4" t="n">
+        <v>1195.54</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G12" s="5" t="e"/>
-      <c r="H12" s="8" t="n">
-        <v>70000</v>
-      </c>
-    </row>
-    <row r="13" ht="11" customHeight="true">
+      <c r="H12" s="6" t="n">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="13" ht="23" customHeight="true">
       <c r="A13" s="3" t="s">
         <v>8</v>
       </c>
@@ -669,17 +807,17 @@
         <v>34</v>
       </c>
       <c r="E13" s="7" t="n">
-        <v>7.04</v>
+        <v>415</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="5" t="e"/>
-      <c r="H13" s="8" t="n">
-        <v>32000</v>
-      </c>
-    </row>
-    <row r="14" ht="11" customHeight="true">
+      <c r="H13" s="6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" ht="23" customHeight="true">
       <c r="A14" s="3" t="s">
         <v>8</v>
       </c>
@@ -693,17 +831,17 @@
         <v>36</v>
       </c>
       <c r="E14" s="7" t="n">
-        <v>9.34</v>
+        <v>6.35</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="5" t="e"/>
       <c r="H14" s="8" t="n">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="15" ht="23" customHeight="true">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="15" ht="11" customHeight="true">
       <c r="A15" s="3" t="s">
         <v>8</v>
       </c>
@@ -717,17 +855,17 @@
         <v>38</v>
       </c>
       <c r="E15" s="7" t="n">
-        <v>42.56</v>
+        <v>14.75</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G15" s="5" t="e"/>
       <c r="H15" s="8" t="n">
-        <v>7500</v>
-      </c>
-    </row>
-    <row r="16" ht="23" customHeight="true">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="16" ht="11" customHeight="true">
       <c r="A16" s="3" t="s">
         <v>8</v>
       </c>
@@ -741,17 +879,17 @@
         <v>40</v>
       </c>
       <c r="E16" s="7" t="n">
-        <v>42.08</v>
+        <v>3.13</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="5" t="e"/>
       <c r="H16" s="8" t="n">
-        <v>7500</v>
-      </c>
-    </row>
-    <row r="17" ht="23" customHeight="true">
+        <v>280000</v>
+      </c>
+    </row>
+    <row r="17" ht="11" customHeight="true">
       <c r="A17" s="3" t="s">
         <v>8</v>
       </c>
@@ -765,17 +903,17 @@
         <v>42</v>
       </c>
       <c r="E17" s="7" t="n">
-        <v>23</v>
+        <v>4.2</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G17" s="5" t="e"/>
       <c r="H17" s="8" t="n">
-        <v>5400</v>
-      </c>
-    </row>
-    <row r="18" ht="23" customHeight="true">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="18" ht="11" customHeight="true">
       <c r="A18" s="3" t="s">
         <v>8</v>
       </c>
@@ -789,17 +927,17 @@
         <v>44</v>
       </c>
       <c r="E18" s="7" t="n">
-        <v>24.98</v>
+        <v>9.12</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G18" s="5" t="e"/>
       <c r="H18" s="8" t="n">
-        <v>5400</v>
-      </c>
-    </row>
-    <row r="19" ht="23" customHeight="true">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="19" ht="11" customHeight="true">
       <c r="A19" s="3" t="s">
         <v>8</v>
       </c>
@@ -813,14 +951,14 @@
         <v>46</v>
       </c>
       <c r="E19" s="7" t="n">
-        <v>5.11</v>
+        <v>7.04</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G19" s="5" t="e"/>
       <c r="H19" s="8" t="n">
-        <v>3000</v>
+        <v>32000</v>
       </c>
     </row>
     <row r="20" ht="11" customHeight="true">
@@ -836,18 +974,18 @@
       <c r="D20" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E20" s="4" t="n">
-        <v>4800</v>
+      <c r="E20" s="7" t="n">
+        <v>9.34</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G20" s="5" t="e"/>
-      <c r="H20" s="6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" ht="11" customHeight="true">
+      <c r="H20" s="8" t="n">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="21" ht="23" customHeight="true">
       <c r="A21" s="3" t="s">
         <v>8</v>
       </c>
@@ -861,17 +999,17 @@
         <v>50</v>
       </c>
       <c r="E21" s="7" t="n">
-        <v>1.13</v>
+        <v>42.56</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G21" s="5" t="e"/>
       <c r="H21" s="8" t="n">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="22" ht="11" customHeight="true">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="22" ht="23" customHeight="true">
       <c r="A22" s="3" t="s">
         <v>8</v>
       </c>
@@ -884,13 +1022,15 @@
       <c r="D22" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E22" s="3" t="e"/>
+      <c r="E22" s="7" t="n">
+        <v>42.08</v>
+      </c>
       <c r="F22" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G22" s="5" t="e"/>
       <c r="H22" s="8" t="n">
-        <v>30000</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="23" ht="23" customHeight="true">
@@ -907,14 +1047,14 @@
         <v>54</v>
       </c>
       <c r="E23" s="7" t="n">
-        <v>25.55</v>
+        <v>23</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G23" s="5" t="e"/>
       <c r="H23" s="8" t="n">
-        <v>1200</v>
+        <v>5400</v>
       </c>
     </row>
     <row r="24" ht="11" customHeight="true">
@@ -931,17 +1071,17 @@
         <v>56</v>
       </c>
       <c r="E24" s="7" t="n">
-        <v>222</v>
+        <v>21.34</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G24" s="5" t="e"/>
-      <c r="H24" s="6" t="n">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="25" ht="11" customHeight="true">
+      <c r="H24" s="8" t="n">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="25" ht="23" customHeight="true">
       <c r="A25" s="3" t="s">
         <v>8</v>
       </c>
@@ -955,14 +1095,14 @@
         <v>58</v>
       </c>
       <c r="E25" s="7" t="n">
-        <v>222</v>
+        <v>24.98</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G25" s="5" t="e"/>
-      <c r="H25" s="6" t="n">
-        <v>120</v>
+      <c r="H25" s="8" t="n">
+        <v>5400</v>
       </c>
     </row>
     <row r="26" ht="23" customHeight="true">
@@ -979,17 +1119,17 @@
         <v>60</v>
       </c>
       <c r="E26" s="7" t="n">
-        <v>970.77</v>
+        <v>18.38</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G26" s="5" t="e"/>
-      <c r="H26" s="6" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" ht="11" customHeight="true">
+      <c r="H26" s="8" t="n">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="27" ht="23" customHeight="true">
       <c r="A27" s="3" t="s">
         <v>8</v>
       </c>
@@ -1003,13 +1143,563 @@
         <v>62</v>
       </c>
       <c r="E27" s="7" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="5" t="e"/>
+      <c r="H27" s="8" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="28" ht="11" customHeight="true">
+      <c r="A28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="4" t="n">
+        <v>4800</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="5" t="e"/>
+      <c r="H28" s="6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" ht="11" customHeight="true">
+      <c r="A29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E29" s="7" t="n">
+        <v>62</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="5" t="e"/>
+      <c r="H29" s="8" t="n">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="30" ht="23" customHeight="true">
+      <c r="A30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E30" s="7" t="n">
+        <v>827.49</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="5" t="e"/>
+      <c r="H30" s="6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" ht="11" customHeight="true">
+      <c r="A31" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E31" s="7" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="5" t="e"/>
+      <c r="H31" s="8" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="32" ht="11" customHeight="true">
+      <c r="A32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E32" s="7" t="n">
+        <v>79.05</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" s="5" t="e"/>
+      <c r="H32" s="8" t="n">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="33" ht="23" customHeight="true">
+      <c r="A33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E33" s="7" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" s="5" t="e"/>
+      <c r="H33" s="8" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="34" ht="11" customHeight="true">
+      <c r="A34" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E34" s="7" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="5" t="e"/>
+      <c r="H34" s="8" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="35" ht="23" customHeight="true">
+      <c r="A35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E35" s="7" t="n">
+        <v>44.58</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" s="5" t="e"/>
+      <c r="H35" s="8" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="36" ht="11" customHeight="true">
+      <c r="A36" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E36" s="4" t="n">
+        <v>1143.61</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" s="5" t="e"/>
+      <c r="H36" s="6" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" ht="11" customHeight="true">
+      <c r="A37" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E37" s="7" t="n">
+        <v>430</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" s="5" t="e"/>
+      <c r="H37" s="6" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" ht="11" customHeight="true">
+      <c r="A38" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E38" s="7" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" s="5" t="e"/>
+      <c r="H38" s="8" t="n">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="39" ht="23" customHeight="true">
+      <c r="A39" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E39" s="4" t="n">
+        <v>3298.53</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" s="5" t="e"/>
+      <c r="H39" s="6" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="40" ht="23" customHeight="true">
+      <c r="A40" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E40" s="7" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" s="5" t="e"/>
+      <c r="H40" s="8" t="n">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="41" ht="23" customHeight="true">
+      <c r="A41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E41" s="7" t="n">
+        <v>25.55</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" s="5" t="e"/>
+      <c r="H41" s="8" t="n">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="42" ht="23" customHeight="true">
+      <c r="A42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E42" s="7" t="n">
+        <v>17.82</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" s="5" t="e"/>
+      <c r="H42" s="8" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="43" ht="23" customHeight="true">
+      <c r="A43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E43" s="7" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" s="5" t="e"/>
+      <c r="H43" s="8" t="n">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="44" ht="11" customHeight="true">
+      <c r="A44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E44" s="7" t="n">
+        <v>138.42</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44" s="5" t="e"/>
+      <c r="H44" s="6" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" ht="11" customHeight="true">
+      <c r="A45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E45" s="7" t="n">
+        <v>222</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45" s="5" t="e"/>
+      <c r="H45" s="6" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="46" ht="11" customHeight="true">
+      <c r="A46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E46" s="7" t="n">
+        <v>222</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" s="5" t="e"/>
+      <c r="H46" s="6" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="47" ht="11" customHeight="true">
+      <c r="A47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E47" s="3" t="e"/>
+      <c r="F47" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" s="5" t="e"/>
+      <c r="H47" s="8" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="48" ht="11" customHeight="true">
+      <c r="A48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E48" s="7" t="n">
+        <v>57.95</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G48" s="5" t="e"/>
+      <c r="H48" s="8" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="49" ht="23" customHeight="true">
+      <c r="A49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E49" s="7" t="n">
+        <v>970.77</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49" s="5" t="e"/>
+      <c r="H49" s="6" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" ht="11" customHeight="true">
+      <c r="A50" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E50" s="7" t="n">
         <v>84.5</v>
       </c>
-      <c r="F27" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" s="5" t="e"/>
-      <c r="H27" s="6" t="n">
+      <c r="F50" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" s="5" t="e"/>
+      <c r="H50" s="6" t="n">
         <v>240</v>
       </c>
     </row>

--- a/data/В пути АСТ.xlsx
+++ b/data/В пути АСТ.xlsx
@@ -49,7 +49,7 @@
     <t>Кон ост</t>
   </si>
   <si>
-    <t>18.04.2024 0:00:00</t>
+    <t>22.04.2024 0:00:00</t>
   </si>
   <si>
     <t>Астана в Пути</t>

--- a/data/В пути АСТ.xlsx
+++ b/data/В пути АСТ.xlsx
@@ -49,7 +49,7 @@
     <t>Кон ост</t>
   </si>
   <si>
-    <t>22.04.2024 0:00:00</t>
+    <t>25.04.2024 0:00:00</t>
   </si>
   <si>
     <t>Астана в Пути</t>

--- a/data/В пути АСТ.xlsx
+++ b/data/В пути АСТ.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <si>
     <t>Дата</t>
   </si>
@@ -49,37 +49,25 @@
     <t>Кон ост</t>
   </si>
   <si>
-    <t>25.04.2024 0:00:00</t>
+    <t>26.04.2024 0:00:00</t>
   </si>
   <si>
     <t>Астана в Пути</t>
   </si>
   <si>
-    <t>337433</t>
-  </si>
-  <si>
-    <t>Свечи чайные в гильзе d38хh16 мм, без дизайна, бел., 100 шт/упак "Textop"</t>
+    <t>218531</t>
+  </si>
+  <si>
+    <t>Фольга алюминиевая 44см х 100м, 10 мкм Стандартная (ООО Металлпейпер-М)</t>
   </si>
   <si>
     <t>Нет</t>
   </si>
   <si>
-    <t>101228</t>
-  </si>
-  <si>
-    <t>Коробка для пиццы 330х330х40 мм, бел., микрогофрокарт.Т-11 Е, 50 шт/кор (OOO КТК)</t>
-  </si>
-  <si>
-    <t>100629</t>
-  </si>
-  <si>
-    <t>Полотенца бумажные для диспенсеров 230х210 мм 1-сл. Z-сложен., бел., 200 лист/упак "Терес"</t>
-  </si>
-  <si>
-    <t>100665</t>
-  </si>
-  <si>
-    <t>Пленка пищевая 300мм х 200м 7 мкм, прозр., ПЭ (ООО ДПЗ)</t>
+    <t>103896</t>
+  </si>
+  <si>
+    <t>Салфетки 250х250 мм 1-сл., бел., бум., 100 шт/упак (ИП Головкин С.В.)</t>
   </si>
   <si>
     <t>432250</t>
@@ -88,10 +76,10 @@
     <t>Халат р-р 48-50, 30 гр/м2, бел., нетк. мат-л СМС, 5 шт/упак (ООО Профи Ти)</t>
   </si>
   <si>
-    <t>101043</t>
-  </si>
-  <si>
-    <t>Палочки для шашлыка 200 мм, d2,5 мм, бамбук, 100 шт/упак "GREEN MYSTERY"</t>
+    <t>102185</t>
+  </si>
+  <si>
+    <t>Мешок для мусора 120 л, [50+20]х110 см Суперпрочный, черн., ПВД, 10 шт/рул (ООО Техинвест Плюс)</t>
   </si>
   <si>
     <t>102186</t>
@@ -100,46 +88,16 @@
     <t>Мешок для мусора 180 л, [70+20]х110 см Суперпрочный, черн., ПВД, 10 шт/рул (ООО Техинвест Плюс)</t>
   </si>
   <si>
-    <t>847281</t>
-  </si>
-  <si>
-    <t>Средство для мытья пароконвектоматов "Pro-Brite" Strong, концентрат, канистра, 5000 мл</t>
-  </si>
-  <si>
-    <t>847282</t>
-  </si>
-  <si>
-    <t>Средство для ополаскивания пароконвектоматов "Pro-Brite" Rinser, канистра, 5000 мл</t>
-  </si>
-  <si>
-    <t>101913</t>
-  </si>
-  <si>
-    <t>Шапочка "Шарлотта", бел., неткан. мат-л, 100 шт/упак (ООО Оптитрейд)</t>
-  </si>
-  <si>
     <t>270127</t>
   </si>
   <si>
     <t>Бумага для выпечки силикон. в рулоне 380мм х 50м, коричн. "Nordic EBG"</t>
   </si>
   <si>
-    <t>100295</t>
-  </si>
-  <si>
-    <t>Полотенца бумажные для диспенсеров 230х210 мм 2-сл. Z-сложен. бел., 200 лист/упак (LUX Кагаз)</t>
-  </si>
-  <si>
-    <t>107440</t>
-  </si>
-  <si>
-    <t>Крышка для стакана d95 мм куполообразная с отверстием, прозр., ПЭТ, 50 шт/упак "Upax-Unity"</t>
-  </si>
-  <si>
-    <t>115417</t>
-  </si>
-  <si>
-    <t>Стакан-шейкер одноразовый 300 мл, прозр., ПЭТ, 50 шт/упак "Upax-Unity"</t>
+    <t>102855</t>
+  </si>
+  <si>
+    <t>Держатель для стаканов 2 яч. 108х193х42 мм, сер., карт., 150 шт/кор (ОАО СОЭМЗ)</t>
   </si>
   <si>
     <t>140080</t>
@@ -148,10 +106,16 @@
     <t>Вилка одноразовая 165 мм, бел., ПС, 100 шт/упак "МИСТЕРИЯ"</t>
   </si>
   <si>
-    <t>141080</t>
-  </si>
-  <si>
-    <t>Ложка одноразовая 165 мм, бел., ПС, 100 шт/упак "МИСТЕРИЯ"</t>
+    <t>143080</t>
+  </si>
+  <si>
+    <t>Ложка одноразовая 125 мм, бел., ПС, 100 шт/упак "МИСТЕРИЯ"</t>
+  </si>
+  <si>
+    <t>103523</t>
+  </si>
+  <si>
+    <t>Средство для мытья и осветления посуды "Pro-Brite" Bel, концентрат, канистра, 5000 мл</t>
   </si>
   <si>
     <t>120100</t>
@@ -160,70 +124,40 @@
     <t>Тарелка одноразовая мелкая d205 мм, бел., ПС, 100 шт/упак "МИСТЕРИЯ"</t>
   </si>
   <si>
-    <t>123250</t>
-  </si>
-  <si>
-    <t>Тарелка одноразовая мелкая d167 мм, бел., ПС, 100 шт/упак "МИСТЕРИЯ"</t>
-  </si>
-  <si>
     <t>121490</t>
   </si>
   <si>
     <t>Тарелка одноразовая глубокая 475 мл, d153 мм, бел., ПП, 50 шт/упак "МИСТЕРИЯ"</t>
   </si>
   <si>
-    <t>107208</t>
-  </si>
-  <si>
-    <t>Контейнер 800[500+2х150] мл 3-секц., овал 257х202х37 мм, без крышки, черн., ПП, 30 шт/упак "ПолиЭр"</t>
-  </si>
-  <si>
-    <t>102910</t>
-  </si>
-  <si>
-    <t>Крышка к контейнеру купол. 3-секц. овал 257х202х35 мм, прозр., ПП, 30 шт/упак "ПолиЭр"</t>
-  </si>
-  <si>
-    <t>260360</t>
-  </si>
-  <si>
-    <t>Крышка к контейнеру для суши "Витрина" 220х148х40 мм, прозр., ОПС, 540 шт/кор "Kado-Prim"</t>
-  </si>
-  <si>
-    <t>253029</t>
-  </si>
-  <si>
-    <t>Крышка к контейнеру для суши 188х133х32 мм, прозр., ПЭТ, 420 шт/кор "ПолиЭр"</t>
-  </si>
-  <si>
-    <t>260359</t>
-  </si>
-  <si>
-    <t>Контейнер для суши "Витрина" 3-секц. 220х148х40 мм, без крышки, черн., ПС, 540 шт/кор "Kado-Prim"</t>
-  </si>
-  <si>
-    <t>253028</t>
-  </si>
-  <si>
-    <t>Контейнер для суши 1-секц. 188х133х30 мм, без крышки, черн., ПЭТ, 420 шт/кор "ПолиЭр"</t>
-  </si>
-  <si>
-    <t>106101</t>
-  </si>
-  <si>
-    <t>Упаковка для бургера типа "Уголок" 170х150 мм, диз. "Food`корт", разноцв., бум., 1000 шт/кор (ООО Фл</t>
-  </si>
-  <si>
-    <t>107910</t>
-  </si>
-  <si>
-    <t>Антисептическое средство для рук "Platinum Sharks" Helmet Shark, канистра, 5000 мл</t>
-  </si>
-  <si>
-    <t>105850</t>
-  </si>
-  <si>
-    <t>Пакет на вынос [260+130]х320 мм M без ручек, бел., бум., 750 шт/кор (ТОО Классика)</t>
+    <t>105982</t>
+  </si>
+  <si>
+    <t>Трубочки для коктейлей 210 мм, d5 мм, черн., пласт. с гофроизгибом, 250 шт/упак (ООО Экстралайн)</t>
+  </si>
+  <si>
+    <t>159500</t>
+  </si>
+  <si>
+    <t>Крышка к контейнеру d115хh8 мм, прозр., ПП, 50 шт/упак "ПолиЭр"</t>
+  </si>
+  <si>
+    <t>501323</t>
+  </si>
+  <si>
+    <t>Комплект столовых приборов №3 [лож.ст.+ вил.: 165 мм, бел., ПС+ салф.], 300 шт/кор</t>
+  </si>
+  <si>
+    <t>504283</t>
+  </si>
+  <si>
+    <t>Крышка для формы алюм. 310х251,4 мм, карт.фольг., 100 шт/упак (ООО Ламкарт)</t>
+  </si>
+  <si>
+    <t>105505</t>
+  </si>
+  <si>
+    <t>Форма алюминиевая 1-секц. 3100 мл 320х260х50 мм, без крышки, алюм., 50 шт/упак (ООО ПК Студиопак)</t>
   </si>
   <si>
     <t>104164</t>
@@ -232,12 +166,6 @@
     <t>Пакет "майка" для пиццы [240+180]х500 мм 14 мкм, прозр., ПНД, 100 шт/упак (ИП Морозов Я.В)</t>
   </si>
   <si>
-    <t>345044</t>
-  </si>
-  <si>
-    <t>Размешиватель 140 мм, древ. волокно, 500 шт/упак (ООО Компания Лемио)</t>
-  </si>
-  <si>
     <t>104738</t>
   </si>
   <si>
@@ -256,10 +184,10 @@
     <t>Крышка к контейнеру d115хh8 мм, прозр., ПП, 50 шт/упак (ООО Д-Полимер)</t>
   </si>
   <si>
-    <t>106841</t>
-  </si>
-  <si>
-    <t>Коробка для кондит. изделий 180х55х55 мм, с окном, неразъем.крышка, крафт-бел., карт., 50 шт/упак "O</t>
+    <t>112308</t>
+  </si>
+  <si>
+    <t>Пакет вакуум. 160х250 мм 70 мкм, прозр., ПЭТ/ПЭ, 200 шт/упак (ООО ТК Тасма)</t>
   </si>
   <si>
     <t>112698</t>
@@ -268,46 +196,46 @@
     <t>Бумага для выпечки силикон. в рулоне 380мм х 50м, бел. "Nordic EBG"</t>
   </si>
   <si>
-    <t>112884</t>
-  </si>
-  <si>
-    <t>Средство для мытья стекол и зеркал "Platinum Sharks" Silver Glass, триггер, 750 мл</t>
-  </si>
-  <si>
-    <t>113602</t>
-  </si>
-  <si>
-    <t>Размешиватель 170 мм, инд. упак., бамбук, 250 шт/упак "GREEN MYSTERY"</t>
-  </si>
-  <si>
-    <t>114029</t>
-  </si>
-  <si>
-    <t>Мешок кондитерский в рулоне 1-сл., 61 см, 90 мкм, прозр., ПЭ, 100 шт/рул (ООО Компания Лемио)</t>
-  </si>
-  <si>
-    <t>114503</t>
-  </si>
-  <si>
-    <t>Пакет пищевой [140+60]х250 мм без руч., с окном, бел, бум., 3000 шт/кор (ООО Тек-Пак)</t>
-  </si>
-  <si>
-    <t>114506</t>
-  </si>
-  <si>
-    <t>Коробка для бургера [бургербокс] 120х120х70 мм, L, крафт-бел., карт., 60 шт/упак "OSQ"</t>
-  </si>
-  <si>
-    <t>114953</t>
-  </si>
-  <si>
-    <t>Стакан бумажный 400 мл 1 сл., d90 мм, сине-фиолет., карт., 50 шт/упак (ООО Паперскоп Рус)</t>
-  </si>
-  <si>
-    <t>115177</t>
-  </si>
-  <si>
-    <t>Пакет пищевой [90+40]х205 мм без руч., без окна, бел., бум., 1600 шт/кор (ООО Тек-Пак)</t>
+    <t>113845</t>
+  </si>
+  <si>
+    <t>Освежитель воздуха "Flower shop" Морские минералы, аэрозоль, 300 мл</t>
+  </si>
+  <si>
+    <t>114030</t>
+  </si>
+  <si>
+    <t>Мешок кондитерский в рулоне 3-сл., 55 см, 75 мкм, син., ПЭ, 100 шт/рул (ООО Компания Лемио)</t>
+  </si>
+  <si>
+    <t>114531</t>
+  </si>
+  <si>
+    <t>Губка поролоновая для посуды 110х80х30 мм XXXL, цвет в ассорт., 10 шт/упак (ООО ПФ Прайд)</t>
+  </si>
+  <si>
+    <t>114532</t>
+  </si>
+  <si>
+    <t>Губка поролоновая для посуды 90х60х25 мм Стандарт, цвет в ассорт., 5 шт/упак (ООО ПФ Прайд)</t>
+  </si>
+  <si>
+    <t>115478</t>
+  </si>
+  <si>
+    <t>Упаковка для бургера типа "Уголок" 150х150 мм, бел., бум., 5000 шт/кор (ООО ПищеПак)</t>
+  </si>
+  <si>
+    <t>115483</t>
+  </si>
+  <si>
+    <t>Полотно вафельное 450мм х 50м, 120 гр/м2, бел. (Mirobid Tekstil)</t>
+  </si>
+  <si>
+    <t>115484</t>
+  </si>
+  <si>
+    <t>Полотно вафельное 450мм х 60м, 130 гр/м2, бел. (Mirobid Tekstil)</t>
   </si>
   <si>
     <t>116051</t>
@@ -316,22 +244,10 @@
     <t>Сода кальцинированная, 600 г (ООО Бионикс)</t>
   </si>
   <si>
-    <t>116073</t>
-  </si>
-  <si>
-    <t>Перчатки латексные, р-р M, с хлопк. напылен., желт., 1 пар/упак "Aviora"</t>
-  </si>
-  <si>
-    <t>116074</t>
-  </si>
-  <si>
-    <t>Перчатки латексные, р-р L, с хлопк. напылен., желт., 1 пар/упак "Aviora"</t>
-  </si>
-  <si>
-    <t>116264</t>
-  </si>
-  <si>
-    <t>Стакан бумажный 400 мл 1 сл., d90 мм, желт., карт., 50 шт/упак (ООО Паперскоп Рус)</t>
+    <t>116262</t>
+  </si>
+  <si>
+    <t>Сахар порционный 5 г, лого "SF", стик, 2000 шт/кор (ТОО Компания Ника-2000)</t>
   </si>
   <si>
     <t>108353</t>
@@ -340,16 +256,40 @@
     <t>Перчатки нитяные, 4 нит., 10 кл., бел., Х/Б, 1 пар/упак (ООО Лидертекс)</t>
   </si>
   <si>
+    <t>109221</t>
+  </si>
+  <si>
+    <t>Мешок для мусора 30 л, 50х47 см, 9 мкм, черн., ПНД, 30 шт/рул (ООО КБ Полимер)</t>
+  </si>
+  <si>
+    <t>108394</t>
+  </si>
+  <si>
+    <t>Пленка пищевая 450мм х 900м 9 мкм, прозр., ПВХ "P.V.Ran"</t>
+  </si>
+  <si>
     <t>451356</t>
   </si>
   <si>
     <t>Полотенца бумажные для диспенсеров 2-сл. с центр. вытяжкой, бел., 125 м "Focus" Jumbo</t>
   </si>
   <si>
-    <t>301026</t>
-  </si>
-  <si>
-    <t>Салфетки 240х200 мм 1-сл., бел., бум., 100 шт/упак "Focus" Economic Choice</t>
+    <t>451456</t>
+  </si>
+  <si>
+    <t>Полотенца бумажные для диспенсеров 240х215 мм 1-сл. Z-сложен., бел., 150 лист/упак "Focus" Economic</t>
+  </si>
+  <si>
+    <t>451457</t>
+  </si>
+  <si>
+    <t>Полотенца бумажные для диспенсеров 240х215 мм 1-сл. Z-сложен., бел, 250 лист/упак "Focus" Eco</t>
+  </si>
+  <si>
+    <t>108563</t>
+  </si>
+  <si>
+    <t>Бумага туалетная для диспенсеров 1-сл. "Focus" Eco Jumbo, бел., 200 м</t>
   </si>
 </sst>
 </file>
@@ -487,7 +427,7 @@
     <outlinePr summaryBelow="false" summaryRight="false"/>
     <pageSetUpPr autoPageBreaks="false" fitToPage="true"/>
   </sheetPr>
-  <dimension ref="H50"/>
+  <dimension ref="H40"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0" rightToLeft="false"/>
   </sheetViews>
@@ -543,17 +483,17 @@
         <v>11</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>1556.63</v>
+        <v>2507.07</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="5" t="e"/>
       <c r="H2" s="6" t="n">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="3" ht="23" customHeight="true">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" ht="11" customHeight="true">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -567,17 +507,17 @@
         <v>14</v>
       </c>
       <c r="E3" s="7" t="n">
-        <v>74.67</v>
+        <v>92.85</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="5" t="e"/>
       <c r="H3" s="8" t="n">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="4" ht="23" customHeight="true">
+        <v>6090</v>
+      </c>
+    </row>
+    <row r="4" ht="11" customHeight="true">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -590,18 +530,18 @@
       <c r="D4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="7" t="n">
-        <v>295.25</v>
+      <c r="E4" s="4" t="n">
+        <v>1508.42</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="5" t="e"/>
       <c r="H4" s="6" t="n">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="5" ht="11" customHeight="true">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" ht="23" customHeight="true">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -615,17 +555,17 @@
         <v>18</v>
       </c>
       <c r="E5" s="7" t="n">
-        <v>241.79</v>
+        <v>308.54</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="5" t="e"/>
       <c r="H5" s="6" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" ht="11" customHeight="true">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" ht="23" customHeight="true">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -638,15 +578,15 @@
       <c r="D6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="4" t="n">
-        <v>1508.42</v>
+      <c r="E6" s="7" t="n">
+        <v>421.91</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="5" t="e"/>
       <c r="H6" s="6" t="n">
-        <v>20</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" ht="11" customHeight="true">
@@ -662,18 +602,18 @@
       <c r="D7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="7" t="n">
-        <v>53.77</v>
+      <c r="E7" s="4" t="n">
+        <v>1195.54</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="5" t="e"/>
       <c r="H7" s="6" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" ht="23" customHeight="true">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="8" ht="11" customHeight="true">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
@@ -687,17 +627,17 @@
         <v>24</v>
       </c>
       <c r="E8" s="7" t="n">
-        <v>421.91</v>
+        <v>12.11</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="5" t="e"/>
-      <c r="H8" s="6" t="n">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="9" ht="23" customHeight="true">
+      <c r="H8" s="8" t="n">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="9" ht="11" customHeight="true">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -710,18 +650,18 @@
       <c r="D9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="4" t="n">
-        <v>5003.67</v>
+      <c r="E9" s="7" t="n">
+        <v>3.13</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="5" t="e"/>
-      <c r="H9" s="6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" ht="23" customHeight="true">
+      <c r="H9" s="8" t="n">
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="10" ht="11" customHeight="true">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
@@ -734,18 +674,18 @@
       <c r="D10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="4" t="n">
-        <v>2773.77</v>
+      <c r="E10" s="7" t="n">
+        <v>2.01</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="5" t="e"/>
-      <c r="H10" s="6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" ht="11" customHeight="true">
+      <c r="H10" s="8" t="n">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="11" ht="23" customHeight="true">
       <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
@@ -758,15 +698,15 @@
       <c r="D11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="7" t="n">
-        <v>609.17</v>
+      <c r="E11" s="4" t="n">
+        <v>3110.33</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G11" s="5" t="e"/>
       <c r="H11" s="6" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" ht="11" customHeight="true">
@@ -782,18 +722,18 @@
       <c r="D12" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="4" t="n">
-        <v>1195.54</v>
+      <c r="E12" s="7" t="n">
+        <v>9.12</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G12" s="5" t="e"/>
-      <c r="H12" s="6" t="n">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="13" ht="23" customHeight="true">
+      <c r="H12" s="8" t="n">
+        <v>84000</v>
+      </c>
+    </row>
+    <row r="13" ht="11" customHeight="true">
       <c r="A13" s="3" t="s">
         <v>8</v>
       </c>
@@ -807,14 +747,14 @@
         <v>34</v>
       </c>
       <c r="E13" s="7" t="n">
-        <v>415</v>
+        <v>9.34</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="5" t="e"/>
-      <c r="H13" s="6" t="n">
-        <v>10</v>
+      <c r="H13" s="8" t="n">
+        <v>4000</v>
       </c>
     </row>
     <row r="14" ht="23" customHeight="true">
@@ -831,14 +771,14 @@
         <v>36</v>
       </c>
       <c r="E14" s="7" t="n">
-        <v>6.35</v>
+        <v>210.75</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="5" t="e"/>
-      <c r="H14" s="8" t="n">
-        <v>30000</v>
+      <c r="H14" s="6" t="n">
+        <v>96</v>
       </c>
     </row>
     <row r="15" ht="11" customHeight="true">
@@ -855,17 +795,17 @@
         <v>38</v>
       </c>
       <c r="E15" s="7" t="n">
-        <v>14.75</v>
+        <v>7.46</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G15" s="5" t="e"/>
       <c r="H15" s="8" t="n">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="16" ht="11" customHeight="true">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="16" ht="23" customHeight="true">
       <c r="A16" s="3" t="s">
         <v>8</v>
       </c>
@@ -879,14 +819,14 @@
         <v>40</v>
       </c>
       <c r="E16" s="7" t="n">
-        <v>3.13</v>
+        <v>13.41</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="5" t="e"/>
       <c r="H16" s="8" t="n">
-        <v>280000</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="17" ht="11" customHeight="true">
@@ -903,17 +843,17 @@
         <v>42</v>
       </c>
       <c r="E17" s="7" t="n">
-        <v>4.2</v>
+        <v>31.58</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G17" s="5" t="e"/>
       <c r="H17" s="8" t="n">
-        <v>70000</v>
-      </c>
-    </row>
-    <row r="18" ht="11" customHeight="true">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="18" ht="23" customHeight="true">
       <c r="A18" s="3" t="s">
         <v>8</v>
       </c>
@@ -927,17 +867,17 @@
         <v>44</v>
       </c>
       <c r="E18" s="7" t="n">
-        <v>9.12</v>
+        <v>130.28</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G18" s="5" t="e"/>
       <c r="H18" s="8" t="n">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="19" ht="11" customHeight="true">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="19" ht="23" customHeight="true">
       <c r="A19" s="3" t="s">
         <v>8</v>
       </c>
@@ -951,14 +891,14 @@
         <v>46</v>
       </c>
       <c r="E19" s="7" t="n">
-        <v>7.04</v>
+        <v>827.49</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G19" s="5" t="e"/>
-      <c r="H19" s="8" t="n">
-        <v>32000</v>
+      <c r="H19" s="6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="20" ht="11" customHeight="true">
@@ -975,14 +915,14 @@
         <v>48</v>
       </c>
       <c r="E20" s="7" t="n">
-        <v>9.34</v>
+        <v>79.05</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G20" s="5" t="e"/>
       <c r="H20" s="8" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="21" ht="23" customHeight="true">
@@ -999,17 +939,17 @@
         <v>50</v>
       </c>
       <c r="E21" s="7" t="n">
-        <v>42.56</v>
+        <v>15.3</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G21" s="5" t="e"/>
       <c r="H21" s="8" t="n">
-        <v>7500</v>
-      </c>
-    </row>
-    <row r="22" ht="23" customHeight="true">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="22" ht="11" customHeight="true">
       <c r="A22" s="3" t="s">
         <v>8</v>
       </c>
@@ -1023,17 +963,17 @@
         <v>52</v>
       </c>
       <c r="E22" s="7" t="n">
-        <v>42.08</v>
+        <v>5.08</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G22" s="5" t="e"/>
       <c r="H22" s="8" t="n">
-        <v>7500</v>
-      </c>
-    </row>
-    <row r="23" ht="23" customHeight="true">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="23" ht="11" customHeight="true">
       <c r="A23" s="3" t="s">
         <v>8</v>
       </c>
@@ -1046,15 +986,15 @@
       <c r="D23" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E23" s="7" t="n">
-        <v>23</v>
+      <c r="E23" s="4" t="n">
+        <v>1607.33</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G23" s="5" t="e"/>
-      <c r="H23" s="8" t="n">
-        <v>5400</v>
+      <c r="H23" s="6" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="24" ht="11" customHeight="true">
@@ -1070,18 +1010,18 @@
       <c r="D24" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E24" s="7" t="n">
-        <v>21.34</v>
+      <c r="E24" s="4" t="n">
+        <v>1143.61</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G24" s="5" t="e"/>
-      <c r="H24" s="8" t="n">
-        <v>2520</v>
-      </c>
-    </row>
-    <row r="25" ht="23" customHeight="true">
+      <c r="H24" s="6" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" ht="11" customHeight="true">
       <c r="A25" s="3" t="s">
         <v>8</v>
       </c>
@@ -1095,14 +1035,14 @@
         <v>58</v>
       </c>
       <c r="E25" s="7" t="n">
-        <v>24.98</v>
+        <v>238.63</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G25" s="5" t="e"/>
-      <c r="H25" s="8" t="n">
-        <v>5400</v>
+      <c r="H25" s="6" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="26" ht="23" customHeight="true">
@@ -1118,15 +1058,13 @@
       <c r="D26" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E26" s="7" t="n">
-        <v>18.38</v>
-      </c>
+      <c r="E26" s="3" t="e"/>
       <c r="F26" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G26" s="5" t="e"/>
-      <c r="H26" s="8" t="n">
-        <v>2520</v>
+      <c r="H26" s="6" t="n">
+        <v>270</v>
       </c>
     </row>
     <row r="27" ht="23" customHeight="true">
@@ -1143,17 +1081,17 @@
         <v>62</v>
       </c>
       <c r="E27" s="7" t="n">
-        <v>5.11</v>
+        <v>287.72</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G27" s="5" t="e"/>
-      <c r="H27" s="8" t="n">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="28" ht="11" customHeight="true">
+      <c r="H27" s="6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" ht="23" customHeight="true">
       <c r="A28" s="3" t="s">
         <v>8</v>
       </c>
@@ -1166,18 +1104,18 @@
       <c r="D28" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E28" s="4" t="n">
-        <v>4800</v>
+      <c r="E28" s="7" t="n">
+        <v>101.22</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G28" s="5" t="e"/>
       <c r="H28" s="6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" ht="11" customHeight="true">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" ht="23" customHeight="true">
       <c r="A29" s="3" t="s">
         <v>8</v>
       </c>
@@ -1191,17 +1129,17 @@
         <v>66</v>
       </c>
       <c r="E29" s="7" t="n">
-        <v>62</v>
+        <v>4.39</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G29" s="5" t="e"/>
       <c r="H29" s="8" t="n">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="30" ht="23" customHeight="true">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="30" ht="11" customHeight="true">
       <c r="A30" s="3" t="s">
         <v>8</v>
       </c>
@@ -1214,8 +1152,8 @@
       <c r="D30" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E30" s="7" t="n">
-        <v>827.49</v>
+      <c r="E30" s="4" t="n">
+        <v>6268.22</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>12</v>
@@ -1238,15 +1176,15 @@
       <c r="D31" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E31" s="7" t="n">
-        <v>1.13</v>
+      <c r="E31" s="4" t="n">
+        <v>8786.98</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G31" s="5" t="e"/>
-      <c r="H31" s="8" t="n">
-        <v>10000</v>
+      <c r="H31" s="6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="32" ht="11" customHeight="true">
@@ -1263,17 +1201,17 @@
         <v>72</v>
       </c>
       <c r="E32" s="7" t="n">
-        <v>79.05</v>
+        <v>138.42</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G32" s="5" t="e"/>
-      <c r="H32" s="8" t="n">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="33" ht="23" customHeight="true">
+      <c r="H32" s="6" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" ht="11" customHeight="true">
       <c r="A33" s="3" t="s">
         <v>8</v>
       </c>
@@ -1286,15 +1224,13 @@
       <c r="D33" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E33" s="7" t="n">
-        <v>15.3</v>
-      </c>
+      <c r="E33" s="3" t="e"/>
       <c r="F33" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G33" s="5" t="e"/>
       <c r="H33" s="8" t="n">
-        <v>5000</v>
+        <v>350000</v>
       </c>
     </row>
     <row r="34" ht="11" customHeight="true">
@@ -1311,17 +1247,17 @@
         <v>76</v>
       </c>
       <c r="E34" s="7" t="n">
-        <v>5.08</v>
+        <v>57.95</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G34" s="5" t="e"/>
       <c r="H34" s="8" t="n">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="35" ht="23" customHeight="true">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="35" ht="11" customHeight="true">
       <c r="A35" s="3" t="s">
         <v>8</v>
       </c>
@@ -1335,14 +1271,14 @@
         <v>78</v>
       </c>
       <c r="E35" s="7" t="n">
-        <v>44.58</v>
+        <v>106.64</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G35" s="5" t="e"/>
-      <c r="H35" s="8" t="n">
-        <v>1000</v>
+      <c r="H35" s="6" t="n">
+        <v>300</v>
       </c>
     </row>
     <row r="36" ht="11" customHeight="true">
@@ -1359,17 +1295,17 @@
         <v>80</v>
       </c>
       <c r="E36" s="4" t="n">
-        <v>1143.61</v>
+        <v>3957.83</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G36" s="5" t="e"/>
       <c r="H36" s="6" t="n">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="37" ht="11" customHeight="true">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" ht="23" customHeight="true">
       <c r="A37" s="3" t="s">
         <v>8</v>
       </c>
@@ -1383,17 +1319,17 @@
         <v>82</v>
       </c>
       <c r="E37" s="7" t="n">
-        <v>430</v>
+        <v>970.77</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G37" s="5" t="e"/>
       <c r="H37" s="6" t="n">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" ht="11" customHeight="true">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" ht="23" customHeight="true">
       <c r="A38" s="3" t="s">
         <v>8</v>
       </c>
@@ -1407,14 +1343,14 @@
         <v>84</v>
       </c>
       <c r="E38" s="7" t="n">
-        <v>2.32</v>
+        <v>220.85</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G38" s="5" t="e"/>
-      <c r="H38" s="8" t="n">
-        <v>30000</v>
+      <c r="H38" s="6" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="39" ht="23" customHeight="true">
@@ -1430,18 +1366,18 @@
       <c r="D39" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E39" s="4" t="n">
-        <v>3298.53</v>
+      <c r="E39" s="7" t="n">
+        <v>366.39</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G39" s="5" t="e"/>
       <c r="H39" s="6" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="40" ht="23" customHeight="true">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" ht="11" customHeight="true">
       <c r="A40" s="3" t="s">
         <v>8</v>
       </c>
@@ -1455,252 +1391,14 @@
         <v>88</v>
       </c>
       <c r="E40" s="7" t="n">
-        <v>5.5</v>
+        <v>334.15</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G40" s="5" t="e"/>
-      <c r="H40" s="8" t="n">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="41" ht="23" customHeight="true">
-      <c r="A41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E41" s="7" t="n">
-        <v>25.55</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G41" s="5" t="e"/>
-      <c r="H41" s="8" t="n">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="42" ht="23" customHeight="true">
-      <c r="A42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E42" s="7" t="n">
-        <v>17.82</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G42" s="5" t="e"/>
-      <c r="H42" s="8" t="n">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="43" ht="23" customHeight="true">
-      <c r="A43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="E43" s="7" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G43" s="5" t="e"/>
-      <c r="H43" s="8" t="n">
-        <v>3200</v>
-      </c>
-    </row>
-    <row r="44" ht="11" customHeight="true">
-      <c r="A44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E44" s="7" t="n">
-        <v>138.42</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G44" s="5" t="e"/>
-      <c r="H44" s="6" t="n">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="45" ht="11" customHeight="true">
-      <c r="A45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E45" s="7" t="n">
-        <v>222</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G45" s="5" t="e"/>
-      <c r="H45" s="6" t="n">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="46" ht="11" customHeight="true">
-      <c r="A46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="E46" s="7" t="n">
-        <v>222</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G46" s="5" t="e"/>
-      <c r="H46" s="6" t="n">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="47" ht="11" customHeight="true">
-      <c r="A47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E47" s="3" t="e"/>
-      <c r="F47" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G47" s="5" t="e"/>
-      <c r="H47" s="8" t="n">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="48" ht="11" customHeight="true">
-      <c r="A48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="E48" s="7" t="n">
-        <v>57.95</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G48" s="5" t="e"/>
-      <c r="H48" s="8" t="n">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="49" ht="23" customHeight="true">
-      <c r="A49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E49" s="7" t="n">
-        <v>970.77</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G49" s="5" t="e"/>
-      <c r="H49" s="6" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="50" ht="11" customHeight="true">
-      <c r="A50" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E50" s="7" t="n">
-        <v>84.5</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G50" s="5" t="e"/>
-      <c r="H50" s="6" t="n">
-        <v>240</v>
+      <c r="H40" s="6" t="n">
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/data/В пути АСТ.xlsx
+++ b/data/В пути АСТ.xlsx
@@ -49,7 +49,7 @@
     <t>Кон ост</t>
   </si>
   <si>
-    <t>26.04.2024 0:00:00</t>
+    <t>02.05.2024 0:00:00</t>
   </si>
   <si>
     <t>Астана в Пути</t>
@@ -247,7 +247,7 @@
     <t>116262</t>
   </si>
   <si>
-    <t>Сахар порционный 5 г, лого "SF", стик, 2000 шт/кор (ТОО Компания Ника-2000)</t>
+    <t>Сахар порционный 5 г, лого "SF", стик, 2000 шт/кор (ООО Компания Ника-2000)</t>
   </si>
   <si>
     <t>108353</t>

--- a/data/В пути АСТ.xlsx
+++ b/data/В пути АСТ.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Дата</t>
   </si>
@@ -47,6 +47,27 @@
   </si>
   <si>
     <t>Кон ост</t>
+  </si>
+  <si>
+    <t>14.05.2024 0:00:00</t>
+  </si>
+  <si>
+    <t>Астана в Пути</t>
+  </si>
+  <si>
+    <t>113386</t>
+  </si>
+  <si>
+    <t>Стакан бумажный 400 мл 2 сл., d90 мм, крафт-бел., карт., 18 шт/упак (ООО Паперскоп Рус)</t>
+  </si>
+  <si>
+    <t>Нет</t>
+  </si>
+  <si>
+    <t>116262</t>
+  </si>
+  <si>
+    <t>Сахар порционный 5 г, лого "SF", стик, 2000 шт/кор (ООО Компания Ника-2000)</t>
   </si>
 </sst>
 </file>
@@ -97,7 +118,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -120,17 +141,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="7D8AB9"/>
+      </left>
+      <right style="thin">
+        <color rgb="7D8AB9"/>
+      </right>
+      <top style="thin">
+        <color rgb="7D8AB9"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="7D8AB9"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0"/>
     <xf numFmtId="0" fontId="0" applyAlignment="true">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="2" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" borderId="2" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="2" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="right" vertical="top" wrapText="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" borderId="2" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="right" vertical="top" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -151,20 +199,20 @@
     <outlinePr summaryBelow="false" summaryRight="false"/>
     <pageSetUpPr autoPageBreaks="false" fitToPage="true"/>
   </sheetPr>
-  <dimension ref="H1"/>
+  <dimension ref="H3"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0" rightToLeft="false"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" customHeight="true" defaultRowHeight="11.429"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" style="1" customWidth="true"/>
-    <col min="2" max="2" width="9.5" style="1" customWidth="true"/>
+    <col min="1" max="1" width="23.33203125" style="1" customWidth="true"/>
+    <col min="2" max="2" width="17.5" style="1" customWidth="true"/>
     <col min="3" max="3" width="11.66796875" style="1" customWidth="true"/>
-    <col min="4" max="4" width="18.33203125" style="1" customWidth="true"/>
+    <col min="4" max="4" width="74.66796875" style="1" customWidth="true"/>
     <col min="5" max="5" width="8.5" style="1" customWidth="true"/>
     <col min="6" max="6" width="17.83203125" style="1" customWidth="true"/>
     <col min="7" max="7" width="10.83203125" style="1" customWidth="true"/>
-    <col min="8" max="8" width="6.66796875" style="1" customWidth="true"/>
+    <col min="8" max="8" width="10.5" style="1" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="40" customHeight="true">
@@ -191,6 +239,54 @@
       </c>
       <c r="H1" s="2" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="2" ht="23" customHeight="true">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="4" t="n">
+        <v>34.57</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="5" t="e"/>
+      <c r="H2" s="6" t="n">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="3" ht="11" customHeight="true">
+      <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="5" t="e"/>
+      <c r="H3" s="6" t="n">
+        <v>100000</v>
       </c>
     </row>
   </sheetData>

--- a/data/В пути АСТ.xlsx
+++ b/data/В пути АСТ.xlsx
@@ -49,7 +49,7 @@
     <t>Кон ост</t>
   </si>
   <si>
-    <t>14.05.2024 0:00:00</t>
+    <t>15.05.2024 0:00:00</t>
   </si>
   <si>
     <t>Астана в Пути</t>
